--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>答辩完了好开心，早上练了两小时吉他；不知道怎么了突然想起了常蓉，想起了七年前毕业晚会后我们一起走在月光下的圣洁，不，这不是纯粹的友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,24 +765,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -766,7 +790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -779,11 +803,17 @@
       <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -793,11 +823,17 @@
       <c r="I3" s="2">
         <v>0.34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.34</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -817,7 +853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -828,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -838,11 +874,17 @@
       <c r="I7" s="2">
         <v>0.34</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7">
+        <v>63</v>
+      </c>
+      <c r="K7">
+        <v>0.68</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -862,7 +904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -873,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -884,7 +926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -895,7 +937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -903,7 +945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -911,13 +953,19 @@
         <v>88.5</v>
       </c>
       <c r="I14" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="J14" s="2" t="s">
+        <v>0.35</v>
+      </c>
+      <c r="J14">
+        <v>151.5</v>
+      </c>
+      <c r="K14">
+        <v>1.03</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -931,13 +979,13 @@
         <v>19</v>
       </c>
       <c r="G15">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -948,7 +996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -959,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -970,7 +1018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -981,7 +1029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -990,6 +1038,40 @@
       </c>
       <c r="D20" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>0.34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1004,12 +1086,12 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1017,12 +1099,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1030,7 +1112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1038,7 +1120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1046,7 +1128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1054,7 +1136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1062,7 +1144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1070,12 +1152,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1083,7 +1165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1091,7 +1173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1099,7 +1181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1107,7 +1189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1115,7 +1197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1123,12 +1205,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -1136,7 +1218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1152,7 +1234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1160,7 +1242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1168,7 +1250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1176,37 +1258,37 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -1225,9 +1307,9 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1235,37 +1317,37 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1281,13 +1363,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1295,37 +1377,37 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -1344,7 +1426,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0601'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06.01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,18 +319,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0602'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>和小令范晶一起去东门吃了烧烤，有好强一股罪恶感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0603'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早上去找王老师签字，王老师在练英语听力，笑呵呵地对我说话；中午送要去北京开会的霞姐去南站，听说她被孙和曾坑得好惨；晚上一个人去柳巷买衣服，一个人总感觉缺少了点什么，好伤感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0604'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>感情生活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +392,98 @@
   </si>
   <si>
     <t>总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-202'(小鸡儿请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北门左手烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑人牙膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦香牙盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上旁云去青年路找王总签字，回来过马路没走斑马线，被交警逮住罚了五块钱，看得出她很委屈，说她出门没看黄历，很不情愿地接受了罚单，哈哈哈哈哈哈哈哈哈；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋艺把王总的冬写成了东字，王总没有给她签字，好有意思；下午去找房老师签字的时候知道晋艺没有和我们一起，他看上去挺不开心的，应该是不想被这事继续打扰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和小鸡儿贾鹏一起去吃饭，看得出两个人并不开心，我也知道呢，谁开心谁不开心我还是心里有杆秤的。霞姐晚上从北京回来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇，我还是放不下左苗啊！！！！！！！！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被一泡尿憋醒了，然后再也睡不着了，感觉到很烦很气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去学院问了一下毕业的事，学院说得要等到10号，时间好漫长啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上吃了烧烤，热量有点大，不知道怎么散热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常，吃烧烤热量摄入过大，我该怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好，心情很好，自己经历的印证了我的某些判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,24 +841,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -790,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -804,16 +880,16 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -833,7 +909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -853,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -864,7 +940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -884,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -904,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -915,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -926,7 +1002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -937,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -945,7 +1021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -965,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -985,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1007,7 +1083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1018,7 +1094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1029,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1040,29 +1116,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>26.3</v>
       </c>
       <c r="I22" s="2">
         <v>0.34</v>
       </c>
+      <c r="J22">
+        <v>177.8</v>
+      </c>
       <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -1072,6 +1151,41 @@
       </c>
       <c r="H23" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1085,13 +1199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1099,12 +1213,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1112,7 +1226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1120,7 +1234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1128,7 +1242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1136,7 +1250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1144,7 +1258,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1152,20 +1266,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1173,7 +1287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1181,7 +1295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1189,7 +1303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1197,7 +1311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1205,12 +1319,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1234,15 +1348,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1250,7 +1364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1258,39 +1372,57 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1301,15 +1433,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1317,39 +1449,59 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1361,55 +1513,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1583,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>感觉良好，心情很好，自己经历的印证了我的某些判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.02km，共11233步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1410,7 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,42 @@
   </si>
   <si>
     <t>运动为8.02km，共11233步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'(霞姐请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19.8'(请小鸡儿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天常蓉好像拍毕业照，中午睡觉的时候梦见了她，好想好想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,24 +881,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -870,7 +906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -893,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -913,7 +949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -933,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -944,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -964,7 +1000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -984,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1006,7 +1042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1045,7 +1081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1098,7 +1134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1128,16 +1164,19 @@
         <v>26.3</v>
       </c>
       <c r="I22" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J22">
         <v>177.8</v>
       </c>
+      <c r="K22">
+        <v>1.38</v>
+      </c>
       <c r="L22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -1157,7 +1196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1168,7 +1207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>97</v>
       </c>
@@ -1176,7 +1215,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -1184,12 +1223,60 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J29">
+        <v>197.6</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>0.34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1201,15 +1288,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1217,12 +1304,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1230,7 +1317,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1238,7 +1325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1246,7 +1333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1254,7 +1341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1262,7 +1349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1270,12 +1357,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1283,7 +1370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1299,7 +1386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1307,7 +1394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1315,7 +1402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1323,12 +1410,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -1336,7 +1423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1360,7 +1447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1368,7 +1455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1376,12 +1463,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1389,7 +1476,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -1397,7 +1484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -1405,7 +1492,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -1413,7 +1500,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -1421,12 +1508,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1440,12 +1532,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1453,57 +1545,57 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -1517,15 +1609,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1533,44 +1625,54 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1689,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,54 @@
   </si>
   <si>
     <t>今天常蓉好像拍毕业照，中午睡觉的时候梦见了她，好想好想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院说评奖学金，我到底该不该参评，想不通里面的道理啊，希望不会出差错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午午休了一下，感觉晚上该睡不着了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在朋友圈看见了国锋班主任和青民，感觉两个人都老了很多，岁月不饶人啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好，心情一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为5.62km，共7837步(下了一天雨，哪里也没去)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起来下雨了，心情很不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +624,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -887,18 +937,18 @@
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -906,7 +956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -929,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -949,7 +999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -969,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -980,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1101,7 +1151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1145,7 +1195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1156,7 +1206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1176,7 +1226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -1196,7 +1246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1207,7 +1257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>97</v>
       </c>
@@ -1215,7 +1265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -1223,7 +1273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1231,7 +1281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1248,7 +1298,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -1268,7 +1318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>121</v>
       </c>
@@ -1288,15 +1338,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1304,12 +1354,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1317,7 +1367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1325,7 +1375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1333,7 +1383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1349,7 +1399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1357,12 +1407,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1370,7 +1420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1394,7 +1444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1402,7 +1452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1410,12 +1460,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -1423,7 +1473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1431,7 +1481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1439,7 +1489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1447,7 +1497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1455,7 +1505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1463,12 +1513,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1476,7 +1526,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -1484,7 +1534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -1492,7 +1542,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -1500,7 +1550,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -1508,7 +1558,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -1516,10 +1566,66 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1529,15 +1635,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1545,60 +1651,112 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1611,13 +1769,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1625,52 +1783,52 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>126</v>
       </c>
@@ -1689,7 +1847,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="169">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,126 @@
   </si>
   <si>
     <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送霞姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三多面(五菜一汤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NAN'(刘畅请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请小鸡儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天拍毕业照心情很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和平使命装不好，有一点点小烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入过量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好，心情很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为21.75km，共30465步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天拍毕业照，本来心情很好，被晋艺弄得心情一点都不好了，好像大家都不太喜欢看见她了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和办公室的每一个人都有合影留念，也许这是最后一次了吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和悟空老朱他们一起去拍照了，很开心啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午打了几把游戏，全都输掉了，感觉很烦啊，自己带不动队友了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上刘畅请了我和他师弟去吃饭，我现在已经混到完全靠别人请我吃饭的地步了，哈哈哈哈哈哈哈，多来几次吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和小鸡儿一起去汾河边去散步，告诉了他去网上租一台云服务器来进行模拟计算的想法，他好像很赞同，晚上请我吃了西瓜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和师妹，任俊娇、还有欣悦一起拍了照。总感觉自己还缺少点什么，言语、谈吐、气质？好烦啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦几行，思念徘徊绕梁！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天拍毕业照，小平给我推了欣悦的微信，哈哈哈哈哈哈哈，我该怎么办。可是我还是很想她，我也不知道我该怎么办。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1329,6 +1449,89 @@
         <v>123</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J33">
+        <v>205.6</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>0.34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:L35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1626,6 +1829,74 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1757,6 +2028,51 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1767,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1831,6 +2147,16 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="201">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,6 +692,134 @@
   </si>
   <si>
     <t>今天拍毕业照，小平给我推了欣悦的微信，哈哈哈哈哈哈哈，我该怎么办。可是我还是很想她，我也不知道我该怎么办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15.5'(请霞姐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东食堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转给岳鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焖面套餐、饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡芙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'(霞姐买)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.5'(霞姐买)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚睡得晚，早上起得早，一早上都很没精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好困，睡了一会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午感觉胳膊好酸好累，不知道怎么了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.96km，共16749步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉一半，就是胳膊有点酸痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天帮刘畅画图，30多张有点麻烦，高国红在旁边冷嘲热讽，看得出来对他意见很大，当然我也很讨厌他那种莫名其妙的优越感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃鸡的时候没有一点点游戏体验，立马不想玩这个游戏了，没有乐趣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去办公室帮刘畅改图，霞姐和小平约我去北区和下元散步，是真的散步，霞姐小平和我一起去吃了泡芙，好好吃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上感觉好累，但是练了会琴，感觉很开心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天谁也没有想，我想我快活出我自己了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天小平推了心悦的微信，我不知道该不该走出那一步，我还没有考虑好！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1531,6 +1659,76 @@
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="E40" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J40">
+        <v>247.1</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>0.34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1541,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1832,7 +2030,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,6 +2095,61 @@
         <v>156</v>
       </c>
       <c r="D45" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1906,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2072,6 +2325,26 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2083,11 +2356,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2151,12 +2422,22 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2167,14 +2448,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2019.06</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="234">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,138 @@
   </si>
   <si>
     <t>今天小平推了心悦的微信，我不知道该不该走出那一步，我还没有考虑好！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、烤肠、饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰镇水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋冰激凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老孙买，还没说给不给他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老孙买，东湖醋园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去南内环晓东哥公司打印论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡儿请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-300+'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师妹张璐请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装订论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装订厂装订论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.10’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚睡得晚，早上起得早，早上练了会儿秦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.08'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,24 +1311,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1204,7 +1336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1247,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +1399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1359,7 +1491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1379,7 +1511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1399,7 +1531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1564,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1443,7 +1575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1454,7 +1586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1474,7 +1606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -1494,7 +1626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1505,7 +1637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>97</v>
       </c>
@@ -1513,7 +1645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -1521,7 +1653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1529,7 +1661,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1546,7 +1678,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -1566,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>121</v>
       </c>
@@ -1577,7 +1709,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -1594,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>140</v>
       </c>
@@ -1614,7 +1746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1622,7 +1754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -1633,7 +1765,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>145</v>
       </c>
@@ -1644,7 +1776,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>148</v>
       </c>
@@ -1655,7 +1787,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -1672,7 +1804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>169</v>
       </c>
@@ -1692,7 +1824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>172</v>
       </c>
@@ -1703,7 +1835,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>175</v>
       </c>
@@ -1714,7 +1846,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>178</v>
       </c>
@@ -1722,12 +1854,188 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>180</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J47">
+        <v>247.1</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>0.34</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J52">
+        <v>247.1</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>0.34</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="J55">
+        <v>247.1</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56">
+        <v>0.34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1739,15 +2047,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1755,12 +2063,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1768,7 +2076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -1776,7 +2084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -1784,7 +2092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1792,7 +2100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +2108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -1808,12 +2116,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -1821,7 +2129,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1829,7 +2137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1837,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1845,7 +2153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -1853,7 +2161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -1861,12 +2169,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -1874,7 +2182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1882,7 +2190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1890,7 +2198,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1898,7 +2206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1906,7 +2214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1914,12 +2222,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1927,7 +2235,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -1935,7 +2243,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -1943,7 +2251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -1951,7 +2259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -1959,7 +2267,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -1967,12 +2275,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>138</v>
@@ -1986,7 +2294,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>136</v>
@@ -2000,7 +2308,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>134</v>
@@ -2014,7 +2322,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>132</v>
@@ -2028,12 +2336,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
@@ -2047,7 +2355,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>155</v>
@@ -2061,7 +2369,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>157</v>
@@ -2073,7 +2381,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
@@ -2087,7 +2395,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -2096,12 +2404,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>183</v>
       </c>
@@ -2109,7 +2417,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>185</v>
       </c>
@@ -2117,7 +2425,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>187</v>
       </c>
@@ -2125,7 +2433,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>189</v>
       </c>
@@ -2133,7 +2441,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2142,7 +2450,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2150,6 +2458,171 @@
         <v>191</v>
       </c>
       <c r="D53" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2165,9 +2638,9 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2175,62 +2648,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>130</v>
@@ -2243,7 +2716,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>129</v>
@@ -2256,7 +2729,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>128</v>
@@ -2269,7 +2742,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -2282,67 +2755,67 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>195</v>
       </c>
@@ -2356,13 +2829,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2370,74 +2845,79 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2450,23 +2930,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>200</v>
       </c>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="277">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,10 +783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感觉一半，就是胳膊有点酸痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今天帮刘畅画图，30多张有点麻烦，高国红在旁边冷嘲热讽，看得出来对他意见很大，当然我也很讨厌他那种莫名其妙的优越感。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -947,11 +943,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昨晚睡得晚，早上起得早，早上练了会儿秦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.49km，共13290步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.12km，共11371步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.94km，共19523步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚睡得晚，早上起得早，早上练了会儿琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午玩了会儿游戏，F和弦一直练不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和刘畅、老孙一起去了东湖醋园，进行参观游览，吃了一个醋味冰激凌，下去去了山上，瑞子的爸爸妈妈都过来要为他买房了</t>
+  </si>
+  <si>
+    <t>食物摄入正常，下午大饭店的菜有点多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉一般，就是胳膊有点酸痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚在瑞子家睡着，冷风机声音很大，也没怎么睡好，被他爸爸叫过去起的也很早，没有精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上练琴，手疼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上等瑞子妈妈从上海坐飞机过来，等到了十二点多才睡，睡的好晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上练刀工切土豆丝，发现自己还是有点不太行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去帮瑞子买房，首付四十万，在房子面前算得什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午一起去海鲜市场买小龙虾，我做的麻辣小龙虾，还是很好吃的，更加印证了我的推断，炒菜冒火完全是因为油多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上瑞子不知道怎么了，突然间反悔想要退房，弄得他爸爸妈妈很无措。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去帮他妈妈退火车票，还因为错过了时间退不了，作废了。感觉好无语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐夫开车把我送到学校，感觉也没有用好长时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上小鸡儿领取了免费的云服务器。希望能帮他弄好做的模拟实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午又去了晓东哥他公司打印论文，有没有纸了，浪费了好长时间。只不过赵静打算帮我打印，但是她的时间太晚了，我就没去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去装订好了东西，晚上交了过去，2份绿皮论文、1份白皮答辩材料、硬质卡片成绩单、学位申请表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上张璐请吃饭，一起有晨雅师妹、王洋大海、小鸡儿。吃的彤德莱火锅，感觉好贵啊，挺对不起她的花那么多钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和小鸡儿、两个师妹一起去逛街，帮张璐买了一双鞋、一条裤子，都是他们上山采样用的，哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上小鸡儿教了我罗盘的使用方法，我决定要把罗盘带在身边。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好困，没有睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午做小龙虾，感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常，吃了十多个小龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上被一泡屎憋醒了，感觉很不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午运动量有点大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常，晚上吃火锅油水比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好，很开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天毛毛放了我鸽子，感觉很不开心啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到瑞子买了房，开心地像一个一百多斤的胖子。多希望和我一起买房的是左苗啊，好想好想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天自己一个人做东西，感觉自己好孤单，不知道哪个时刻想起了左苗，又想起了常蓉和梦雅。我该怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午霞姐只送了我一个冰激凌，哈哈哈哈，我霞姐有好东西还是会想起我的。而不是胖云和小令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上想参考一下小令的论文格式，人家不让，感觉好气。自己那点破东西看得比屎都金贵，我真是服了。反正我是不想和他有任何瓜葛了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午在装订处和胖云又吵了一架，我感觉我就喜欢和她吵，我们两个吵架从来不会记恨对方，这也许是我们的一种发泄方式，我们都需要的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.11'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,24 +1482,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1336,7 +1507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1399,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1430,7 +1601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1450,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1483,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1491,7 +1662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1531,7 +1702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1575,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1586,7 +1757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1606,7 +1777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -1626,7 +1797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1637,7 +1808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>97</v>
       </c>
@@ -1645,7 +1816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -1653,7 +1824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1661,7 +1832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1669,16 +1840,19 @@
         <v>25.8</v>
       </c>
       <c r="I29" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J29">
         <v>197.6</v>
       </c>
+      <c r="K29">
+        <v>1.73</v>
+      </c>
       <c r="L29" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -1698,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>121</v>
       </c>
@@ -1709,7 +1883,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -1717,16 +1891,19 @@
         <v>8</v>
       </c>
       <c r="I33" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J33">
         <v>205.6</v>
       </c>
+      <c r="K33">
+        <v>2.08</v>
+      </c>
       <c r="L33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>140</v>
       </c>
@@ -1746,7 +1923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1754,7 +1931,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -1765,7 +1942,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>145</v>
       </c>
@@ -1776,7 +1953,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>148</v>
       </c>
@@ -1787,7 +1964,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -1795,16 +1972,19 @@
         <v>41.5</v>
       </c>
       <c r="I40" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J40">
         <v>247.1</v>
       </c>
+      <c r="K40">
+        <v>2.4300000000000002</v>
+      </c>
       <c r="L40" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>169</v>
       </c>
@@ -1824,7 +2004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>172</v>
       </c>
@@ -1835,7 +2015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
@@ -1846,7 +2026,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>178</v>
       </c>
@@ -1854,7 +2034,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>180</v>
       </c>
@@ -1862,32 +2042,35 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2">
         <v>8.5</v>
       </c>
       <c r="I47" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J47">
-        <v>247.1</v>
+        <v>255.6</v>
+      </c>
+      <c r="K47">
+        <v>2.78</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" t="s">
         <v>203</v>
-      </c>
-      <c r="D48" t="s">
-        <v>204</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -1899,48 +2082,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J52">
-        <v>247.1</v>
+        <v>255.6</v>
+      </c>
+      <c r="K52">
+        <v>3.13</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -1952,32 +2138,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E55" s="2">
         <v>23.5</v>
       </c>
       <c r="I55" s="2">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="J55">
-        <v>247.1</v>
+        <v>279.10000000000002</v>
+      </c>
+      <c r="K55">
+        <v>3.48</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
@@ -1989,53 +2178,76 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" t="s">
         <v>214</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+      <c r="C60" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>217</v>
       </c>
-      <c r="D60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="J62">
+        <v>279.10000000000002</v>
+      </c>
+      <c r="K62">
+        <v>3.48</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>0.34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2047,15 +2259,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2063,12 +2275,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -2076,7 +2288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -2084,7 +2296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -2092,7 +2304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -2100,7 +2312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -2108,7 +2320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -2116,12 +2328,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -2129,7 +2341,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -2137,7 +2349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -2145,7 +2357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -2153,7 +2365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -2161,7 +2373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -2169,12 +2381,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -2182,7 +2394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -2190,7 +2402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -2198,7 +2410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -2206,7 +2418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -2214,7 +2426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -2222,12 +2434,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -2235,7 +2447,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -2243,7 +2455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -2251,7 +2463,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -2259,7 +2471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -2267,7 +2479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -2275,12 +2487,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>138</v>
@@ -2294,7 +2506,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>136</v>
@@ -2308,7 +2520,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>134</v>
@@ -2322,7 +2534,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>132</v>
@@ -2336,12 +2548,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
@@ -2355,7 +2567,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>155</v>
@@ -2369,7 +2581,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>157</v>
@@ -2381,7 +2593,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
@@ -2395,7 +2607,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -2404,12 +2616,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>183</v>
       </c>
@@ -2417,7 +2629,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>185</v>
       </c>
@@ -2425,7 +2637,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>187</v>
       </c>
@@ -2433,7 +2645,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>189</v>
       </c>
@@ -2441,7 +2653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2450,179 +2662,181 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>49</v>
       </c>
-      <c r="C58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="D77" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2632,15 +2846,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2648,62 +2862,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>130</v>
@@ -2716,7 +2930,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>129</v>
@@ -2729,7 +2943,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>128</v>
@@ -2742,7 +2956,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -2755,69 +2969,179 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>195</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2829,15 +3153,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2845,79 +3169,109 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2934,21 +3288,21 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="280">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1123,6 +1123,18 @@
   </si>
   <si>
     <t>06.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-150'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮寄上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办IDCARD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,24 +1494,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1550,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1643,7 +1655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1746,7 +1758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>97</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>121</v>
       </c>
@@ -1883,7 +1895,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -1903,7 +1915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>140</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>145</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>148</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>169</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>172</v>
       </c>
@@ -2015,7 +2027,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>175</v>
       </c>
@@ -2026,7 +2038,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>178</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>180</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>200</v>
       </c>
@@ -2053,7 +2065,7 @@
         <v>0.35</v>
       </c>
       <c r="J47">
-        <v>255.6</v>
+        <v>405.6</v>
       </c>
       <c r="K47">
         <v>2.78</v>
@@ -2062,7 +2074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>201</v>
       </c>
@@ -2082,7 +2094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>205</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>206</v>
       </c>
@@ -2104,149 +2116,160 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I53" s="2">
         <v>0.35</v>
       </c>
-      <c r="J52">
-        <v>255.6</v>
-      </c>
-      <c r="K52">
+      <c r="J53">
+        <v>405.6</v>
+      </c>
+      <c r="K53">
         <v>3.13</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>19</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>0.34</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="2">
         <v>23.5</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I56" s="2">
         <v>0.35</v>
       </c>
-      <c r="J55">
+      <c r="J56">
+        <v>429.1</v>
+      </c>
+      <c r="K56">
+        <v>3.48</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>0.34</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="J63">
         <v>279.10000000000002</v>
       </c>
-      <c r="K55">
+      <c r="K63">
         <v>3.48</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
         <v>19</v>
       </c>
-      <c r="G56">
+      <c r="G64">
         <v>0.34</v>
       </c>
-      <c r="H56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="J62">
-        <v>279.10000000000002</v>
-      </c>
-      <c r="K62">
-        <v>3.48</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63">
-        <v>0.34</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="H64" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2265,9 +2288,9 @@
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2275,12 +2298,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -2296,7 +2319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -2304,7 +2327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -2312,7 +2335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -2320,7 +2343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -2328,12 +2351,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -2341,7 +2364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -2349,7 +2372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -2357,7 +2380,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -2365,7 +2388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -2373,7 +2396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -2381,12 +2404,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -2394,7 +2417,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -2402,7 +2425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -2410,7 +2433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -2426,7 +2449,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -2434,12 +2457,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -2447,7 +2470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -2455,7 +2478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -2463,7 +2486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -2471,7 +2494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -2479,7 +2502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -2487,12 +2510,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>138</v>
@@ -2506,7 +2529,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>136</v>
@@ -2520,7 +2543,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>134</v>
@@ -2534,7 +2557,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>132</v>
@@ -2548,12 +2571,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
@@ -2567,7 +2590,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>155</v>
@@ -2581,7 +2604,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>157</v>
@@ -2593,7 +2616,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
@@ -2607,7 +2630,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -2616,12 +2639,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>183</v>
       </c>
@@ -2629,7 +2652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>185</v>
       </c>
@@ -2637,7 +2660,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>187</v>
       </c>
@@ -2645,7 +2668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>189</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2662,7 +2685,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2671,12 +2694,12 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>47</v>
       </c>
@@ -2684,7 +2707,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>155</v>
       </c>
@@ -2692,12 +2715,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -2705,7 +2728,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
@@ -2714,7 +2737,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
@@ -2723,12 +2746,12 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>47</v>
       </c>
@@ -2736,7 +2759,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>155</v>
       </c>
@@ -2744,7 +2767,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>49</v>
       </c>
@@ -2752,7 +2775,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>53</v>
       </c>
@@ -2760,7 +2783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
@@ -2769,7 +2792,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
@@ -2778,12 +2801,12 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>47</v>
       </c>
@@ -2791,7 +2814,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>155</v>
       </c>
@@ -2799,7 +2822,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>49</v>
       </c>
@@ -2807,7 +2830,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>53</v>
       </c>
@@ -2815,7 +2838,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>55</v>
       </c>
@@ -2824,7 +2847,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>57</v>
       </c>
@@ -2833,7 +2856,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>276</v>
       </c>
@@ -2852,9 +2875,9 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2862,62 +2885,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>130</v>
@@ -2930,7 +2953,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>129</v>
@@ -2943,7 +2966,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>128</v>
@@ -2956,7 +2979,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -2969,177 +2992,177 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>259</v>
       </c>
@@ -3159,9 +3182,9 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -3169,107 +3192,107 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>272</v>
       </c>
@@ -3288,19 +3311,19 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>199</v>
       </c>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,6 +1135,102 @@
   </si>
   <si>
     <t>办IDCARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-48'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果啤小木屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南内环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-79'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘鸡(请刘畅、老孙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南内环油泼面(刘畅请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午好困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.14km，共11397步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入过量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉一般，很开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上星星给我打电话，说要申请奖学金得要材料，忘了忘了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮刘畅去张龙那里修电脑，在南内环吃了饭，感觉好贵！电脑修了好几遍，每次到那里都灭有问题，好无奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去见了霞姐，霞姐很生气，说我没有回复她，其实我就是故意的，看得出来她很着急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和刘畅、老孙去吃了大盘鸡，吃饭的机会很少了以后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上弹老朱的吉他，发现好吉他和不好的吉他就是有区别啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和达哥聊了天，感觉好开心啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和梦雅聊了天，快三年了我心里还是装着她，我好爱她！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1494,24 +1590,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -1519,7 +1615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1562,7 +1658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1613,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1644,7 +1740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1655,7 +1751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1674,7 +1770,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1714,7 +1810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1747,7 +1843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1769,7 +1865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -1789,7 +1885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -1809,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>94</v>
       </c>
@@ -1820,7 +1916,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>97</v>
       </c>
@@ -1828,7 +1924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -1836,7 +1932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -1844,7 +1940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1864,7 +1960,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>119</v>
       </c>
@@ -1884,7 +1980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>121</v>
       </c>
@@ -1895,7 +1991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -1915,7 +2011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>140</v>
       </c>
@@ -1935,7 +2031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1943,7 +2039,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>142</v>
       </c>
@@ -1954,7 +2050,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>145</v>
       </c>
@@ -1965,7 +2061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>148</v>
       </c>
@@ -1976,7 +2072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -1996,7 +2092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>169</v>
       </c>
@@ -2016,7 +2112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>172</v>
       </c>
@@ -2027,7 +2123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>175</v>
       </c>
@@ -2038,7 +2134,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>178</v>
       </c>
@@ -2046,7 +2142,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>180</v>
       </c>
@@ -2054,7 +2150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>200</v>
       </c>
@@ -2074,7 +2170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>201</v>
       </c>
@@ -2094,7 +2190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>205</v>
       </c>
@@ -2105,7 +2201,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>206</v>
       </c>
@@ -2116,7 +2212,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>279</v>
       </c>
@@ -2127,7 +2223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
@@ -2147,7 +2243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>226</v>
       </c>
@@ -2161,7 +2257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>224</v>
       </c>
@@ -2181,7 +2277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>201</v>
       </c>
@@ -2201,7 +2297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>212</v>
       </c>
@@ -2212,7 +2308,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>221</v>
       </c>
@@ -2223,7 +2319,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>218</v>
       </c>
@@ -2234,7 +2330,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>215</v>
       </c>
@@ -2245,24 +2341,33 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="E63" s="2">
+        <v>89</v>
+      </c>
       <c r="I63" s="2">
         <v>0.35</v>
       </c>
       <c r="J63">
-        <v>279.10000000000002</v>
+        <v>368.1</v>
       </c>
       <c r="K63">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
@@ -2271,6 +2376,39 @@
       </c>
       <c r="H64" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2282,15 +2420,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2298,12 +2436,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -2311,7 +2449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -2319,7 +2457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -2327,7 +2465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -2335,7 +2473,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -2343,7 +2481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -2351,12 +2489,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -2364,7 +2502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -2372,7 +2510,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -2380,7 +2518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -2388,7 +2526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -2396,7 +2534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -2404,12 +2542,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -2417,7 +2555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -2425,7 +2563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -2441,7 +2579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -2449,7 +2587,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -2457,12 +2595,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -2470,7 +2608,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -2478,7 +2616,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +2624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -2494,7 +2632,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -2502,7 +2640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -2510,12 +2648,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>138</v>
@@ -2529,7 +2667,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>136</v>
@@ -2543,7 +2681,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>134</v>
@@ -2557,7 +2695,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>132</v>
@@ -2571,12 +2709,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
@@ -2590,7 +2728,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>155</v>
@@ -2604,7 +2742,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>157</v>
@@ -2616,7 +2754,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
@@ -2630,7 +2768,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -2639,12 +2777,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>183</v>
       </c>
@@ -2652,7 +2790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>185</v>
       </c>
@@ -2660,7 +2798,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>187</v>
       </c>
@@ -2668,7 +2806,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>189</v>
       </c>
@@ -2676,7 +2814,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
@@ -2685,7 +2823,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
@@ -2694,12 +2832,12 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>47</v>
       </c>
@@ -2707,7 +2845,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>155</v>
       </c>
@@ -2715,12 +2853,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -2728,7 +2866,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
@@ -2737,7 +2875,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
@@ -2746,12 +2884,12 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>47</v>
       </c>
@@ -2759,7 +2897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>155</v>
       </c>
@@ -2767,7 +2905,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>49</v>
       </c>
@@ -2775,7 +2913,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>53</v>
       </c>
@@ -2783,7 +2921,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
@@ -2792,7 +2930,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
@@ -2801,12 +2939,12 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>47</v>
       </c>
@@ -2814,7 +2952,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>155</v>
       </c>
@@ -2822,7 +2960,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>49</v>
       </c>
@@ -2830,7 +2968,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>53</v>
       </c>
@@ -2838,7 +2976,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>55</v>
       </c>
@@ -2847,7 +2985,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>57</v>
       </c>
@@ -2856,10 +2994,52 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>276</v>
       </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2869,15 +3049,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -2885,62 +3065,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>130</v>
@@ -2953,7 +3133,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>129</v>
@@ -2966,7 +3146,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>128</v>
@@ -2979,7 +3159,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>127</v>
       </c>
@@ -2992,179 +3172,214 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3176,15 +3391,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -3192,109 +3407,119 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3307,23 +3532,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>199</v>
       </c>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="339">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1231,6 +1231,146 @@
   </si>
   <si>
     <t>今天和梦雅聊了天，快三年了我心里还是装着她，我好爱她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南内环修机械键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械键盘键帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请小鸡儿吃炒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请小鸡儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚睡得比较晚，早上起得早，很有精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神状态好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好，很开心，感觉自己要发财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.65km，共12114步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上和达哥商量了发财大计，哈哈哈哈感觉很开心啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近不知道怎么了，大夏天我还盖个被子，太尴尬！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去南内环修机械键盘，15买了一套键帽装上，完美。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午填毕业生登记表，感觉自己没什么填的，一看他们，也没有填啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上霞姐的论文见刊了，感觉她很激动啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老孙给大海设计了一个实验，大夏天20℃恒温水浴，感觉很搞笑啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给小鸡儿的云服务器架设好了，感觉他没胆子，没办法好好利用！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和梦雅聊天了，她还是她，还是她的小暴脾气，我拿她没有办法，三年了我还是很想她，不知道为什么。心里装着不止一个人原来是这种感觉。My，zm，cr。哈哈哈哈哈，好尴尬的说，我到底该怎么办/？？？？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1590,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2346,13 +2486,13 @@
         <v>225</v>
       </c>
       <c r="E63" s="2">
-        <v>89</v>
+        <v>114.5</v>
       </c>
       <c r="I63" s="2">
         <v>0.35</v>
       </c>
       <c r="J63">
-        <v>368.1</v>
+        <v>393.6</v>
       </c>
       <c r="K63">
         <v>3.83</v>
@@ -2378,7 +2518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>285</v>
       </c>
@@ -2389,7 +2529,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>283</v>
       </c>
@@ -2400,7 +2540,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>287</v>
       </c>
@@ -2409,6 +2549,106 @@
       </c>
       <c r="D67" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70" s="2">
+        <v>48.6</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="J70">
+        <v>442.2</v>
+      </c>
+      <c r="K70">
+        <v>4.18</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>0.34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D74" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2420,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3247,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>49</v>
       </c>
@@ -3015,7 +3255,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>53</v>
       </c>
@@ -3023,7 +3263,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>55</v>
       </c>
@@ -3032,7 +3272,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>57</v>
       </c>
@@ -3040,6 +3280,53 @@
         <v>295</v>
       </c>
       <c r="D84" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3049,10 +3336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3380,6 +3667,41 @@
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3391,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3520,6 +3842,16 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3532,7 +3864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="361">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,6 +1371,94 @@
   </si>
   <si>
     <t>今天和梦雅聊天了，她还是她，还是她的小暴脾气，我拿她没有办法，三年了我还是很想她，不知道为什么。心里装着不止一个人原来是这种感觉。My，zm，cr。哈哈哈哈哈，好尴尬的说，我到底该怎么办/？？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资达哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达哥投资咸鱼(17~18号回)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘06.13’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-26.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请刘畅小餐厅吃炒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-149'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请霞姐小平吃烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上很有精神，我觉得我要花费时间去下片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午不开心，星星威胁了我，让我感觉很不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.33km，共11665步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好，很开心，感觉自己要发财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天一共收集了60g的资源，不知道能不能卖出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上胖云把我叫过去说要改论文格式，原来论文有那么多的问题，好尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午星星给我打电话说我没有交材料，他第一次给我说了风凉话，感觉很伤心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上请霞姐和小平去吃了烧烤，我觉得我不欠别人什么了，毕竟我也付出了那么多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文好难改，脑袋要爆炸！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和达哥吵架了，因为分配工作的问题，我好难！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天谁也没有想！！！！早上看见心悦了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1730,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="G23">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -2114,7 +2202,7 @@
         <v>19</v>
       </c>
       <c r="G30">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -2165,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
@@ -2246,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="G41">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
@@ -2324,7 +2412,7 @@
         <v>19</v>
       </c>
       <c r="G48">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
@@ -2391,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="G54">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H54" t="s">
         <v>20</v>
@@ -2431,7 +2519,7 @@
         <v>19</v>
       </c>
       <c r="G57">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H57" t="s">
         <v>20</v>
@@ -2512,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="G64">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -2564,16 +2652,16 @@
         <v>306</v>
       </c>
       <c r="E70" s="2">
-        <v>48.6</v>
+        <v>1048.5999999999999</v>
       </c>
       <c r="I70" s="2">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J70">
-        <v>442.2</v>
+        <v>10442.200000000001</v>
       </c>
       <c r="K70">
-        <v>4.18</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>321</v>
@@ -2593,7 +2681,7 @@
         <v>19</v>
       </c>
       <c r="G71">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
@@ -2649,6 +2737,68 @@
       </c>
       <c r="D76" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79" s="2">
+        <v>175.6</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J79">
+        <v>1124.2</v>
+      </c>
+      <c r="K79">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D81" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2660,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3327,6 +3477,53 @@
         <v>327</v>
       </c>
       <c r="D91" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3336,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3694,14 +3891,49 @@
         <v>334</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3713,10 +3945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3852,6 +4084,11 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="393">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>答辩完了好开心，早上练了两小时吉他；不知道怎么了突然想起了常蓉，想起了七年前毕业晚会后我们一起走在月光下的圣洁，不，这不是纯粹的友谊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06.04'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1386,10 +1382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘06.13’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>午餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1459,6 +1451,142 @@
   </si>
   <si>
     <t>今天谁也没有想！！！！早上看见心悦了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.13’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装订论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝底一寸照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇面、包子、饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资达哥回本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助学贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-2015年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借刘畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还贷款不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上很有精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午打印装订论文的时候不开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.53km，共11952步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚和达哥聊天感觉他一肚子委屈，他觉着他自己做的很多，我没有做什么，这究竟是怎么了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上确认了一下资源，还是没有想到合适分派资源的方法，我很郁闷，可能要等到我工作的时候去建站了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃饭的时候霞姐说我是为了博取她的同情才不走的，我感觉很生气，不想再理她了，就像小令一样，我绝情的时候很可怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去打印装订又发现了问题，感觉好郁闷啊，真的，不想和霞姐说话，好失败啊真的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上做了简历，markdown版本的，感觉技术真的好伟大！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频，他又问起了左苗，我不知道该怎么说，我真的好爱她，但行好事，莫问前程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩完了好开心，早上练了两小时吉他；不知道怎么了突然想起了常蓉，想起了七年前毕业晚会后我们一起走在圣洁月光下，不，这不是纯粹的友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好想左苗！！不知道她好不好，有一点点担心她</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1818,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1830,6 +1958,7 @@
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="2" customWidth="1"/>
@@ -1857,10 +1986,10 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
         <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>1</v>
@@ -2095,7 +2224,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2">
         <v>26.3</v>
@@ -2115,13 +2244,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" t="s">
         <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -2135,42 +2264,42 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2">
         <v>25.8</v>
@@ -2185,18 +2314,18 @@
         <v>1.73</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -2210,18 +2339,18 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2">
         <v>8</v>
@@ -2241,13 +2370,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -2261,48 +2390,48 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>143</v>
-      </c>
-      <c r="D36" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
         <v>145</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" t="s">
         <v>149</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2">
         <v>41.5</v>
@@ -2322,13 +2451,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" t="s">
         <v>170</v>
-      </c>
-      <c r="D41" t="s">
-        <v>171</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
@@ -2342,45 +2471,45 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" t="s">
         <v>173</v>
-      </c>
-      <c r="D42" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" t="s">
         <v>176</v>
-      </c>
-      <c r="D43" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" s="2">
         <v>8.5</v>
@@ -2400,13 +2529,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" t="s">
         <v>202</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
@@ -2420,40 +2549,40 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" t="s">
         <v>277</v>
-      </c>
-      <c r="D51" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2473,7 +2602,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
@@ -2487,7 +2616,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="2">
         <v>23.5</v>
@@ -2507,13 +2636,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
@@ -2527,51 +2656,51 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" t="s">
         <v>213</v>
-      </c>
-      <c r="D58" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" t="s">
         <v>222</v>
-      </c>
-      <c r="D59" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>219</v>
-      </c>
-      <c r="D60" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
         <v>216</v>
-      </c>
-      <c r="D61" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E63" s="2">
         <v>114.5</v>
@@ -2591,10 +2720,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
@@ -2608,48 +2737,48 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" t="s">
         <v>288</v>
-      </c>
-      <c r="D67" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E70" s="2">
         <v>1048.5999999999999</v>
@@ -2664,18 +2793,18 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -2689,13 +2818,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" t="s">
         <v>309</v>
-      </c>
-      <c r="D72" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2703,56 +2832,56 @@
         <v>23</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" t="s">
         <v>311</v>
-      </c>
-      <c r="D73" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" t="s">
         <v>314</v>
-      </c>
-      <c r="D74" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" t="s">
         <v>316</v>
-      </c>
-      <c r="D75" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" t="s">
         <v>319</v>
-      </c>
-      <c r="D76" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" t="s">
         <v>340</v>
       </c>
-      <c r="D77" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>342</v>
+      <c r="A79" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="E79" s="2">
         <v>175.6</v>
@@ -2772,13 +2901,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" t="s">
         <v>343</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D80" t="s">
-        <v>345</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2790,15 +2919,136 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D81" t="s">
         <v>346</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D81" t="s">
-        <v>348</v>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1200.28</v>
+      </c>
+      <c r="J83">
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="K83">
+        <v>1204.3900000000001</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>361</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" t="s">
+        <v>368</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>363</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>372</v>
+      </c>
+      <c r="G85">
+        <v>1200</v>
+      </c>
+      <c r="H85" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>367</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D88" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1200.28</v>
+      </c>
+      <c r="J90">
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="K90">
+        <v>2204.39</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" t="s">
+        <v>376</v>
+      </c>
+      <c r="F91" t="s">
+        <v>378</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2810,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2995,7 +3245,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,7 +3253,7 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3011,7 +3261,7 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,7 +3269,7 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,7 +3277,7 @@
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3035,21 +3285,21 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3060,10 +3310,10 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3074,10 +3324,10 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3088,10 +3338,10 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3101,7 +3351,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3110,7 +3360,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -3121,10 +3371,10 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -3135,10 +3385,10 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
         <v>157</v>
-      </c>
-      <c r="C43" t="s">
-        <v>158</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3150,7 +3400,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -3163,45 +3413,45 @@
         <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
         <v>183</v>
-      </c>
-      <c r="C48" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
         <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
         <v>187</v>
-      </c>
-      <c r="C50" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
         <v>189</v>
-      </c>
-      <c r="C51" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,7 +3459,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -3218,13 +3468,13 @@
         <v>57</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,15 +3482,15 @@
         <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3253,7 +3503,7 @@
         <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,7 +3511,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" s="3"/>
     </row>
@@ -3270,13 +3520,13 @@
         <v>57</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D61" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,15 +3534,15 @@
         <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,7 +3550,7 @@
         <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,7 +3558,7 @@
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3566,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="3"/>
     </row>
@@ -3325,13 +3575,13 @@
         <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D69" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,15 +3589,15 @@
         <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,7 +3605,7 @@
         <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,7 +3613,7 @@
         <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,7 +3621,7 @@
         <v>55</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D76" s="3"/>
     </row>
@@ -3380,21 +3630,21 @@
         <v>57</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D77" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,7 +3652,7 @@
         <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3410,7 +3660,7 @@
         <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3418,7 +3668,7 @@
         <v>55</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D83" s="3"/>
     </row>
@@ -3427,29 +3677,29 @@
         <v>57</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D84" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" t="s">
         <v>323</v>
-      </c>
-      <c r="C87" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" t="s">
         <v>325</v>
-      </c>
-      <c r="C88" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,7 +3707,7 @@
         <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,7 +3715,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D90" s="3"/>
     </row>
@@ -3474,13 +3724,13 @@
         <v>57</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D91" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,7 +3738,7 @@
         <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,7 +3746,7 @@
         <v>49</v>
       </c>
       <c r="C95" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,26 +3754,73 @@
         <v>53</v>
       </c>
       <c r="C96" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D98" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D105" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3533,10 +3830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3551,7 +3848,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3561,7 +3858,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3571,7 +3868,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3581,33 +3878,33 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3620,7 +3917,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -3633,7 +3930,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -3645,7 +3942,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3658,282 +3955,317 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>359</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3945,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3978,7 +4310,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,97 +4330,107 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4114,12 +4456,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="422">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,10 +1226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天和梦雅聊了天，快三年了我心里还是装着她，我好爱她！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,6 +1583,126 @@
   </si>
   <si>
     <t>今天好想左苗！！不知道她好不好，有一点点担心她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、冰水、包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-440'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘畅请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上睡觉起来很晚，十一点才起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午未休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘畅请客，海鲜盛宴，不喜欢吃海鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考六级，有点累，感觉一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.50km，共11900步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常，海鲜居多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉一般 ，有点累，尤其是考试的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上不想起来，一直躺到十一点，这学期还没有过十一点才起床的，好羞耻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去吃饭的时候，碰到了小陈真和小鸡儿，用小陈真的卡刷了饭，最后给他转的微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午考六级，有点力不从心的感觉，考完心脏有点难受，自己已经不适应这种应试教育模式的考试了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上刘畅请客吃海盗盛宴，有老彭，老杨还有他研一的师弟，挺开心的，谁不喜欢吃啊真的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回到办公室没有和霞姐说话，不知道怎么了，自己很心酸很失望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上情久输了白鲨，讲真的有点意外，这都是怎么了都！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌晨借了刘畅一千块钱，终于凑够了六千，把最后一份助学贷款还了，我应该没有其它外债了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上收拾了东西，不知道还差什么！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想她，不知道她要和我闹到什么时候，其实有时候想一想自己挺伤心挺失望的，但是我还是爱她啊，我到底该怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和梦雅聊了天，快三年了我心里还是装着她，我好想她！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1946,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2770,15 +2886,15 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E70" s="2">
         <v>1048.5999999999999</v>
@@ -2793,7 +2909,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -2804,7 +2920,7 @@
         <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -2818,13 +2934,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" t="s">
         <v>308</v>
-      </c>
-      <c r="D72" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2832,56 +2948,56 @@
         <v>23</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
         <v>310</v>
-      </c>
-      <c r="D73" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" t="s">
         <v>313</v>
-      </c>
-      <c r="D74" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" t="s">
         <v>315</v>
-      </c>
-      <c r="D75" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" t="s">
         <v>318</v>
-      </c>
-      <c r="D76" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" t="s">
         <v>339</v>
-      </c>
-      <c r="D77" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E79" s="2">
         <v>175.6</v>
@@ -2901,13 +3017,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" t="s">
         <v>342</v>
-      </c>
-      <c r="D80" t="s">
-        <v>343</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2921,18 +3037,18 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>343</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" t="s">
         <v>345</v>
-      </c>
-      <c r="D81" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E83" s="2">
         <v>49.6</v>
@@ -2952,13 +3068,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="D84" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2972,57 +3088,60 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="F85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G85">
         <v>1200</v>
       </c>
       <c r="H85" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D88" t="s">
         <v>369</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D88" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="E90" s="2">
+        <v>6010</v>
       </c>
       <c r="I90" s="2">
         <v>1200.28</v>
       </c>
       <c r="J90">
-        <v>1173.5999999999999</v>
+        <v>7183.6</v>
       </c>
       <c r="K90">
         <v>2204.39</v>
@@ -3033,22 +3152,44 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>374</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D91" t="s">
         <v>375</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="F91" t="s">
         <v>377</v>
-      </c>
-      <c r="D91" t="s">
-        <v>376</v>
-      </c>
-      <c r="F91" t="s">
-        <v>378</v>
       </c>
       <c r="G91">
         <v>1000</v>
       </c>
       <c r="H91" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>395</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3060,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3683,23 +3824,23 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" t="s">
         <v>322</v>
-      </c>
-      <c r="C87" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" t="s">
         <v>324</v>
-      </c>
-      <c r="C88" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,7 +3848,7 @@
         <v>53</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,7 +3856,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D90" s="3"/>
     </row>
@@ -3724,13 +3865,13 @@
         <v>57</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D91" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,7 +3879,7 @@
         <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3746,7 +3887,7 @@
         <v>49</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,7 +3895,7 @@
         <v>53</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,13 +3912,13 @@
         <v>57</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D98" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,7 +3926,7 @@
         <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,7 +3934,7 @@
         <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,7 +3942,7 @@
         <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3818,9 +3959,72 @@
         <v>57</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>399</v>
+      </c>
+      <c r="C107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>401</v>
+      </c>
+      <c r="C108" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>403</v>
+      </c>
+      <c r="C109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>404</v>
+      </c>
+      <c r="C110" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D113" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3830,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4165,107 +4369,157 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>390</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4277,10 +4531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4310,7 +4564,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,7 +4654,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>302</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4410,27 +4664,42 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="473">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1703,6 +1703,210 @@
   </si>
   <si>
     <t>今天和梦雅聊了天，快三年了我心里还是装着她，我好想她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-23.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请刘畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水、饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给张东买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师妹请,浇面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐,用小鸡儿卡刷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去办公室做简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.60km，共20447步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.59km，共10636步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉一般 ，有点累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起来很早回学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午未休息，练吉他伤了手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去帮张东买皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">感觉一般 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上依旧起的很晚，起来后老胡说他要走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午送走了老胡，送老胡的时候碰到了李沂杭也要走，正好一起送走了，就这样，老胡就永远的离开了我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午收拾了东西，晚上叫姐夫来帮我拉东西，瑞子和豪豪也来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉东西的时候刘畅帮了忙，自乱了阵脚，有一箱衣服和电脑机箱、小板凳未拉，这时候我突然间想起了小my，三年前她毕业就写满了一个手机备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午请刘畅吃了炒菜，他买了西瓜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回去才发现没有拿的东西，跟姐夫说他好像很不乐意再来一趟，那就靠自己吧，不想跟他们再多说一句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐姐总是埋怨我不看豪豪，我看不了也不想看，就这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起得很早，洗了个头，出门快九点了，回到学校十点多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交了论文，离校申请表和毕业材料，提交了图书馆论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和陈奇讨论了简历问题，他总是骂，也不知道为什么，从来不好好和人说话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和张东帮他买皮鞋，他说他要当伴郎，可是他没有正装，好吧，跑了柳巷和万都，帮他买了一双皮鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在过马路真怕交警，怕胖云的悲剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上打游戏的时候非常生气，拍了桌子，妈妈打视频的时候又阴阳怪气的用半吊子普通话说话，发了脾气，我真的好气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上分派了资源视频，感觉好累，不知道该怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天终于用我极为不情愿的一种方式和常蓉摊牌了，我感觉是没有回应，就这样吧，我心事已了，这个结局早已预见，没有什么可遗憾的，七年之殇，终为一梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天想和张东到了失恋博物馆的门口，想起了左苗，我没有进去，我不想承认这段关系中我的位置，我还是很想她，很爱她，可是我没有办法挽回这一切，就像流逝的生命一样</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2062,17 +2266,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
@@ -3192,6 +3396,122 @@
         <v>397</v>
       </c>
     </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E95" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7214.2</v>
+      </c>
+      <c r="K95">
+        <v>2204.39</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>423</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>425</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D97" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E99" s="2">
+        <v>39</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7253.2</v>
+      </c>
+      <c r="K99">
+        <v>2204.39</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>429</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D101" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D102" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>435</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>438</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D104" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3201,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4017,7 +4337,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>57</v>
       </c>
@@ -4025,6 +4345,121 @@
         <v>409</v>
       </c>
       <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4034,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4520,6 +4955,86 @@
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4531,10 +5046,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4697,9 +5212,29 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="501">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1907,6 +1907,118 @@
   </si>
   <si>
     <t>今天想和张东到了失恋博物馆的门口，想起了左苗，我没有进去，我不想承认这段关系中我的位置，我还是很想她，很爱她，可是我没有办法挽回这一切，就像流逝的生命一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老孙的公交卡刷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖云第一次请的丰汇园自助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激淋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张璐请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起得早，精神很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午休息了两个小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神状态很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.06km，共15489步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常，烧烤不好吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上早起，去山上把冬天的衣服，小板凳，电脑机箱送了上去，喝了一瓶沙棘汁，在桌子上放了门卡，用了一早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上碰见了闫涛滔，和他寒暄了几句，这老师无话可说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午练了会吉他，发现手上长了水泡，这是什么的节奏，我要成神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和北京的一家公司约了下周一的面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好累，睡了两个小时，原来白天睡觉这么爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和霞姐吵了一架，我不想原谅她，总是拿左某和我不走鞭尸，但是她可以有很多师弟师妹，但是我只有一个霞姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去图书馆盖章，图书馆说周二闭馆不能盖，好着急好着急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上胖云请吃饭，自助餐，这是她第一次请客吃饭啊，好不容易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上王老师给我打电话说让我帮她写本科生的答辩意见，花费了一个多小时，我也不知道为什么要答应她，可能我很欠吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常蓉没有给回应，我不知道该喜还是忧，我觉得我已经和她没关系了，我做完了我应该做的一切。还有我还是会在一个人独处的时候想起我的挚爱左苗，她在干什么，她还好不好，我很想她到无法呼吸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2266,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3511,6 +3623,67 @@
       <c r="A106" s="1" t="s">
         <v>443</v>
       </c>
+      <c r="E106" s="2">
+        <v>8</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>7261.2</v>
+      </c>
+      <c r="K106">
+        <v>2204.39</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>473</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>475</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D108" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>481</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D109" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>479</v>
+      </c>
+      <c r="D110" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>484</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3521,10 +3694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4460,6 +4633,56 @@
       <c r="A128" s="1" t="s">
         <v>428</v>
       </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4469,10 +4692,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5035,6 +5258,56 @@
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5046,10 +5319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5232,9 +5505,19 @@
         <v>472</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>471</v>
+      <c r="B38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="525">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2019,6 +2019,102 @@
   </si>
   <si>
     <t>常蓉没有给回应，我不知道该喜还是忧，我觉得我已经和她没关系了，我做完了我应该做的一切。还有我还是会在一个人独处的时候想起我的挚爱左苗，她在干什么，她还好不好，我很想她到无法呼吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞姐请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生煎包、肉夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上精神很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午心情不佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上还好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.48km，共11897步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上把图书馆的身份给注销了，突然有一种缺失的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和霞姐吃的饭，有一点点感伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午看了看面试需要准备的东西，觉得自己不会的东西还很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和霞姐小平去了老站，刚开的小吃街，吃了生煎包、肉夹馍和花甲粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上有一点点不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这几天练吉他无名指上起了个大水泡，感觉好疼啊，我真的好脆弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天不知道她干什么去了，我心中有一种隐隐地不安，不知道该和谁说，我这到底该怎么办啊，我好爱她</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2378,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3684,6 +3780,51 @@
       <c r="A112" s="1" t="s">
         <v>484</v>
       </c>
+      <c r="E112" s="2">
+        <v>17</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>7278.2</v>
+      </c>
+      <c r="K112">
+        <v>2204.39</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>501</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D113" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D114" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D115" t="s">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3694,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4775,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>47</v>
       </c>
@@ -4642,7 +4783,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>154</v>
       </c>
@@ -4650,7 +4791,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>49</v>
       </c>
@@ -4658,7 +4799,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>53</v>
       </c>
@@ -4666,7 +4807,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>55</v>
       </c>
@@ -4675,7 +4816,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>57</v>
       </c>
@@ -4683,6 +4824,61 @@
         <v>262</v>
       </c>
       <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>510</v>
+      </c>
+      <c r="C136" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>512</v>
+      </c>
+      <c r="C137" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>514</v>
+      </c>
+      <c r="C138" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D141" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4692,10 +4888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5308,6 +5504,41 @@
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5319,9 +5550,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -5518,6 +5749,11 @@
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="558">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2026,10 +2026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-7.4'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>霞姐请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2054,15 +2050,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上精神很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午心情不佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上还好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.48km，共11897步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上把图书馆的身份给注销了，突然有一种缺失的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和霞姐吃的饭，有一点点感伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午看了看面试需要准备的东西，觉得自己不会的东西还很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和霞姐小平去了老站，刚开的小吃街，吃了生煎包、肉夹馍和花甲粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上有一点点不舒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这几天练吉他无名指上起了个大水泡，感觉好疼啊，我真的好脆弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天不知道她干什么去了，我心中有一种隐隐地不安，不知道该和谁说，我这到底该怎么办啊，我好爱她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐霞姐请，包子我买的1.3元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请小平和霞姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡儿请吃猪头肉和凉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我请张璐和小鸡儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-91'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原-&gt;北京，21日晚十点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>06.18'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>06.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>早上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早上精神很好</t>
+    <t>早上起来很晚，精神很好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2070,7 +2198,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午心情不佳</t>
+    <t>中午未睡觉，下午精神一般</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2078,43 +2206,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚上还好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动为8.48km，共11897步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早上把图书馆的身份给注销了，突然有一种缺失的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午和霞姐吃的饭，有一点点感伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午看了看面试需要准备的东西，觉得自己不会的东西还很多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上和霞姐小平去了老站，刚开的小吃街，吃了生煎包、肉夹馍和花甲粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上有一点点不舒服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这几天练吉他无名指上起了个大水泡，感觉好疼啊，我真的好脆弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06.20'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天不知道她干什么去了，我心中有一种隐隐地不安，不知道该和谁说，我这到底该怎么办啊，我好爱她</t>
+    <t>晚上心情不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.34km，共13085步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上和陈奇吵了一架，每次做简历他总是不帮忙还要捣乱，每次都说不行，我问怎么改就是说自己学去，我要是自己会写至于这样吗？这人真的恶心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去办公室做简历，又约了一家面试，好开心希望可以找到那份北土城的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和小鸡儿张璐去吃饭，讲真这可能真是散伙饭了，明天就要走了，是真的要走了，吃的烤鸭和猪头肉，我们都笑得很无奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张璐是一名感情专家，在迎泽桥上吹着河风，说这话，我好想她，我好想哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上买了去北京的火车票，霞姐说她还会见到我，她一点都不担心，希望如此吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞虎帮我看了看简历，提出了修改性意见，飞虎果然比陈奇靠谱多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想她，好想哭，到底我要怎么做才能找回她</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2474,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="M116" sqref="M116"/>
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3796,34 +3928,109 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>501</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D113" t="s">
         <v>502</v>
       </c>
-      <c r="D113" t="s">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="C114" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" t="s">
         <v>505</v>
       </c>
-      <c r="D114" t="s">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="1" t="s">
+      <c r="D115" t="s">
         <v>507</v>
       </c>
-      <c r="D115" t="s">
-        <v>508</v>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E117" s="2">
+        <v>112.3</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>7390.69</v>
+      </c>
+      <c r="K117">
+        <v>2204.39</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>524</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D118" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>527</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D119" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>530</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D120" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>527</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D121" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>535</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D122" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -3835,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4717,7 +4924,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,7 +4979,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>428</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,31 +5034,31 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C136" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C137" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C138" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,7 +5066,7 @@
         <v>53</v>
       </c>
       <c r="C139" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,6 +5086,61 @@
         <v>382</v>
       </c>
       <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>542</v>
+      </c>
+      <c r="C143" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>544</v>
+      </c>
+      <c r="C144" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>546</v>
+      </c>
+      <c r="C145" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D148" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4888,10 +5150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5508,37 +5770,72 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5550,10 +5847,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5753,7 +6050,17 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="600">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2247,6 +2247,174 @@
   </si>
   <si>
     <t>我好想她，好想哭，到底我要怎么做才能找回她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、两瓶果啤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒菜、包子(请刘畅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交手机费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄到北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京站-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起来精神很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午睡了一觉补充精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上有一点点小感伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚一晚没睡，精神状态不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天都不太有精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上心情很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.15km，共10011步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.89km，共11048步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上起来想起来是在学校的最后一天，总感觉有一点点小感伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上去办公室最后修改了简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午最后和霞姐吃了一顿饭，她晚上就要回家了，不能送我了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午睡了一觉，我想着晚上不能睡觉好悲伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午起来帮刘畅寄了电脑，他应该也是明天就走了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上刘畅送走了我，霞姐给我打了电话，一切都结束了，我不知道我的路对不对，谁的人生都不能复制，所以需要一个人去走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上背着大吉他在火车上，大家都在看我，我这到底是怎么了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚秦鑫给我打电话，哭得跟个傻子一样，他不知道和诗琦怎么了，一段感情如果失去了快乐的本质，我觉得那也没有什么意思了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上在北京站铺着 我的凉席，坐在上面，有一点点感伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到沙河的时候，飞虎果不其然在接我了，飞虎总是不会让我失望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和下午都在睡觉，晚上去饭店吃了饭，飞虎说他要攒发票，好吧那就去吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上AG和白鲨打比赛，真的是揪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上在火车站，看着人来人往，好想好想她，好想和她一起过我们想要的生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离她好近，我好像去找她，我到底该怎么选择，才是最正确的，左苗我好爱你啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午回来的时候，路边有个女人问我：来嘛帅哥。我没有理，过后飞虎说，那是鸡。噢好吧我知道了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2606,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4033,6 +4201,103 @@
         <v>537</v>
       </c>
     </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E124" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>7473.29</v>
+      </c>
+      <c r="K124">
+        <v>2204.39</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>559</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D125" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>562</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D126" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>565</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D127" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>567</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E130" s="2">
+        <v>7</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>7480.29</v>
+      </c>
+      <c r="K130">
+        <v>2204.39</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>571</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D131" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4042,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5108,7 +5373,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>546</v>
       </c>
@@ -5116,7 +5381,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>53</v>
       </c>
@@ -5124,7 +5389,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>55</v>
       </c>
@@ -5133,7 +5398,7 @@
       </c>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>57</v>
       </c>
@@ -5141,6 +5406,116 @@
         <v>382</v>
       </c>
       <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D162" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5150,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5836,6 +6211,81 @@
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>556</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -5847,10 +6297,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6061,6 +6511,26 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="623">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2415,6 +2415,98 @@
   </si>
   <si>
     <t>下午回来的时候，路边有个女人问我：来嘛帅哥。我没有理，过后飞虎说，那是鸡。噢好吧我知道了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和飞虎重温了一下水浒传，哈哈哈哈哈又要笑死我了，吴用真的是无用啊哈哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想左苗啊，好想把我的全部都给她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起的好早，但是又睡下了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午又睡了两觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上出去走了会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食有点过量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.95km，共11135步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把刘畅的电脑小插口拔了，他插不上了，好尴尬哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.24'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2774,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4297,6 +4389,32 @@
       <c r="A133" s="1" t="s">
         <v>574</v>
       </c>
+      <c r="E133" s="2">
+        <v>2</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>7482.29</v>
+      </c>
+      <c r="K133">
+        <v>2204.39</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>600</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D134" t="s">
+        <v>602</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4307,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K154" sqref="K154"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5464,7 +5582,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>521</v>
+        <v>608</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,7 +5617,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
         <v>55</v>
       </c>
@@ -5508,7 +5626,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>57</v>
       </c>
@@ -5516,6 +5634,59 @@
         <v>262</v>
       </c>
       <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>609</v>
+      </c>
+      <c r="C164" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>611</v>
+      </c>
+      <c r="C165" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>613</v>
+      </c>
+      <c r="C166" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>615</v>
+      </c>
+      <c r="C167" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>616</v>
+      </c>
+      <c r="C168" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>618</v>
+      </c>
+      <c r="C169" t="s">
+        <v>619</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5525,10 +5696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6283,9 +6454,24 @@
         <v>595</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -6297,10 +6483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6531,6 +6717,16 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="679">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2446,11 +2446,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起的好早，但是又睡下了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午又睡了两觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上出去走了会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进食有点过量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.95km，共11135步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把刘畅的电脑小插口拔了，他插不上了，好尴尬哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华联超市村内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆芽、冰淇凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;望京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;北土城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>06.22'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06.21'</t>
+    <t>06.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.24'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2458,7 +2610,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>早上起的好早，但是又睡下了</t>
+    <t>早上起得早，天气很热，心情不太好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2466,15 +2618,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中午又睡了两觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上出去走了会儿</t>
+    <t>中午去面试，天气是真的热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午回来走路好累</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2482,11 +2634,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>运动为9.89km，共13857步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进食</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进食有点过量</t>
+    <t>食物摄入正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2494,19 +2650,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>感觉很好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动为7.95km，共11135步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把刘畅的电脑小插口拔了，他插不上了，好尴尬哈哈哈哈</t>
+    <t>感觉一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上天气很热，心情不太好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.21km，共10104步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上终于把项目中编好了，感觉好难啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午出去的时候心情不好，因为天气很热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试还好，介绍项目的时候有点磕巴，公司很小，嫌我的工资要得太高经验太少，我就有点气了，公司毕竟很偏远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午回来的时候飞虎的自行车没气了，修的时候轴承又坏了，哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了豆芽，自己炒的自己吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上爸爸给我打视频说奶奶明年一周年，感觉时间过的好快啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上依旧很热，心情很烦躁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>06.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想她好想好想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天奶奶一周年，看到姑姑的时候又想起了她，好难过我到底该怎么办啊啊啊啊啊啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和傻傻视频，她好像变得正常了，尤其是她的脸，真心为她开心，她是媒人啊，看见她很开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去面试，笔试没有过，好悲伤啊好悲伤，不知道该怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午联系了松辉，明天去他那面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午炒了土豆丝吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和飞虎一起看了潘金莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.26'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2866,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4416,6 +4640,132 @@
         <v>602</v>
       </c>
     </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E136" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>7504.99</v>
+      </c>
+      <c r="K136">
+        <v>2204.39</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>622</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D137" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>625</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>627</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>629</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D140" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E142" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>7530.49</v>
+      </c>
+      <c r="K142">
+        <v>2204.39</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>622</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>629</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D144" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>635</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>637</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>638</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4425,10 +4775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5527,7 +5877,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>521</v>
+        <v>643</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5582,7 +5932,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,55 +5987,161 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C164" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C165" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C166" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C167" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C168" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C169" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>647</v>
+      </c>
+      <c r="C171" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>649</v>
+      </c>
+      <c r="C172" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>651</v>
+      </c>
+      <c r="C173" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>653</v>
+      </c>
+      <c r="C174" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>655</v>
+      </c>
+      <c r="C175" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>657</v>
+      </c>
+      <c r="C176" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>647</v>
+      </c>
+      <c r="C178" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>649</v>
+      </c>
+      <c r="C179" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>651</v>
+      </c>
+      <c r="C180" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>653</v>
+      </c>
+      <c r="C181" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>655</v>
+      </c>
+      <c r="C182" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>657</v>
+      </c>
+      <c r="C183" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -5696,10 +6152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6466,12 +6922,82 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +7009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6727,6 +7253,26 @@
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="808">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2731,6 +2731,522 @@
   </si>
   <si>
     <t>06.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;大望路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大望路-&gt;知春路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知春路-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;生命科学园-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命科学园-&gt;生态园-&gt;返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.76km，共12262步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.63km，共12087步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天中午去大望路面试，公司氛围挺好，就是面试官问的数据库的东西我不太会啊，好尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去见了赵松辉，三年没见那货了，他在大塔，据说是中央电视塔运维，我在公主坟等了他好久好久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大波是骑自行车的，我们想在西二旗汇合，后来就来到了知春路，吃了新疆味的饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间有一群黑哥们在聚餐，真的是黑哥们噢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点的东西有点多，松辉还是那么固执说不下，我有点无奈，还好是他请客，哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来在地铁上和大波很开心，还好还好，驹哥好像是失踪了，我觉得他应该是蹲号子去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回来飞虎开的空调，睡着了，回来我也累了，睡了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天去北京华为那里面试，感觉还好，就是对于加班问题我也不知道怎么回答，就回答出了我心里的想法吧，结果就是面试官需要考虑一下，噢好吧可能又要挂了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回来吃了包子，肉夹馍，我要放纵一下，为什么我老是找不到工作，为什么啊！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上爸爸说mu子欺负我们，感觉好无奈，什么东西啊，我对他们那家人充满了厌恶，恶心至极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和飞虎看了水浒的后几集，好吧，好惨啊比我惨多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一种呗全世界强奸了的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我在地铁站等松辉的时候，想起了她，想起了那些等她的时间，好屈辱啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想去见她啊，可是我该用什么理由呢！！！左苗我好想你啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地铁站等松辉的时候，有一个小朋友因为没有现金坐不了车，我帮助了他，他很感激，希望我的善良可以温暖全世界！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放个大瓜，感觉我戏耍了全世界！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;亮马桥-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">掉渣饼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正新鸡排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4..5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韭菜盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午回来走路好累，吃了很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.39km，共10349步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入过量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好，很复杂，说不出来的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上很慌，下午没有面试啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸亏约到了面试，又不紧张了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天去亮马桥面试，小公司小公司！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和赵蓉聊了会儿天，感觉她还是那样，但是她可是自称贤妻良母的人啊哈哈哈哈哈，快要笑死我了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试完了，约吕丹出来，她说她弟弟来了，毕竟十四五岁了有点不听话，哈哈哈哈真的好搞啊，就没有见了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下了地铁，飞虎说不用等他，我觉得他要加班了，果不其然他加班了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两天我计划多看几个人系统优化的东西，为面试做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到工作，我又和陈奇吵了一架我也不知道该怎么办了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天小平帮我领了毕业证学位证，感觉自己半年以来卧薪尝胆终于有了结果，好开心啊，感觉自己强奸了全世界，真的很开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下了地铁吃了很多东西，算是对自己的犒劳吧！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想左苗啊，不知道她过得怎么样了。我感觉我要对她不忠了，希望不会如此吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天左苗把我从小黑屋放出来了，我要忍住啊，不和她说话不和她说话，我忘不了受到的屈辱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是我还是好想她啊，很想知道她在做什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;北沙滩(奥体公园)-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰激凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上天气不热，心情很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午睡了一觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午走的路比较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为16.30km，共22835步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.47km，共10466步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上天气不热，心情很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午睡了一觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午爬了两遍六楼，好绝望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天飞虎他哥来了，一来好像就说要去健身房，我就跟着去了，一去他就好像说他赌博好像输了十万，我就想说一句话，就赌必输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午我去了张东那里，他在什么舰船研究院住着，好想很高级的样子，在北沙滩，他给我们两个做了焖面吃，我吃了两碗我好像很能吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上我们两个一起去了奥体公园，这个地方四年前我和刘洋来过，我现在还记忆犹新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥体公园四年前和现在唯一的区别就是那些弹着吉他唱着歌的歌手已经没有了，都变成了抖音和快手的网红主播(呕),我好像学会弹吉他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来的时候发现苗把我从小黑屋放出来了，不知道她怎么了，发了一个朋友圈“你  会不会  莫名的失落和委屈 晚安”总觉得她发生了什么事，我要忍住我要忍住，忘不了她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上爸爸好像很伤心我不想和姐姐说话，我觉得在她面前我说话已经不管用了，我一句话也不想多说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在学会了一招吉他技巧，就是击弦，感觉我好帅啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上和飞虎做了饭，感觉他好挑食啊，要是我的话我就不挑食有什么吃什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午啥都不想做在那坐了一中午，因为好热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午飞虎他前同事好像搬过来了，顺便我看了下房子，终归我是要出去的，但愿吧！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上看了RNG和OMG的LOL比赛，真的菜啊，看得人得要吃速效救心丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想学会弹吉他啊，好帅好帅！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2763,12 +3279,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2783,12 +3305,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3090,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:Q183"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4737,7 +5261,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>635</v>
       </c>
@@ -4745,7 +5269,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>637</v>
       </c>
@@ -4753,7 +5277,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>638</v>
       </c>
@@ -4761,9 +5285,328 @@
         <v>639</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>642</v>
+      </c>
+      <c r="E149" s="2">
+        <v>18</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>7548.49</v>
+      </c>
+      <c r="K149">
+        <v>2204.39</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>679</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D150" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>679</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D151" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>679</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D152" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E154" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>7576.79</v>
+      </c>
+      <c r="K154">
+        <v>2204.39</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>679</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D155" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>686</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D156" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>688</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>689</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>690</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>691</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>693</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E163" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>7616.29</v>
+      </c>
+      <c r="K163">
+        <v>2204.39</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>728</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D164" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>731</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>733</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D166" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>736</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>738</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>740</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>742</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E173" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>7632.89</v>
+      </c>
+      <c r="K173">
+        <v>2204.39</v>
+      </c>
+      <c r="L173" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>768</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D174" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>771</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E177" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>7643.39</v>
+      </c>
+      <c r="K177">
+        <v>2204.39</v>
+      </c>
+      <c r="L177" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>774</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>776</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>778</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -4775,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6142,6 +6985,300 @@
       </c>
       <c r="C183" t="s">
         <v>658</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>47</v>
+      </c>
+      <c r="C185" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>55</v>
+      </c>
+      <c r="C189" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C192" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>154</v>
+      </c>
+      <c r="C193" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>154</v>
+      </c>
+      <c r="C207" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>55</v>
+      </c>
+      <c r="C210" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>154</v>
+      </c>
+      <c r="C214" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>49</v>
+      </c>
+      <c r="C215" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>55</v>
+      </c>
+      <c r="C217" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>57</v>
+      </c>
+      <c r="C218" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5"/>
+      <c r="V219" s="5"/>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -6152,10 +7289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6998,6 +8135,232 @@
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="5"/>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+      <c r="R202" s="5"/>
+      <c r="S202" s="5"/>
+      <c r="T202" s="5"/>
+      <c r="U202" s="5"/>
+      <c r="V202" s="5"/>
+      <c r="W202" s="5"/>
+      <c r="X202" s="5"/>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -7009,10 +8372,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7255,24 +8618,103 @@
         <v>606</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -7283,10 +8725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7306,6 +8748,16 @@
         <v>198</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>726</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="866">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3247,6 +3247,238 @@
   </si>
   <si>
     <t>07.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;生命科学园-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;西二旗-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复印费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证、银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上心情很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午很热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午从泰康人寿走到生命科学院地铁站，感觉好累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.01km，共14022步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚没睡好，早上心情不是很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午很热，出去很烦躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午不开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.78km，共15101步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入有点大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想她，好像把我的好消息告诉她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天在地铁上看见有一个女孩子，下巴很像她，忽然那一瞬间，我就想哭了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上在BOSS上遇见了骗子，我觉得那就是骗子，招聘要求为0，让人加一个什么好友然后做任务，这不就是骗人的吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去泰康人寿去面试，我觉得这是一个外包，人接待我的人说这是个驻场，好吧，第一次见把外包说的这么光明正大，冠冕堂皇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和面试官聊了很多，面试官很谨慎，问了我很多问题，说实话这些都是三年里我意淫的，好吧我服了我自己了，后来我就越吹越嗨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官最后说我可以招你，但是你要给我用三星期搭建一个面部识别系统，顿时间感觉好难啊，这我可能hold不住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要了10k，结果什么福利都没有，这可能就是外包特别不好的地方，只不过还好，我终于有工作了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋哥给我打电话，说他给大狗打电话了，这在村子里被欺负很不好啊，这农村里根本没有什么诗意与田园生活，只有一记又一记响亮的耳光QQQ！！！！我很生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到工作后，我想第一件事就是想起了左苗，我好想她，好像把我的消息告诉她，但是我不能，我可以和她和好，但是一定得要是她先找我，我才要把我的全部都给她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天发生了很多事情，飞虎晚上很晚才回来，晚上和爸爸妈妈说了很多，我要赚钱了家里的负担应该小了很多很多！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我好开心，我终于有工作了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚飞虎三点才回来，我晚上也睡不着，天一亮就在那干瞪眼，我对自己的未来很紧张很迷茫！！！！但是在公司做的人工智能我又很喜欢，我不知道该怎么办了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上飞虎没去，他妈妈寄来了杏，坏了很多，好多年没有吃过了，感觉很不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我给我们两个做了饭，炒土豆丝和凉拌黄瓜，感觉很好吃啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去办了招商银行卡，顺便看了一下飞虎在什么地方工作，心里落差越来越大，觉得自己的钱好少啊！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办了银行卡之后，我回来的时候姐夫把我的毕业证学位证从小平那里拿了回来，还好还好！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来之后我发现我找不到离职证明了，感觉到好紧张，这可能是最重要的东西了对我来说，好烦啊！！结果证明这是虚惊一场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和飞虎一起吃了西瓜，在复印了身份证和银行卡之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸说他明天要给打黑办打电话举报，我是绝对支持的，这也太欺负人了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.03'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q183"/>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5608,6 +5840,141 @@
       <c r="A183" s="1" t="s">
         <v>807</v>
       </c>
+      <c r="E183" s="2">
+        <v>15</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>15</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>808</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>810</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>824</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>812</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D187" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>815</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E190" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>818</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>820</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>822</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>826</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D194" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>829</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D195" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>831</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D196" t="s">
+        <v>833</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5618,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V221"/>
+  <dimension ref="A1:V234"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7281,6 +7648,107 @@
         <v>806</v>
       </c>
     </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>154</v>
+      </c>
+      <c r="C223" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>55</v>
+      </c>
+      <c r="C226" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>57</v>
+      </c>
+      <c r="C227" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>47</v>
+      </c>
+      <c r="C229" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>154</v>
+      </c>
+      <c r="C230" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>49</v>
+      </c>
+      <c r="C231" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>53</v>
+      </c>
+      <c r="C232" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>57</v>
+      </c>
+      <c r="C234" t="s">
+        <v>382</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7289,10 +7757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X204"/>
+  <dimension ref="A1:X223"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8363,6 +8831,101 @@
         <v>805</v>
       </c>
     </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8372,10 +8935,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8712,9 +9275,24 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="981">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3479,6 +3479,466 @@
   </si>
   <si>
     <t>07.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-150'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司不给报，周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;西二旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉他变调夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早七点之前进站半价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给飞虎取苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起的有点早，但精神很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午很热，心里很烦躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午上班有点惶恐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物摄入正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.98km，共11170步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上为了一个两块钱，起的有点早，心里有点不值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午在办公室很凉快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午很安静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.35km，共11698步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天去公司报道，去地铁站晚了点，然后在东边绕了一大圈，感觉好累啊！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去公司报到，找到了三年前去台达报道的那种感觉，有一点点小伤感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去公司好麻烦，找公交车找了好久，还好有惊无险找到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去公司的时候，有一点点小惶恐，是因为自己心虚，因为我没有工作经验啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组负责人叫倪旻，交给了我一个项目，关于人脸识别的，真看得起我啊，我好慌！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在办公室被空调吹，有一点点冻腿！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午锋哥告诉我问题解决了，我也不知道有没有解决，反正就这样吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天工作第一天，就这样吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上为了一个7点之前进地铁站是半价，起的好早好早，不知道能不能坚持下去，我应该会很累！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去得早，在地铁站等了班车，班车原来是这样！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和倪旻交了底，他告诉我应该怎么做，噢我终于可以扛起项目的大旗了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天工作感觉还不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚妈妈告诉我人家要查她的身份证，不知道她是怎么办的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好累，还要答费米的题，就这样吧，我需要费米的这份兼职工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几天很忙，没有太多时间去想她了，这样不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天中午去食堂转了一圈没有吃饭，好希望和我一起吃饭的是她啊，我好想她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天买了饭盒，准备以后带饭了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙河-&gt;生命科学园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命科学园-&gt;上地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上地-&gt;大钟寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大钟寺-&gt;西直门北街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西直门-&gt;上地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上地-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起得晚，还下了雨，地铁站很挤，心情很不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午在办公室休息了一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午不累，时间过得很快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚睡得晚，早上去体检了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午在秦鑫家睡了一觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午感觉很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.90km，共12473步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为6.00km，共8404步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做了费米的题，晚上做的很晚，早上没起来，地铁站很挤，每次只能上一个人，好尴尬，看来的要想点办法了，以后上班不能这样了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天倪旻不在，不知道干啥去了，我在那里做了一天图像处理的类，希望会有用吧，目的是为了增加数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫非要让我去他家，我是不想去的，因为我没有钱，去不起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午睡了一下，下午很有精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上去了秦鑫家，等他的时候，他请我吃了麦当劳，好多年没吃过麦当劳了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫他家在顶层，所以有二楼，很多年前以为他家是车库才有二层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上在他家炒了土豆丝、尖椒鸡蛋，吃了西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他借了我一台电脑，晚上装了个ubuntu系统！！！睡得很晚，大概两三点吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞虎昨晚加班通宵了，早上才回来，他今天应该休息一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上去西直门大街去体检了，找不到地方，打客服客服说在哪里哪里，结果定位一直不准确，我很生气，这么多年来第一次发火，这是一种罪过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午回来给秦鑫买了两个卷饼，我两一人一个，他的那个室友说他不要，就没给他买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃完饭后感觉好累，就在他家睡了一觉，结果诗琦说秦鑫你怎么一天和这个睡和那个睡的，我哈哈哈哈哈哈，我快要笑死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上体检我前面有个小孩，是腹积水，我都看出来了，感觉好可惜，那么年轻就得了那种要命的病，真的要命啊！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检医生说我没有什么大问题，说我有一点点轻微的肾囊肿，吓得我赶紧给2狗打电话他说没有事，这是从娘胎里带出来的，我TM真的了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午回来和飞虎他爸爸聊了很多，好久没见过他了，飞虎藏起来了我的吉他，我哈哈哈哈哈，快要笑死了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我在麦当劳吃饭，别人都是成双成对的，好希望我身边或者我对面做的就是她啊，哪怕是一个小时，不知道她怎么样了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道她今天怎么了，是不是生病了，在家里窝了整整一天，我真的好担心她！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3846,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q196"/>
+  <dimension ref="A1:Q224"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="L190" sqref="L190"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="L218" sqref="L218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5935,7 +6395,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>822</v>
       </c>
@@ -5943,7 +6403,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>826</v>
       </c>
@@ -5954,7 +6414,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>829</v>
       </c>
@@ -5965,7 +6425,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>831</v>
       </c>
@@ -5974,6 +6434,279 @@
       </c>
       <c r="D196" t="s">
         <v>833</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E198" s="2">
+        <v>270.8</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>866</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D199" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>869</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D200" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>872</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D201" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>875</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>877</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>879</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E206" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>339.6</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>882</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D207" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>885</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>887</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>889</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>877</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>891</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D212" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E214" s="2">
+        <v>8</v>
+      </c>
+      <c r="I214" s="2">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>347.6</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>928</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D215" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>928</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D216" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="E218" s="2">
+        <v>39</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>386.6</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>928</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D219" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>936</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D220" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>939</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D221" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>928</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D222" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>944</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>946</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +6718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V234"/>
+  <dimension ref="A1:V263"/>
   <sheetViews>
-    <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7749,6 +8482,223 @@
         <v>382</v>
       </c>
     </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>154</v>
+      </c>
+      <c r="C237" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>49</v>
+      </c>
+      <c r="C238" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>53</v>
+      </c>
+      <c r="C239" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>55</v>
+      </c>
+      <c r="C240" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>57</v>
+      </c>
+      <c r="C241" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>154</v>
+      </c>
+      <c r="C244" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>49</v>
+      </c>
+      <c r="C245" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>57</v>
+      </c>
+      <c r="C248" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>47</v>
+      </c>
+      <c r="C250" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>154</v>
+      </c>
+      <c r="C251" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>49</v>
+      </c>
+      <c r="C252" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>53</v>
+      </c>
+      <c r="C253" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>55</v>
+      </c>
+      <c r="C254" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>57</v>
+      </c>
+      <c r="C255" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>47</v>
+      </c>
+      <c r="C257" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>154</v>
+      </c>
+      <c r="C258" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>49</v>
+      </c>
+      <c r="C259" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>53</v>
+      </c>
+      <c r="C260" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>55</v>
+      </c>
+      <c r="C261" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>57</v>
+      </c>
+      <c r="C262" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7757,10 +8707,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X223"/>
+  <dimension ref="A1:X257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8926,6 +9876,176 @@
         <v>865</v>
       </c>
     </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8935,10 +10055,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9295,6 +10415,51 @@
         <v>847</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1209">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3939,6 +3939,918 @@
   </si>
   <si>
     <t>不知道她今天怎么了，是不是生病了，在家里窝了整整一天，我真的好担心她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.61km，共13458步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.29km，共10215步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天，弹琴的时候琴弦断了，不知道什么预兆，我好想她担心她会出什么事情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和小my聊了很多，不知道为什么我和她都是这种熟悉的感觉，她说她想听我弹白举纲的《我们一定会再见》，哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天是七七卢沟桥事变的纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶一周年纪念日，2018年7月6日早10时15分，奶奶在全家人的陪伴中，在熟睡中溘然长逝，没有一丝丝痛苦，但是我好痛苦！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好累啊，早上吃了包子，中午吃的方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去小树林练琴，吉他1弦给断了，顿时间感觉好丧，感觉有不好的事情发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于弄明白了人工智能是怎么回事了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望我可以扛过实习期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上五点就起来了睡不着了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上炒了土豆丝，打算带到公司去吃！！！起的好早啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐的公交去的公司，我这很飞虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吕佳yi叫我去吃饭，总不能不去吧，结果我就去了，好耻辱！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天上班总是很快，下午和梦雅聊了会天，感觉就那样吧，起码她是我的山河故人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和波哥去电影院看了蜘蛛侠，吃了张亮麻辣烫，他领工资了看起来他很开心！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上很吵，房子旁边拆迁！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.15km，共11420步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.69km，共14970步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖学金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还刘畅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左苗，我好想你，不知道为什么。不我知道为什么因为我爱你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天过的好快啊，过天桥的时候好希望和你一起过！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.09’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班好累啊！并且过得很快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上发现昨晚坐公交忘记刷卡了，交了7块钱的智商税，真的是心疼啊，这该怎么办！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天倪旻催我了，第一次感觉到工作压力好大啊，这。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失意的时候，我好想她，但是我很想去见小my，是真的想，在一起会开心，分别了会怀念，我就是这样，和她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来的时候在公交上睡着了，然后坐过了站，有走着回来了，我想是因为我舍不得两块钱的公交费吧，我啥时候成这样了啊，真的了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下雨，早上也起晚了，幸亏到公司没有迟到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的识别，我发现摩根黑大叔和许嵩的人脸不能识别，难道是因为他们两个一个太黑一个刘海太长的缘故吗，笑死我了哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我到底该怎么办！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职一周了，一事无成，我竟是个废柴！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天想起昨天是霞姐的生日，我给忘了，感觉好对不起她啊，我怎么成了这样，我连自己的生日都不知道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东说下周二是吕丹的生日，周五是他的生日。我打算学一首生日快乐歌用吉他弹给他们，我没钱，就这样表达我的祝福吧，就这样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚和莎莎聊天了，感觉她还是那样，好傻好傻，但是我又能说什么呢，现在一想起她我就想起了左苗，这是捆绑吧！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我什么时候才可以见到她啊啊啊啊啊啊啊，我的内心好煎熬，可是大丈夫能伸能曲，但我也要有尊严！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张璐这两天好烦啊，我都不在了老问我一些我不在跟前就不能解决的问题，我到底该怎么回答她。好尴尬啊这！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.06km，共12696步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两天逐渐摸透了上班时间，好开心好开心，我什么时候成了这样的人为了几块钱的地铁费去挤公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和倪旻交了底，他说了这个人脸识别的项目的应用场景为在体验店要识别出是新客户还是老客户，我想这应该是个不好的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和梦雅聊了天，聊的好开心，感觉我们回到了从前，她告诉我冬梅姐现在在雄安，我哈哈哈哈哈哈哈，冬梅姐，马什么来着！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好累好累，今天要下完那个镜像系统，明天装好！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我想和小my在一起，我想着向她求婚！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.49km，共16095步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天啥也没干，就装了个系统，还没装好，感觉好丧啊!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和吕佳燚吃的饭，聊了好多，她说她住的首都师范，毕业于安徽师范，噢，好吧！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去给电脑加了域，以后不能上网了啊，这个好坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和飞虎他爸爸聊了好多。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心无一物，傲视群雄！！！不想她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.19km，共11464步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.08km，共14122步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和飞虎还有他爸爸一起去了菜市场买菜，我想这也许就是生活！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞虎他爸爸要去一个很远的地方去面试，这北土城这里又干不成了，好衰。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我也不知道为什么，在飞虎这里感觉很委屈，但是我现在没钱，我还是要坚持下去，坚持到发工资的那一天。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某一个时间点，我突然间想起了小my，我好想她，想和她在一起的点点滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸聊起了家里的问题，真的是让人头疼，我感觉这个社会好复杂。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我到底该怎么办啊这！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上飞虎凶了我，有一瞬间我突然感觉我委屈，我的形象降低到了极点。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝今天早上起的好早，我猜是她妹妹去她那里了，这样也好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在家里蹲了一天，我才不要这样，我想练琴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午飞虎说出去帮我看房子，我也看了，没看到合适的，好吧，就先这样吧！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上绕着松兰堡转了一圈，走的好累啊！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和万说了会话，他说找打黑办还是有用的，这个社会，盛世下总淹没着浮华，总有一天会爆发！！！！！我恨他们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不行啊，我还是很思念她啊，我到底该怎么挽回这一切，我不想看到那一切的发生！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天苗宝宝的妹妹好像去天津了，这也好，能给她的生活带来点色彩！！！真希望她的生活可以好起来。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.00km，共12610步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.87km，共11027步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我好想她！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇，我好难受，好想好想她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天吕丹生日，好尴尬好尴尬，东给我说错了，和她聊了好多好多，这个世界到底是怎么了啊！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好有成就感，终于把程序做成了，我感觉我要升天！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好饿好饿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就这样吧！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸说把他气得不行，农村里从来就没有田园生活，只有响亮的耳光。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我想好好学学debug，要不然我会被嫌弃死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天我想起了小my，好想向她求婚！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上我梦见了常蓉，我们坐在一起，我握着她的手，两个人泪流满面，我想我一定会遇到她！！！！！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下午遇到了一个问题，以前就有一直没有解决。还好张平帮我解决了，好好感谢她。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午debug最后一个程序显示255，不知道什么原因没有报错，我想明天一定要解决！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.91km，共11080步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.69km，共13569步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天不知道为什么，一直想小my，好想好想去见她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左苗啊，我好想你，真的好想好想。。。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上飞虎他爸爸来了，说的是他换工作了，现在在良乡机场路口那里，噢，东西都搬过去了，就是明天回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上飞虎他爸爸好像生气了，嫌我把蒜昨天晚上给切了，说有味，他没吃我吃！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上下雨，我出门比较早，今天就没有迟到了，哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一天天上班过的好快啊/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天爸爸跟我说家里的问题解决了，是他们都在，就是花了150，花就花了，有钱就买心安！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上没有赶上7.45的670，果不其然我迟到了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直给win上装不好dlib和face_recogintion，我好烦好烦啊！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天把程序给封装好了，我觉得还要测试一下性能，face_要比dlib快五倍。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉我被这个世界抛弃了，我到底该怎么办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好失落好无助，不止一次想起常蓉，梦见握着她的手我们两个人都泪流满面。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我决定了，我要做彩票预测了，我需要这个。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.18'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4306,10 +5218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q224"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="L218" sqref="L218"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="J293" sqref="J293:L293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6709,6 +7621,631 @@
         <v>947</v>
       </c>
     </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E226" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>403.3</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>982</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>984</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>986</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>990</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E232" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I232" s="2">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>423.4</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>992</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>994</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>982</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>995</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E238" s="2">
+        <v>1033.3</v>
+      </c>
+      <c r="I238" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J238">
+        <v>1456.7</v>
+      </c>
+      <c r="K238">
+        <v>2000</v>
+      </c>
+      <c r="L238" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E246" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="I246" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J246">
+        <v>1474.9</v>
+      </c>
+      <c r="K246">
+        <v>2000</v>
+      </c>
+      <c r="L246" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E253" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="J253">
+        <v>1478.1</v>
+      </c>
+      <c r="K253">
+        <v>2000</v>
+      </c>
+      <c r="L253" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E257" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="J257">
+        <v>1553.9</v>
+      </c>
+      <c r="K257">
+        <v>2000</v>
+      </c>
+      <c r="L257" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E264" s="2">
+        <v>35</v>
+      </c>
+      <c r="J264">
+        <v>1588.9</v>
+      </c>
+      <c r="K264">
+        <v>2000</v>
+      </c>
+      <c r="L264" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E267" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="J267">
+        <v>1593.1</v>
+      </c>
+      <c r="K267">
+        <v>2000</v>
+      </c>
+      <c r="L267" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E271" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="J271">
+        <v>1620.5</v>
+      </c>
+      <c r="K271">
+        <v>2000</v>
+      </c>
+      <c r="L271" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E278" s="2">
+        <v>16</v>
+      </c>
+      <c r="J278">
+        <v>1636.5</v>
+      </c>
+      <c r="K278">
+        <v>2000</v>
+      </c>
+      <c r="L278" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E285" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="J285">
+        <v>1659.3</v>
+      </c>
+      <c r="K285">
+        <v>2000</v>
+      </c>
+      <c r="L285" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E293" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="J293">
+        <v>1680.1</v>
+      </c>
+      <c r="K293">
+        <v>2000</v>
+      </c>
+      <c r="L293" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6718,10 +8255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V263"/>
+  <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8699,6 +10236,157 @@
         <v>959</v>
       </c>
     </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>53</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>53</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>53</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>53</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>53</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>53</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>53</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>53</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>53</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>53</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8707,10 +10395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X257"/>
+  <dimension ref="A1:X337"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10018,32 +11706,432 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>972</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>977</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -10055,10 +12143,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10460,6 +12548,121 @@
         <v>959</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>1195</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1266">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4851,6 +4851,234 @@
   </si>
   <si>
     <t>07.18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双泉堡-&gt;沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗洁精、雪碧、冰淇凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.89km，共12450步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.57km，共16207步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天到公司又迟到了，不知道为什么，我的时间我老是把握不住，这到底是怎么了啊！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上和倪旻确认了一下开发需求，我知道我该做什么了，好吧，就这样吧，先写一个后台再说！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和张平聊了聊，才知道她那不为人知的故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天张东生日，晚上我陈奇飞虎都去了他那里，我们吃了红烧肉和炒白菜，真他妈过生日四个大男人真的没意思啊。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上我停在张东这里了，我怕他给我传染下白癜风，这该怎么办啊，但晚上开着空调睡觉我感觉我的睡眠质量好高啊。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我其实也不知道我到底该怎么办了，心在山川湖海，却困于昼夜、厨房与爱！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上学了一会儿flask，我感觉我学的懂，没有Dr.Wang的捣乱，我觉得我是一个非常有创造力的人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和张东去看了  未来机器城，这是一个温情的小故事，堪比  寻梦环游记，看的时候我哭了，因为我看见了我和小my的影子，真的好真实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想小my啊，好巧不巧，主人公也叫小麦，谐音！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午在张东家炒菜，他一直骂，我觉得我应该装装孙子，好吧，应该就是这，我现在啥都没有，全靠混就是这样了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上从沙河公交站走回来的，哈哈哈哈哈，我好棒，大概一个小时吧，比坐公交慢那么一点点，我想我应该琦自行车了以后，但自行车好贵啊！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回来和小my聊了一会，感慨万千，我到底该怎么办啊，我看得出来她的犹豫，我也犹豫，我相信我们之间是有爱的，但两个人到底该怎么走到一起！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道苗宝宝和妹妹在一起怎么样了，她那小暴脾气不要乱发了，伤人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天看电影的时候，突然间好想我的小my，好想好想和她在一起，和她结婚娶她回家。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T恤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-45'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-29.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松辉生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.00km，共12610步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实我也不知道为什么会变成这个样子，早上飞虎骂了我，嫌我吃了他的零食，我发誓他的零食我是一下都不会再动了。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发了工资立马就搬走，我已经断了生活费快两个月了，这两个月我也不知道是怎么过来的，其实我挺感谢畅兄和小鸡儿的，没有他们我也许早就饿死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感受不到一丝温情，这个世界真的让人绝望！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天松辉提前过生日，不知道他怎么想的，要去顺义，我过去地铁得8块钱，说实话我以前没坐过这么贵的地铁。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我和波哥一个45一共花了90块钱给他买了个蛋糕，感觉好贵啊这！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们去了农家大院吃了饭，然后又去k歌了，我唱了两首实在是没有心情再唱下去了，我到底该怎么办啊，我好烦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我陷入了一个我无法破解的悖论，我也不知道什么是对的是什么是错的，我就是这样走的好难好难！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上把昨天买的那两件t恤拿了回来，我发现质量不怎么好啊，果然是便宜没好货！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好烦，没有想她，我感觉我离她越来越远了！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5218,10 +5446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q312"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="J293" sqref="J293:L293"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8246,6 +8474,132 @@
         <v>1177</v>
       </c>
     </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E300" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J300">
+        <v>1717.3</v>
+      </c>
+      <c r="K300">
+        <v>2000</v>
+      </c>
+      <c r="L300" s="2" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E305" s="2">
+        <v>2</v>
+      </c>
+      <c r="J305">
+        <v>1719.3</v>
+      </c>
+      <c r="K305">
+        <v>2000</v>
+      </c>
+      <c r="L305" s="2" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E309" s="2">
+        <v>91.9</v>
+      </c>
+      <c r="J309">
+        <v>1811.3</v>
+      </c>
+      <c r="K309">
+        <v>2000</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8255,10 +8609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V286"/>
+  <dimension ref="A1:V292"/>
   <sheetViews>
     <sheetView topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+      <selection activeCell="I289" sqref="I289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10387,6 +10741,45 @@
         <v>1191</v>
       </c>
     </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>53</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>53</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>53</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1255</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10395,10 +10788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X337"/>
+  <dimension ref="A1:X360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12129,9 +12522,124 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>1207</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -12143,10 +12651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12663,6 +13171,41 @@
         <v>1195</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F453A0E-76C7-4333-934A-7602EA8E6AFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1395">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5353,10 +5354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天脑子里慢慢地都是苗宝宝，好想去见她，但是我不敢啊啊啊啊啊啊啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今天工作的时候一一点点梦游了，明明知道怎么做，可是就是做不出来，我也不知道为什么会遇到这样的困境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5382,13 +5379,221 @@
   </si>
   <si>
     <t>07.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给爸爸交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-228'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大排档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请霞姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.53km，共13342步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.83km，共16568步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.71km，共15004步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天脑子里满满地都是苗宝宝，好想去见她，但是我不敢啊啊啊啊啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝，你有没有想我啊，我好想你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天秦鑫说他要订婚结婚了，我也好想好想，我该怎么办啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天不知道为什么，没有想苗宝宝，我这是不是精神出轨了啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上弹琴的时候伤了手，感觉好疼啊，这。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去湖心转了一圈，虽然天气很热，但是我喜欢这样啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上加班了，不知道能怎么算加班费的，我想试上一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞虎晚上通宵了，据说今天不上班了，结果晚上他又不在，我也懒得问了，他干什么去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想好了，明天去秦鑫那里，我尽量少和飞虎接触吧，尽量少起摩擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上和妈妈视频了，她好像很累，她说她已经一个月没有休息了，这她怎么受得了啊，好心疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我准备去公司了，结果绕了远路，天气好热，出了两身的汗，衣服全都湿了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午准备把秦鑫的电脑拿过去了，他刚刚交了房，他舅舅好像捉蝎子还掉沟里了，摔成了高位截瘫，好惨好惨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午装了一下午系统，好累啊，希望一切都好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上去了秦鑫家，他又和诗琪吵架了，天天吵架有意思吗，有一点点尴尬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上闯大祸了，我把我电脑格式化了，我里面的照片，全部都没有了，好尴尬啊，我到底该怎么办，这些是我的珍藏我的回忆啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫说他要结婚了，我好羡慕好羡慕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天为了弥补昨天晚上闯的大祸，把电脑从头到尾又重新撞了一遍，哎真的了，我这到底是怎么了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ubuntu18.04没有19.04好用 啊，我这真心疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫送了我蓝牙音箱、水杯还有U盘，真他妈什么都送啊。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天霞姐来了，Dr.Liu还是Dr.Liu啊，我又和她贫嘴了一晚上，这口嗨，好久没有过的体验啊，这是我这一生都应该珍惜的一段关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上请霞姐去了东直门簋街，和我想得完全不一样啊，我感觉应该是什么一地的撸串，结果去了啥都没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不是去了高档大排档吃了一顿交了奢侈税的烧烤，我没有钱，请的也简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看得出来霞姐想吃小龙虾，可就是因为太贵了，她才没有点，希望她明天体检顺利吧！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了，天气很热，下雨了，可以凉快一点，静下心来，我才发现我心里想着的还是苗宝宝。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天秦鑫和赵蓉打了电话，不知道她是怎么想的，一直呆在家里，好吧，我想多了，呆在家里干啥啊，自己不觉得羞耻吗，红红火火恍恍惚惚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚安，全世界</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5458,6 +5663,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -5505,7 +5713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5538,9 +5746,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5573,6 +5798,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5748,11 +5990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q341"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q361"/>
   <sheetViews>
-    <sheetView topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="N341" sqref="N341"/>
+    <sheetView topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9114,7 +9356,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>674</v>
       </c>
@@ -9122,7 +9364,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>166</v>
       </c>
@@ -9130,7 +9372,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -9138,7 +9380,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>1333</v>
       </c>
@@ -9146,12 +9388,173 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>1332</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>1331</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E343" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J343">
+        <v>2006.1</v>
+      </c>
+      <c r="K343">
+        <v>2000</v>
+      </c>
+      <c r="L343" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>674</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>166</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>931</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E350" s="2">
+        <v>48.3</v>
+      </c>
+      <c r="J350">
+        <v>2054.4</v>
+      </c>
+      <c r="K350">
+        <v>2000</v>
+      </c>
+      <c r="L350" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E357" s="2">
+        <v>235.5</v>
+      </c>
+      <c r="J357">
+        <v>2289.9</v>
+      </c>
+      <c r="K357">
+        <v>2000</v>
+      </c>
+      <c r="L357" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -9162,11 +9565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V307"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="H302" sqref="H302"/>
+    <sheetView topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11375,7 +11778,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -11384,6 +11787,50 @@
       </c>
       <c r="C300" t="s">
         <v>1326</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>53</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>53</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>53</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -11393,11 +11840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X383"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:X408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="B384" sqref="B384"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13330,37 +13777,162 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -13371,11 +13943,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13959,7 +14531,42 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>1336</v>
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -13969,7 +14576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F453A0E-76C7-4333-934A-7602EA8E6AFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F46F55-D4D1-435F-BDCB-1C7CAE78236B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1411">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5587,6 +5587,70 @@
   </si>
   <si>
     <t>晚安，全世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为7.36km，共10306步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像好像苗宝宝啊啊啊啊啊，我越来越觉得害怕，也不知道该怎么办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚没有睡好，今天一天都没有精神，没有好好工作，突然间有一种罪恶感！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达哥说他爷爷病了，住院借大家钱，他们都借了可就是我没有，我给达哥说了，什么时候这种事情我竟然开始有罪恶感了，我到底是怎么了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天给win上装好库了，突然间感觉我好棒！！！红火火恍恍惚惚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞姐今天走了，她说她身上有一块疤，不知道小时候怎么留下的，还有红小板不正常她很害怕。其实我告诉她，得知她幸，失之她命！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上睡得很早，不想浪费工作时间了。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好久都没有这么开心过了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.30'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5645,7 +5709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5653,6 +5717,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5991,10 +6061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q361"/>
+  <dimension ref="A1:Q364"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="P355" sqref="P355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6006,7 +6076,7 @@
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -6036,7 +6106,7 @@
       <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6056,7 +6126,7 @@
       <c r="K3">
         <v>0.34</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6107,7 +6177,7 @@
       <c r="K7">
         <v>0.68</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6188,7 +6258,7 @@
       <c r="K14">
         <v>1.03</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6283,7 +6353,7 @@
       <c r="K22">
         <v>1.38</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6358,7 +6428,7 @@
       <c r="K29">
         <v>1.73</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6409,7 +6479,7 @@
       <c r="K33">
         <v>2.08</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6490,7 +6560,7 @@
       <c r="K40">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6568,7 +6638,7 @@
       <c r="K47">
         <v>2.78</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6641,7 +6711,7 @@
       <c r="K53">
         <v>3.13</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6675,7 +6745,7 @@
       <c r="K56">
         <v>3.48</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6759,7 +6829,7 @@
       <c r="K63">
         <v>3.83</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6837,7 +6907,7 @@
       <c r="K70">
         <v>4.1100000000000003</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="7" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6940,7 +7010,7 @@
       <c r="K79">
         <v>4.3899999999999997</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6991,7 +7061,7 @@
       <c r="K83">
         <v>1204.3900000000001</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7075,7 +7145,7 @@
       <c r="K90">
         <v>2204.39</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7137,7 +7207,7 @@
       <c r="K95">
         <v>2204.39</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L95" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7176,7 +7246,7 @@
       <c r="K99">
         <v>2204.39</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L99" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7248,7 +7318,7 @@
       <c r="K106">
         <v>2204.39</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="L106" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7309,7 +7379,7 @@
       <c r="K112">
         <v>2204.39</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="L112" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7359,7 +7429,7 @@
       <c r="K117">
         <v>2204.39</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="L117" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7434,7 +7504,7 @@
       <c r="K124">
         <v>2204.39</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="L124" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7495,7 +7565,7 @@
       <c r="K130">
         <v>2204.39</v>
       </c>
-      <c r="L130" s="2" t="s">
+      <c r="L130" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7526,7 +7596,7 @@
       <c r="K133">
         <v>2204.39</v>
       </c>
-      <c r="L133" s="2" t="s">
+      <c r="L133" s="7" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7557,7 +7627,7 @@
       <c r="K136">
         <v>2204.39</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="L136" s="7" t="s">
         <v>629</v>
       </c>
     </row>
@@ -7615,7 +7685,7 @@
       <c r="K142">
         <v>2204.39</v>
       </c>
-      <c r="L142" s="2" t="s">
+      <c r="L142" s="7" t="s">
         <v>629</v>
       </c>
     </row>
@@ -7678,7 +7748,7 @@
       <c r="K149">
         <v>2204.39</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="L149" s="7" t="s">
         <v>671</v>
       </c>
     </row>
@@ -7731,7 +7801,7 @@
       <c r="K154">
         <v>2204.39</v>
       </c>
-      <c r="L154" s="2" t="s">
+      <c r="L154" s="7" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7813,7 +7883,7 @@
       <c r="K163">
         <v>2204.39</v>
       </c>
-      <c r="L163" s="2" t="s">
+      <c r="L163" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7895,7 +7965,7 @@
       <c r="K173">
         <v>2204.39</v>
       </c>
-      <c r="L173" s="2" t="s">
+      <c r="L173" s="7" t="s">
         <v>730</v>
       </c>
     </row>
@@ -7934,7 +8004,7 @@
       <c r="K177">
         <v>2204.39</v>
       </c>
-      <c r="L177" s="2" t="s">
+      <c r="L177" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7974,7 +8044,7 @@
       <c r="I181" s="6"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
-      <c r="L181" s="6"/>
+      <c r="L181" s="8"/>
       <c r="M181" s="5"/>
       <c r="N181" s="5"/>
       <c r="O181" s="5"/>
@@ -7997,7 +8067,7 @@
       <c r="K183">
         <v>0</v>
       </c>
-      <c r="L183" s="2" t="s">
+      <c r="L183" s="7" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8060,7 +8130,7 @@
       <c r="K190">
         <v>0</v>
       </c>
-      <c r="L190" s="2" t="s">
+      <c r="L190" s="7" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8137,7 +8207,7 @@
       <c r="K198">
         <v>0</v>
       </c>
-      <c r="L198" s="2" t="s">
+      <c r="L198" s="7" t="s">
         <v>866</v>
       </c>
     </row>
@@ -8214,7 +8284,7 @@
       <c r="K206">
         <v>0</v>
       </c>
-      <c r="L206" s="2" t="s">
+      <c r="L206" s="7" t="s">
         <v>879</v>
       </c>
     </row>
@@ -8288,7 +8358,7 @@
       <c r="K214">
         <v>0</v>
       </c>
-      <c r="L214" s="2" t="s">
+      <c r="L214" s="7" t="s">
         <v>917</v>
       </c>
     </row>
@@ -8330,7 +8400,7 @@
       <c r="K218">
         <v>0</v>
       </c>
-      <c r="L218" s="2" t="s">
+      <c r="L218" s="7" t="s">
         <v>933</v>
       </c>
     </row>
@@ -8410,7 +8480,7 @@
       <c r="K226">
         <v>0</v>
       </c>
-      <c r="L226" s="2" t="s">
+      <c r="L226" s="7" t="s">
         <v>973</v>
       </c>
     </row>
@@ -8462,7 +8532,7 @@
       <c r="K232">
         <v>0</v>
       </c>
-      <c r="L232" s="2" t="s">
+      <c r="L232" s="7" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8514,7 +8584,7 @@
       <c r="K238">
         <v>2000</v>
       </c>
-      <c r="L238" s="2" t="s">
+      <c r="L238" s="7" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -8591,7 +8661,7 @@
       <c r="K246">
         <v>2000</v>
       </c>
-      <c r="L246" s="2" t="s">
+      <c r="L246" s="7" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -8648,7 +8718,7 @@
       <c r="K253">
         <v>2000</v>
       </c>
-      <c r="L253" s="2" t="s">
+      <c r="L253" s="7" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -8681,7 +8751,7 @@
       <c r="K257">
         <v>2000</v>
       </c>
-      <c r="L257" s="2" t="s">
+      <c r="L257" s="7" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -8738,7 +8808,7 @@
       <c r="K264">
         <v>2000</v>
       </c>
-      <c r="L264" s="2" t="s">
+      <c r="L264" s="7" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -8763,7 +8833,7 @@
       <c r="K267">
         <v>2000</v>
       </c>
-      <c r="L267" s="2" t="s">
+      <c r="L267" s="7" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -8796,7 +8866,7 @@
       <c r="K271">
         <v>2000</v>
       </c>
-      <c r="L271" s="2" t="s">
+      <c r="L271" s="7" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -8853,7 +8923,7 @@
       <c r="K278">
         <v>2000</v>
       </c>
-      <c r="L278" s="2" t="s">
+      <c r="L278" s="7" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -8910,7 +8980,7 @@
       <c r="K285">
         <v>2000</v>
       </c>
-      <c r="L285" s="2" t="s">
+      <c r="L285" s="7" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -8975,7 +9045,7 @@
       <c r="K293">
         <v>2000</v>
       </c>
-      <c r="L293" s="2" t="s">
+      <c r="L293" s="7" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -9032,7 +9102,7 @@
       <c r="K300">
         <v>2000</v>
       </c>
-      <c r="L300" s="2" t="s">
+      <c r="L300" s="7" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -9081,7 +9151,7 @@
       <c r="K305">
         <v>2000</v>
       </c>
-      <c r="L305" s="2" t="s">
+      <c r="L305" s="7" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -9114,7 +9184,7 @@
       <c r="K309">
         <v>2000</v>
       </c>
-      <c r="L309" s="2" t="s">
+      <c r="L309" s="7" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -9158,7 +9228,7 @@
       <c r="K314">
         <v>2000</v>
       </c>
-      <c r="L314" s="2" t="s">
+      <c r="L314" s="7" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -9219,7 +9289,7 @@
       <c r="K320">
         <v>2000</v>
       </c>
-      <c r="L320" s="2" t="s">
+      <c r="L320" s="7" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -9295,7 +9365,7 @@
       <c r="K329">
         <v>2000</v>
       </c>
-      <c r="L329" s="2" t="s">
+      <c r="L329" s="7" t="s">
         <v>1314</v>
       </c>
     </row>
@@ -9352,7 +9422,7 @@
       <c r="K336">
         <v>2000</v>
       </c>
-      <c r="L336" s="2" t="s">
+      <c r="L336" s="7" t="s">
         <v>1334</v>
       </c>
     </row>
@@ -9409,7 +9479,7 @@
       <c r="K343">
         <v>2000</v>
       </c>
-      <c r="L343" s="2" t="s">
+      <c r="L343" s="7" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -9469,7 +9539,7 @@
       <c r="K350">
         <v>2000</v>
       </c>
-      <c r="L350" s="2" t="s">
+      <c r="L350" s="7" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -9529,7 +9599,7 @@
       <c r="K357">
         <v>2000</v>
       </c>
-      <c r="L357" s="2" t="s">
+      <c r="L357" s="7" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -9555,6 +9625,42 @@
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1363</v>
+      </c>
+      <c r="E361" s="2">
+        <v>22</v>
+      </c>
+      <c r="J361">
+        <v>2309.9</v>
+      </c>
+      <c r="K361">
+        <v>2000</v>
+      </c>
+      <c r="L361" s="7" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -9566,10 +9672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V307"/>
+  <dimension ref="A1:V308"/>
   <sheetViews>
-    <sheetView topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11833,6 +11939,14 @@
         <v>1363</v>
       </c>
     </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>53</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1402</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11841,10 +11955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X408"/>
+  <dimension ref="A1:X415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13935,6 +14049,41 @@
         <v>1363</v>
       </c>
     </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13944,10 +14093,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14569,6 +14718,11 @@
         <v>1363</v>
       </c>
     </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>1403</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F46F55-D4D1-435F-BDCB-1C7CAE78236B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF656206-8268-41ED-81B7-E14C92D4B5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="1420">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5651,6 +5651,42 @@
   </si>
   <si>
     <t>07.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-435.31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.8'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6061,10 +6097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q364"/>
+  <dimension ref="A1:Q370"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="P355" sqref="P355"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9661,6 +9697,43 @@
       </c>
       <c r="C364" s="1" t="s">
         <v>1400</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1416</v>
       </c>
     </row>
   </sheetData>
@@ -11957,7 +12030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+    <sheetView topLeftCell="A395" workbookViewId="0">
       <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF656206-8268-41ED-81B7-E14C92D4B5D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8574E07-6014-4B17-848C-AF56402BC9B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1443">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5622,10 +5622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好像好像苗宝宝啊啊啊啊啊，我越来越觉得害怕，也不知道该怎么办。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昨晚没有睡好，今天一天都没有精神，没有好好工作，突然间有一种罪恶感！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5687,6 +5683,101 @@
   </si>
   <si>
     <t>-8.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生发、京东全球购美国原版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子,豆腐脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,774.31‬</t>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为9.99km，共13988步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想好想苗宝宝啊啊啊啊啊，我越来越觉得害怕，也不知道该怎么办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚持、坚持住啊！！！坚持就会胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天有什么都没有干，我感觉好衰啊，我现在都不知道选择是否正确了😔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天发现可以在公司翻墙，只不过还是不能从github上下载东西，只能浏览，哈哈哈哈哈哈哈哈哈我好开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午在京东全球购上买了落健，我也不知道有没有用，但是我得要赌，刚毅果敢是我今年的主旋律。只不过花了好多好多钱，但我不心疼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回去想理光头了，感觉这样没意思，等落健回来着吧，我实在是等不及了，我要找一个便宜的地方理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两天都睡得好早，白天也有精神了，看来我还是缺少睡眠的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上打不通爸爸的电话，好担心啊，我也不知道该怎么办了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和小my吵了一架，我想去找她她又拿出来了她的惯用伎俩，我一秒就把她看破了，好想踹她两脚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师姐一直缠我给她写小论文，我给她开出了条件，帮我介绍一个女朋友，哈哈哈哈，我真的好坏啊！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真的喜欢去公司南边的野湖边上去漫步，可以感觉到生活的惬意！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6097,10 +6188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q370"/>
+  <dimension ref="A1:Q375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="E368" sqref="E368"/>
+    <sheetView topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="L366" sqref="L366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9701,39 +9792,86 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
+      </c>
+      <c r="E366" s="2">
+        <v>464.41</v>
+      </c>
+      <c r="J366" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K366">
+        <v>2000</v>
+      </c>
+      <c r="L366" s="7" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
         <v>1413</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B369" t="s">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
         <v>1414</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="C370" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B370" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1416</v>
+      <c r="C371" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -9745,10 +9883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V308"/>
+  <dimension ref="A1:V310"/>
   <sheetViews>
     <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12020,6 +12158,19 @@
         <v>1402</v>
       </c>
     </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>53</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12028,10 +12179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X415"/>
+  <dimension ref="A1:X425"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14124,37 +14275,87 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
@@ -14166,10 +14367,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14793,7 +14994,17 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>1403</v>
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8574E07-6014-4B17-848C-AF56402BC9B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E582F0-4431-49CE-B229-E0C9EA790064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="1465">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5778,6 +5778,93 @@
   </si>
   <si>
     <t>真的喜欢去公司南边的野湖边上去漫步，可以感觉到生活的惬意！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0801'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.31km，共14433步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道我想得对不对啊，好久了都没有错过，但是这件事我不太确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天又度过了漫长而又轻松的一天。、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和霞姐聊了天，聊得贼开心，哈哈哈哈谈天说地啥都有！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上掉了一颗牙，好害怕啊，突然间觉得我老了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上联系了国玺，然后联系了赵梦华和杨蓓，好久没有见过蓓蓓了，她很平淡地说她结婚了，然后我就不想理她了，我什么时候成为了一个这样的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么见不得人好！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经产生过情愫的老同学，最好还是别再见面。看到你比我过得好，我心里会不舒服，看到你过得不如我，也觉得难受。</t>
+  </si>
+  <si>
+    <t>08.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.8'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6188,10 +6275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q375"/>
+  <dimension ref="A1:Q384"/>
   <sheetViews>
-    <sheetView topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="L366" sqref="L366"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9823,7 +9910,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>1413</v>
       </c>
@@ -9831,7 +9918,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>1414</v>
       </c>
@@ -9842,7 +9929,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>1419</v>
       </c>
@@ -9850,12 +9937,24 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" s="2">
+        <v>22</v>
+      </c>
+      <c r="J373">
+        <v>2794.31</v>
+      </c>
+      <c r="K373">
+        <v>2000</v>
+      </c>
+      <c r="L373" s="7" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>1423</v>
       </c>
@@ -9863,7 +9962,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>1425</v>
       </c>
@@ -9872,6 +9971,69 @@
       </c>
       <c r="D375" t="s">
         <v>1427</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A379" s="5"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="6"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="6"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="8"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1464</v>
       </c>
     </row>
   </sheetData>
@@ -9883,10 +10045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V310"/>
+  <dimension ref="A1:V314"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12132,12 +12294,12 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>53</v>
       </c>
@@ -12145,12 +12307,12 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>53</v>
       </c>
@@ -12158,18 +12320,51 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>53</v>
       </c>
       <c r="C310" t="s">
         <v>1430</v>
       </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>53</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5"/>
+      <c r="K314" s="5"/>
+      <c r="L314" s="5"/>
+      <c r="M314" s="5"/>
+      <c r="N314" s="5"/>
+      <c r="O314" s="5"/>
+      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
+      <c r="R314" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12179,10 +12374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X425"/>
+  <dimension ref="A1:X434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425"/>
+    <sheetView topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14313,49 +14508,108 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1422</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A432" s="5"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="5"/>
+      <c r="M432" s="5"/>
+      <c r="N432" s="5"/>
+      <c r="O432" s="5"/>
+      <c r="P432" s="5"/>
+      <c r="Q432" s="5"/>
+      <c r="R432" s="5"/>
+      <c r="S432" s="5"/>
+      <c r="T432" s="5"/>
+      <c r="U432" s="5"/>
+      <c r="V432" s="5"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>1462</v>
       </c>
     </row>
   </sheetData>
@@ -14367,10 +14621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14947,64 +15201,98 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>1433</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>1448</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E582F0-4431-49CE-B229-E0C9EA790064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D55AC3-A57B-42E4-80F0-B53524954A21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1476">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5865,6 +5865,50 @@
   </si>
   <si>
     <t>-6.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.44km，共16017步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em….今天好累啊！想不起来了该怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天又在那做了一天，面对项目一筹莫展！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张平说她不想干了，她说以前以为好像是我们大家一起齐心协力做一些事情，现在成自己干自己的了，她很不开心，今天就没有来。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好累啊，我该怎么办！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉欣说她明天要去拍婚纱照了，我也不知道该跟她怎么说，只能默默祝福她，愿嫁良人！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个世界，真的令人绝望!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.02'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6275,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q384"/>
+  <dimension ref="A1:Q385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="C388" sqref="C388"/>
+    <sheetView topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="M381" sqref="M381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10011,6 +10055,18 @@
       <c r="A381" s="1" t="s">
         <v>1448</v>
       </c>
+      <c r="E381" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="J381">
+        <v>23.8</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381" s="7" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
@@ -10034,6 +10090,14 @@
       </c>
       <c r="C384" s="1" t="s">
         <v>1464</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1466</v>
       </c>
     </row>
   </sheetData>
@@ -10045,10 +10109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V314"/>
+  <dimension ref="A1:V317"/>
   <sheetViews>
     <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+      <selection activeCell="H321" sqref="H321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12366,6 +12430,19 @@
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
     </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>53</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1468</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12374,10 +12451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X434"/>
+  <dimension ref="A1:X440"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="B435" sqref="B435"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14607,9 +14684,39 @@
       <c r="U432" s="5"/>
       <c r="V432" s="5"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1462</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -14621,10 +14728,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15290,9 +15397,14 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>1469</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D55AC3-A57B-42E4-80F0-B53524954A21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84938B4-CBD1-4C62-98D5-3E135A3980AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1481">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5909,6 +5909,26 @@
   </si>
   <si>
     <t>08.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6319,10 +6339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q385"/>
+  <dimension ref="A1:Q389"/>
   <sheetViews>
-    <sheetView topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="M381" sqref="M381"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10053,7 +10073,7 @@
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="E381" s="2">
         <v>23.8</v>
@@ -10092,12 +10112,33 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>1465</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1466</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -12453,7 +12494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+    <sheetView topLeftCell="A425" workbookViewId="0">
       <selection activeCell="A440" sqref="A440"/>
     </sheetView>
   </sheetViews>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84938B4-CBD1-4C62-98D5-3E135A3980AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD7A30-9390-4DF7-89CF-4C2176383431}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1495">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5801,10 +5801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0801'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5929,6 +5925,66 @@
   </si>
   <si>
     <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.34km，共15882步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝今天去南昌了，希望她玩得开心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上苗宝宝去南昌了，公司团建，说的好像是什么重走长征路，哈哈哈哈哈哈，我快要笑死了，希望她玩的开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和傻傻聊天了，我现在看不懂她了，怎么老是故意拆散我和苗宝宝，可能她是真的为我好吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张平好像真的要走了，我觉得她还可以！！！！要走的话不知道能找到一个什么单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午倪旻找我谈话了，说了一下工作进度，我和他讨论了一下，他肯定了我的工作，我觉得这可能是我最大的欣慰吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和我同桌聊天，他说他还没结婚呢，我真的了，我好像看到了我的未来！！！但是不可以，我一定会成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想她！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.03'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6339,10 +6395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q389"/>
+  <dimension ref="A1:Q391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="C393" sqref="C393"/>
+    <sheetView topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="L387" sqref="L387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10073,7 +10129,7 @@
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E381" s="2">
         <v>23.8</v>
@@ -10085,60 +10141,88 @@
         <v>0</v>
       </c>
       <c r="L381" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1450</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="C384" s="1" t="s">
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B385" t="s">
+      <c r="C385" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="C385" s="1" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E387" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="J387">
+        <v>45.3</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387" s="7" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B388" t="s">
+      <c r="C388" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
         <v>1477</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C389" s="1" t="s">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
         <v>1480</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1483</v>
       </c>
     </row>
   </sheetData>
@@ -10150,10 +10234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V317"/>
+  <dimension ref="A1:V319"/>
   <sheetViews>
     <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="H321" sqref="H321"/>
+      <selection activeCell="F322" sqref="F322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12448,7 +12532,7 @@
         <v>53</v>
       </c>
       <c r="C312" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
@@ -12473,7 +12557,7 @@
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
@@ -12481,7 +12565,20 @@
         <v>53</v>
       </c>
       <c r="C317" t="s">
-        <v>1468</v>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>53</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1485</v>
       </c>
     </row>
   </sheetData>
@@ -12492,10 +12589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X440"/>
+  <dimension ref="A1:X447"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14673,32 +14770,32 @@
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.25">
@@ -14727,37 +14824,72 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B444" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>1494</v>
       </c>
     </row>
   </sheetData>
@@ -14769,10 +14901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15411,12 +15543,12 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -15440,12 +15572,22 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>1469</v>
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD7A30-9390-4DF7-89CF-4C2176383431}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E28AD-6363-428D-9A26-19F842EE8481}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1548">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5985,6 +5985,218 @@
   </si>
   <si>
     <t>08.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.11km，共14162步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想好想苗宝宝，好想她发个朋友圈，让我看看她，😭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天亚兴说的发工资，我等了一天都没等到，哈哈哈哈哈哈哈哈哈哈，感觉我脸黑，脸黑的还有张平！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和飞虎去看了房子，有一个我特别想去，看吧，明天决定！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天的事情明天再看，但是今天我好想好想苗宝宝，希望她玩得开心！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.04km，共11261步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我到底该怎么办，好想好想苗宝宝！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天飞虎他爸爸早上起来蒸了包子，那可是真的好吃！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午我决定了，我要去租昨天看的那个老太太的房子，我觉得挺好。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买了好多东西，霸王防脱，沐浴露。借了霞姐200块钱，顿时间感觉自己成了一个吃软饭的啊啊啊啊啊啊啊啊啊啊啊！！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租房的时候花了好多钱，我要把这笔钱一笔一笔地记下来！！！波哥昨晚借了我两千块钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午搬了三趟，感觉好累啊这！！！！完了给飞虎买了一瓶饮料，结果他只要了一大桶怡宝！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和姐姐视频了，给她说了我租房了，她说明天告诉爸爸!!!!她说帮爸爸把网修好了再走！好吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>押一付一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码：406888.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村内卫生费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两吨以内尽管用，电表：4634.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水沐浴露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴客隆购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢丝球、洗洁精、消毒液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中劲草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋刷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送黎子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.24km，共14349步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em,感觉很绝望！我好想苗宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上去了食堂，啥都没有，我就把盘子又默默放了回去，感觉好绝望啊！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐子今天最后一填报志愿，她竟然不知道，不知道是干什么吃的，哈哈哈哈哈哈，我快要笑死了！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上发工资了，一共发了6553.13，感觉好少啊这!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要拿这些钱做更重要的事情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给霞姐和波哥还了钱，突然感觉好轻松！！！霞姐说她和小平很累，我想应该是霞姐给小平的太多了！红红火火恍恍惚惚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频了，姐姐终于把家里的网修好了，早上和妈妈视频了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上去张东家里拿了显示屏，希望可以用!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好累啊，我该怎么办？？？？？？？？？我感觉很迷茫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.06'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6043,7 +6255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6057,6 +6269,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6395,25 +6608,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q391"/>
+  <dimension ref="A1:Q410"/>
   <sheetViews>
-    <sheetView topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="L387" sqref="L387"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="L405" sqref="L405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -6421,7 +6634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -6444,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -6464,7 +6677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -6484,7 +6697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -6495,7 +6708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -6515,7 +6728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -6535,7 +6748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -6546,7 +6759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -6557,7 +6770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -6568,7 +6781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
@@ -6576,7 +6789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -6596,7 +6809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -6616,7 +6829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -6627,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -6649,7 +6862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -6660,7 +6873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -6671,7 +6884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -6691,7 +6904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>87</v>
       </c>
@@ -6711,7 +6924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>92</v>
       </c>
@@ -6722,7 +6935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -6730,7 +6943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>97</v>
       </c>
@@ -6738,7 +6951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>99</v>
       </c>
@@ -6746,7 +6959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -6766,7 +6979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>116</v>
       </c>
@@ -6786,7 +6999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>118</v>
       </c>
@@ -6797,7 +7010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -6817,7 +7030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>137</v>
       </c>
@@ -6837,7 +7050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>145</v>
       </c>
@@ -6845,7 +7058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>139</v>
       </c>
@@ -6856,7 +7069,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>142</v>
       </c>
@@ -6867,7 +7080,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>145</v>
       </c>
@@ -6878,7 +7091,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>148</v>
       </c>
@@ -6898,7 +7111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>166</v>
       </c>
@@ -6918,7 +7131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>169</v>
       </c>
@@ -6929,7 +7142,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>172</v>
       </c>
@@ -6940,7 +7153,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>175</v>
       </c>
@@ -6948,7 +7161,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>177</v>
       </c>
@@ -6956,7 +7169,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>195</v>
       </c>
@@ -6976,7 +7189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>196</v>
       </c>
@@ -6996,7 +7209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -7007,7 +7220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>201</v>
       </c>
@@ -7018,7 +7231,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>272</v>
       </c>
@@ -7029,7 +7242,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>205</v>
       </c>
@@ -7049,7 +7262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>221</v>
       </c>
@@ -7063,7 +7276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -7083,7 +7296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>196</v>
       </c>
@@ -7103,7 +7316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>207</v>
       </c>
@@ -7114,7 +7327,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>216</v>
       </c>
@@ -7125,7 +7338,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>213</v>
       </c>
@@ -7136,7 +7349,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>210</v>
       </c>
@@ -7147,7 +7360,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>220</v>
       </c>
@@ -7167,7 +7380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>273</v>
       </c>
@@ -7184,7 +7397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>278</v>
       </c>
@@ -7195,7 +7408,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>276</v>
       </c>
@@ -7206,7 +7419,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>280</v>
       </c>
@@ -7217,7 +7430,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>296</v>
       </c>
@@ -7225,7 +7438,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>298</v>
       </c>
@@ -7245,7 +7458,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>273</v>
       </c>
@@ -7265,7 +7478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>300</v>
       </c>
@@ -7276,7 +7489,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>23</v>
       </c>
@@ -7287,7 +7500,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>305</v>
       </c>
@@ -7298,7 +7511,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
         <v>308</v>
       </c>
@@ -7306,7 +7519,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>310</v>
       </c>
@@ -7317,7 +7530,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>330</v>
       </c>
@@ -7328,7 +7541,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>351</v>
       </c>
@@ -7348,7 +7561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>333</v>
       </c>
@@ -7368,7 +7581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>336</v>
       </c>
@@ -7379,7 +7592,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>352</v>
       </c>
@@ -7399,7 +7612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>353</v>
       </c>
@@ -7419,7 +7632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>355</v>
       </c>
@@ -7436,7 +7649,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>357</v>
       </c>
@@ -7444,7 +7657,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>359</v>
       </c>
@@ -7452,7 +7665,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>361</v>
       </c>
@@ -7463,7 +7676,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>366</v>
       </c>
@@ -7483,7 +7696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>367</v>
       </c>
@@ -7503,7 +7716,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>384</v>
       </c>
@@ -7514,7 +7727,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>387</v>
       </c>
@@ -7525,7 +7738,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>414</v>
       </c>
@@ -7545,7 +7758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>415</v>
       </c>
@@ -7553,7 +7766,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>417</v>
       </c>
@@ -7564,7 +7777,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>420</v>
       </c>
@@ -7584,7 +7797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>421</v>
       </c>
@@ -7592,7 +7805,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>434</v>
       </c>
@@ -7603,7 +7816,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>424</v>
       </c>
@@ -7614,7 +7827,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>427</v>
       </c>
@@ -7625,7 +7838,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>430</v>
       </c>
@@ -7636,7 +7849,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>435</v>
       </c>
@@ -7656,7 +7869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>464</v>
       </c>
@@ -7667,7 +7880,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>466</v>
       </c>
@@ -7678,7 +7891,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>472</v>
       </c>
@@ -7689,7 +7902,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>470</v>
       </c>
@@ -7697,7 +7910,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>475</v>
       </c>
@@ -7717,7 +7930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>491</v>
       </c>
@@ -7728,7 +7941,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>493</v>
       </c>
@@ -7739,7 +7952,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C115" s="1" t="s">
         <v>496</v>
       </c>
@@ -7747,7 +7960,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>513</v>
       </c>
@@ -7767,7 +7980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>514</v>
       </c>
@@ -7778,7 +7991,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>517</v>
       </c>
@@ -7789,7 +8002,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>520</v>
       </c>
@@ -7800,7 +8013,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>517</v>
       </c>
@@ -7811,7 +8024,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>525</v>
       </c>
@@ -7822,7 +8035,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>548</v>
       </c>
@@ -7842,7 +8055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>549</v>
       </c>
@@ -7853,7 +8066,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>552</v>
       </c>
@@ -7864,7 +8077,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>555</v>
       </c>
@@ -7875,7 +8088,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>557</v>
       </c>
@@ -7883,7 +8096,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>560</v>
       </c>
@@ -7903,7 +8116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>561</v>
       </c>
@@ -7914,7 +8127,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>564</v>
       </c>
@@ -7934,7 +8147,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>589</v>
       </c>
@@ -7945,7 +8158,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>609</v>
       </c>
@@ -7965,7 +8178,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>610</v>
       </c>
@@ -7976,7 +8189,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>613</v>
       </c>
@@ -7984,7 +8197,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>615</v>
       </c>
@@ -7992,7 +8205,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>617</v>
       </c>
@@ -8003,7 +8216,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>620</v>
       </c>
@@ -8023,7 +8236,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>610</v>
       </c>
@@ -8031,7 +8244,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>617</v>
       </c>
@@ -8042,7 +8255,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>623</v>
       </c>
@@ -8050,7 +8263,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>625</v>
       </c>
@@ -8058,7 +8271,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>626</v>
       </c>
@@ -8066,7 +8279,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>630</v>
       </c>
@@ -8086,7 +8299,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>667</v>
       </c>
@@ -8097,7 +8310,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>667</v>
       </c>
@@ -8108,7 +8321,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>667</v>
       </c>
@@ -8119,7 +8332,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>672</v>
       </c>
@@ -8139,7 +8352,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>667</v>
       </c>
@@ -8150,7 +8363,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>674</v>
       </c>
@@ -8161,7 +8374,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>676</v>
       </c>
@@ -8169,7 +8382,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>677</v>
       </c>
@@ -8177,7 +8390,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>678</v>
       </c>
@@ -8185,7 +8398,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>679</v>
       </c>
@@ -8193,7 +8406,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>681</v>
       </c>
@@ -8201,7 +8414,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>714</v>
       </c>
@@ -8221,7 +8434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>715</v>
       </c>
@@ -8232,7 +8445,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>718</v>
       </c>
@@ -8240,7 +8453,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>720</v>
       </c>
@@ -8251,7 +8464,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>723</v>
       </c>
@@ -8259,7 +8472,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>725</v>
       </c>
@@ -8267,7 +8480,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>727</v>
       </c>
@@ -8275,7 +8488,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>729</v>
       </c>
@@ -8283,7 +8496,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>752</v>
       </c>
@@ -8303,7 +8516,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>753</v>
       </c>
@@ -8314,7 +8527,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>756</v>
       </c>
@@ -8322,7 +8535,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>758</v>
       </c>
@@ -8342,7 +8555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>759</v>
       </c>
@@ -8350,7 +8563,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>761</v>
       </c>
@@ -8358,7 +8571,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>763</v>
       </c>
@@ -8366,7 +8579,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8385,7 +8598,7 @@
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>792</v>
       </c>
@@ -8405,7 +8618,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>793</v>
       </c>
@@ -8413,7 +8626,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>795</v>
       </c>
@@ -8421,7 +8634,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>809</v>
       </c>
@@ -8429,7 +8642,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>797</v>
       </c>
@@ -8440,7 +8653,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>800</v>
       </c>
@@ -8448,7 +8661,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>802</v>
       </c>
@@ -8468,7 +8681,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>803</v>
       </c>
@@ -8476,7 +8689,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>805</v>
       </c>
@@ -8484,7 +8697,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>807</v>
       </c>
@@ -8492,7 +8705,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>811</v>
       </c>
@@ -8503,7 +8716,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>814</v>
       </c>
@@ -8514,7 +8727,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>816</v>
       </c>
@@ -8525,7 +8738,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>910</v>
       </c>
@@ -8545,7 +8758,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>851</v>
       </c>
@@ -8556,7 +8769,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>854</v>
       </c>
@@ -8567,7 +8780,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>857</v>
       </c>
@@ -8578,7 +8791,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>860</v>
       </c>
@@ -8586,7 +8799,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>862</v>
       </c>
@@ -8594,7 +8807,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>864</v>
       </c>
@@ -8602,7 +8815,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>912</v>
       </c>
@@ -8622,7 +8835,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>867</v>
       </c>
@@ -8633,7 +8846,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>870</v>
       </c>
@@ -8641,7 +8854,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>872</v>
       </c>
@@ -8649,7 +8862,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>874</v>
       </c>
@@ -8657,7 +8870,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>862</v>
       </c>
@@ -8665,7 +8878,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>876</v>
       </c>
@@ -8676,7 +8889,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>911</v>
       </c>
@@ -8696,7 +8909,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>913</v>
       </c>
@@ -8707,7 +8920,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>913</v>
       </c>
@@ -8718,7 +8931,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>918</v>
       </c>
@@ -8738,7 +8951,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>913</v>
       </c>
@@ -8749,7 +8962,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>921</v>
       </c>
@@ -8760,7 +8973,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>924</v>
       </c>
@@ -8771,7 +8984,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>913</v>
       </c>
@@ -8782,7 +8995,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>929</v>
       </c>
@@ -8790,7 +9003,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>931</v>
       </c>
@@ -8798,7 +9011,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>966</v>
       </c>
@@ -8818,7 +9031,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>967</v>
       </c>
@@ -8826,7 +9039,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>969</v>
       </c>
@@ -8834,7 +9047,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>971</v>
       </c>
@@ -8842,12 +9055,12 @@
         <v>972</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>975</v>
       </c>
@@ -8870,7 +9083,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>977</v>
       </c>
@@ -8878,7 +9091,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>979</v>
       </c>
@@ -8886,7 +9099,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>967</v>
       </c>
@@ -8894,7 +9107,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>980</v>
       </c>
@@ -8902,7 +9115,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>1004</v>
       </c>
@@ -8922,7 +9135,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>1008</v>
       </c>
@@ -8939,7 +9152,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>1017</v>
       </c>
@@ -8947,7 +9160,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>1016</v>
       </c>
@@ -8955,7 +9168,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>1015</v>
       </c>
@@ -8963,7 +9176,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>1014</v>
       </c>
@@ -8971,7 +9184,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>1028</v>
       </c>
@@ -8979,7 +9192,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>1018</v>
       </c>
@@ -8999,7 +9212,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>1008</v>
       </c>
@@ -9007,7 +9220,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>1023</v>
       </c>
@@ -9015,7 +9228,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>1016</v>
       </c>
@@ -9023,7 +9236,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>1015</v>
       </c>
@@ -9031,7 +9244,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>1022</v>
       </c>
@@ -9039,7 +9252,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>1050</v>
       </c>
@@ -9056,7 +9269,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>1051</v>
       </c>
@@ -9064,7 +9277,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>1054</v>
       </c>
@@ -9072,7 +9285,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>1062</v>
       </c>
@@ -9089,7 +9302,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>1063</v>
       </c>
@@ -9097,7 +9310,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>1064</v>
       </c>
@@ -9105,7 +9318,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>1065</v>
       </c>
@@ -9113,7 +9326,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>1066</v>
       </c>
@@ -9121,12 +9334,12 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>1092</v>
       </c>
@@ -9146,7 +9359,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>1094</v>
       </c>
@@ -9154,7 +9367,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>1089</v>
       </c>
@@ -9171,7 +9384,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>1093</v>
       </c>
@@ -9179,7 +9392,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>1092</v>
       </c>
@@ -9187,7 +9400,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>1115</v>
       </c>
@@ -9204,7 +9417,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>1120</v>
       </c>
@@ -9212,7 +9425,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>1121</v>
       </c>
@@ -9220,7 +9433,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>1120</v>
       </c>
@@ -9228,7 +9441,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>1122</v>
       </c>
@@ -9236,7 +9449,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>1123</v>
       </c>
@@ -9244,7 +9457,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>1124</v>
       </c>
@@ -9261,7 +9474,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>1129</v>
       </c>
@@ -9269,7 +9482,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>1121</v>
       </c>
@@ -9277,7 +9490,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>1120</v>
       </c>
@@ -9285,7 +9498,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>1122</v>
       </c>
@@ -9293,7 +9506,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>1130</v>
       </c>
@@ -9301,7 +9514,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>1151</v>
       </c>
@@ -9318,7 +9531,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>1163</v>
       </c>
@@ -9326,7 +9539,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>1164</v>
       </c>
@@ -9334,7 +9547,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>1165</v>
       </c>
@@ -9342,7 +9555,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B289" t="s">
         <v>1166</v>
       </c>
@@ -9350,7 +9563,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>1167</v>
       </c>
@@ -9358,7 +9571,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>1168</v>
       </c>
@@ -9366,7 +9579,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1162</v>
       </c>
@@ -9383,7 +9596,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>1163</v>
       </c>
@@ -9391,7 +9604,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>1169</v>
       </c>
@@ -9399,7 +9612,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>1165</v>
       </c>
@@ -9407,7 +9620,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>1167</v>
       </c>
@@ -9415,7 +9628,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>1170</v>
       </c>
@@ -9423,7 +9636,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>1192</v>
       </c>
@@ -9440,7 +9653,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>1199</v>
       </c>
@@ -9448,7 +9661,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>1204</v>
       </c>
@@ -9456,7 +9669,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>1203</v>
       </c>
@@ -9464,7 +9677,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>1201</v>
       </c>
@@ -9475,7 +9688,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E305" s="2">
         <v>2</v>
       </c>
@@ -9489,12 +9702,12 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>1199</v>
       </c>
@@ -9505,7 +9718,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>1227</v>
       </c>
@@ -9522,7 +9735,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>1228</v>
       </c>
@@ -9530,7 +9743,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>1229</v>
       </c>
@@ -9541,7 +9754,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>1230</v>
       </c>
@@ -9549,7 +9762,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>1248</v>
       </c>
@@ -9566,7 +9779,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>1253</v>
       </c>
@@ -9574,7 +9787,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>1254</v>
       </c>
@@ -9585,7 +9798,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>1256</v>
       </c>
@@ -9596,7 +9809,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
         <v>1259</v>
       </c>
@@ -9607,10 +9820,10 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>1288</v>
       </c>
@@ -9627,7 +9840,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>1294</v>
       </c>
@@ -9635,7 +9848,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>1295</v>
       </c>
@@ -9643,7 +9856,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>1296</v>
       </c>
@@ -9651,7 +9864,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
         <v>1297</v>
       </c>
@@ -9659,7 +9872,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>1298</v>
       </c>
@@ -9667,7 +9880,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>1299</v>
       </c>
@@ -9675,7 +9888,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>1308</v>
       </c>
@@ -9686,7 +9899,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>1311</v>
       </c>
@@ -9703,7 +9916,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
         <v>674</v>
       </c>
@@ -9711,7 +9924,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>166</v>
       </c>
@@ -9719,7 +9932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>23</v>
       </c>
@@ -9727,7 +9940,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>679</v>
       </c>
@@ -9735,7 +9948,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>931</v>
       </c>
@@ -9743,7 +9956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>1325</v>
       </c>
@@ -9760,7 +9973,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
         <v>674</v>
       </c>
@@ -9768,7 +9981,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>166</v>
       </c>
@@ -9776,7 +9989,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -9784,7 +9997,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>1333</v>
       </c>
@@ -9792,7 +10005,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>1332</v>
       </c>
@@ -9800,7 +10013,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>1343</v>
       </c>
@@ -9817,7 +10030,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
         <v>674</v>
       </c>
@@ -9825,7 +10038,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>166</v>
       </c>
@@ -9833,7 +10046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>23</v>
       </c>
@@ -9841,7 +10054,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>1333</v>
       </c>
@@ -9852,7 +10065,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>931</v>
       </c>
@@ -9860,7 +10073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>1345</v>
       </c>
@@ -9877,7 +10090,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
         <v>1356</v>
       </c>
@@ -9885,7 +10098,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>1355</v>
       </c>
@@ -9893,7 +10106,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>1353</v>
       </c>
@@ -9901,7 +10114,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
         <v>1352</v>
       </c>
@@ -9909,7 +10122,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>1351</v>
       </c>
@@ -9920,7 +10133,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>1358</v>
       </c>
@@ -9937,7 +10150,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>1356</v>
       </c>
@@ -9945,7 +10158,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>1361</v>
       </c>
@@ -9956,7 +10169,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>1363</v>
       </c>
@@ -9973,7 +10186,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>1395</v>
       </c>
@@ -9981,7 +10194,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>1396</v>
       </c>
@@ -9989,7 +10202,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>1397</v>
       </c>
@@ -9997,7 +10210,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>1410</v>
       </c>
@@ -10014,7 +10227,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
         <v>1411</v>
       </c>
@@ -10022,7 +10235,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
         <v>1412</v>
       </c>
@@ -10030,7 +10243,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>1413</v>
       </c>
@@ -10038,7 +10251,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>1414</v>
       </c>
@@ -10049,7 +10262,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
         <v>1419</v>
       </c>
@@ -10057,7 +10270,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>1422</v>
       </c>
@@ -10074,7 +10287,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>1423</v>
       </c>
@@ -10082,7 +10295,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>1425</v>
       </c>
@@ -10093,7 +10306,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
         <v>1443</v>
       </c>
@@ -10101,7 +10314,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>1445</v>
       </c>
@@ -10109,7 +10322,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10127,7 +10340,7 @@
       <c r="O379" s="5"/>
       <c r="P379" s="5"/>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>1461</v>
       </c>
@@ -10144,7 +10357,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>1448</v>
       </c>
@@ -10152,7 +10365,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>1449</v>
       </c>
@@ -10160,7 +10373,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>1462</v>
       </c>
@@ -10168,7 +10381,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>1464</v>
       </c>
@@ -10176,7 +10389,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>1475</v>
       </c>
@@ -10193,7 +10406,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>1476</v>
       </c>
@@ -10201,7 +10414,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
         <v>1477</v>
       </c>
@@ -10209,7 +10422,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>1480</v>
       </c>
@@ -10217,12 +10430,179 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>1481</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1483</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A393" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E393" s="2">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>45.3</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393" s="7" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B394" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A396" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E396" s="9">
+        <v>2270.9</v>
+      </c>
+      <c r="J396">
+        <v>2316.1999999999998</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396" s="7" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B397" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C397">
+        <v>2000</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B398" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C398">
+        <v>100</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B399" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C399">
+        <v>15</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B400" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C400">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B401" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C401">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B402" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B403" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C403">
+        <v>16</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A405" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E405" s="2">
+        <v>57.3</v>
+      </c>
+      <c r="J405">
+        <v>2373.5</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405" s="7" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B406" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B407" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B408" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B409" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B410" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1534</v>
       </c>
     </row>
   </sheetData>
@@ -10234,15 +10614,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V319"/>
+  <dimension ref="A1:V325"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="F322" sqref="F322"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -10250,12 +10630,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -10263,7 +10643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>49</v>
       </c>
@@ -10271,7 +10651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -10279,7 +10659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -10287,7 +10667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -10295,7 +10675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -10303,12 +10683,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>47</v>
       </c>
@@ -10316,7 +10696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -10324,7 +10704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -10332,7 +10712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -10340,7 +10720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>55</v>
       </c>
@@ -10348,7 +10728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -10356,12 +10736,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -10369,7 +10749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -10377,7 +10757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -10385,7 +10765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -10393,7 +10773,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -10401,7 +10781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -10409,12 +10789,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -10422,7 +10802,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -10430,7 +10810,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -10438,7 +10818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>53</v>
       </c>
@@ -10446,7 +10826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>55</v>
       </c>
@@ -10454,7 +10834,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>57</v>
       </c>
@@ -10462,12 +10842,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>135</v>
@@ -10481,7 +10861,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>133</v>
@@ -10495,7 +10875,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>131</v>
@@ -10509,7 +10889,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>129</v>
@@ -10523,12 +10903,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>47</v>
@@ -10542,7 +10922,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>152</v>
@@ -10556,7 +10936,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>154</v>
@@ -10568,7 +10948,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
@@ -10582,7 +10962,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -10591,12 +10971,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>180</v>
       </c>
@@ -10604,7 +10984,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>182</v>
       </c>
@@ -10612,7 +10992,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>184</v>
       </c>
@@ -10620,7 +11000,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>186</v>
       </c>
@@ -10628,7 +11008,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
@@ -10637,7 +11017,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>57</v>
       </c>
@@ -10646,12 +11026,12 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>47</v>
       </c>
@@ -10659,7 +11039,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>152</v>
       </c>
@@ -10667,12 +11047,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>53</v>
       </c>
@@ -10680,7 +11060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
@@ -10689,7 +11069,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
@@ -10698,12 +11078,12 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>47</v>
       </c>
@@ -10711,7 +11091,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>152</v>
       </c>
@@ -10719,7 +11099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>49</v>
       </c>
@@ -10727,7 +11107,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>53</v>
       </c>
@@ -10735,7 +11115,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>55</v>
       </c>
@@ -10744,7 +11124,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>57</v>
       </c>
@@ -10753,12 +11133,12 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>47</v>
       </c>
@@ -10766,7 +11146,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>152</v>
       </c>
@@ -10774,7 +11154,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>49</v>
       </c>
@@ -10782,7 +11162,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>53</v>
       </c>
@@ -10790,7 +11170,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>55</v>
       </c>
@@ -10799,7 +11179,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>57</v>
       </c>
@@ -10808,12 +11188,12 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>152</v>
       </c>
@@ -10821,7 +11201,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>49</v>
       </c>
@@ -10829,7 +11209,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>53</v>
       </c>
@@ -10837,7 +11217,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>55</v>
       </c>
@@ -10846,7 +11226,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>57</v>
       </c>
@@ -10855,12 +11235,12 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>315</v>
       </c>
@@ -10868,7 +11248,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>317</v>
       </c>
@@ -10876,7 +11256,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>53</v>
       </c>
@@ -10884,7 +11264,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>55</v>
       </c>
@@ -10893,7 +11273,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>57</v>
       </c>
@@ -10902,12 +11282,12 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>47</v>
       </c>
@@ -10915,7 +11295,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>49</v>
       </c>
@@ -10923,7 +11303,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>53</v>
       </c>
@@ -10931,7 +11311,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
         <v>55</v>
       </c>
@@ -10940,7 +11320,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B98" s="3" t="s">
         <v>57</v>
       </c>
@@ -10949,12 +11329,12 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>47</v>
       </c>
@@ -10962,7 +11342,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>49</v>
       </c>
@@ -10970,7 +11350,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>53</v>
       </c>
@@ -10978,7 +11358,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B104" s="3" t="s">
         <v>55</v>
       </c>
@@ -10987,7 +11367,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B105" s="3" t="s">
         <v>57</v>
       </c>
@@ -10996,12 +11376,12 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>391</v>
       </c>
@@ -11009,7 +11389,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>393</v>
       </c>
@@ -11017,7 +11397,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>395</v>
       </c>
@@ -11025,7 +11405,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>396</v>
       </c>
@@ -11033,7 +11413,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>53</v>
       </c>
@@ -11041,7 +11421,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
         <v>55</v>
       </c>
@@ -11050,7 +11430,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B113" s="3" t="s">
         <v>57</v>
       </c>
@@ -11059,12 +11439,12 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>47</v>
       </c>
@@ -11072,7 +11452,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>152</v>
       </c>
@@ -11080,7 +11460,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>49</v>
       </c>
@@ -11088,7 +11468,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>53</v>
       </c>
@@ -11096,7 +11476,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B119" s="3" t="s">
         <v>55</v>
       </c>
@@ -11105,7 +11485,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B120" s="3" t="s">
         <v>57</v>
       </c>
@@ -11114,12 +11494,12 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>47</v>
       </c>
@@ -11127,7 +11507,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>152</v>
       </c>
@@ -11135,7 +11515,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>49</v>
       </c>
@@ -11143,7 +11523,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>53</v>
       </c>
@@ -11151,7 +11531,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B126" s="3" t="s">
         <v>55</v>
       </c>
@@ -11160,7 +11540,7 @@
       </c>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B127" s="3" t="s">
         <v>57</v>
       </c>
@@ -11169,12 +11549,12 @@
       </c>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>47</v>
       </c>
@@ -11182,7 +11562,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>152</v>
       </c>
@@ -11190,7 +11570,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>49</v>
       </c>
@@ -11198,7 +11578,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>53</v>
       </c>
@@ -11206,7 +11586,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B133" s="3" t="s">
         <v>55</v>
       </c>
@@ -11215,7 +11595,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B134" s="3" t="s">
         <v>57</v>
       </c>
@@ -11224,12 +11604,12 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>498</v>
       </c>
@@ -11237,7 +11617,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>500</v>
       </c>
@@ -11245,7 +11625,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>502</v>
       </c>
@@ -11253,7 +11633,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>53</v>
       </c>
@@ -11261,7 +11641,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B140" s="3" t="s">
         <v>55</v>
       </c>
@@ -11270,7 +11650,7 @@
       </c>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B141" s="3" t="s">
         <v>57</v>
       </c>
@@ -11279,12 +11659,12 @@
       </c>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>532</v>
       </c>
@@ -11292,7 +11672,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>534</v>
       </c>
@@ -11300,7 +11680,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>536</v>
       </c>
@@ -11308,7 +11688,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>53</v>
       </c>
@@ -11316,7 +11696,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B147" s="3" t="s">
         <v>55</v>
       </c>
@@ -11325,7 +11705,7 @@
       </c>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B148" s="3" t="s">
         <v>57</v>
       </c>
@@ -11334,12 +11714,12 @@
       </c>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>47</v>
       </c>
@@ -11347,7 +11727,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>49</v>
       </c>
@@ -11355,7 +11735,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>51</v>
       </c>
@@ -11363,7 +11743,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>53</v>
       </c>
@@ -11371,7 +11751,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B154" s="3" t="s">
         <v>55</v>
       </c>
@@ -11380,7 +11760,7 @@
       </c>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B155" s="3" t="s">
         <v>57</v>
       </c>
@@ -11389,12 +11769,12 @@
       </c>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>47</v>
       </c>
@@ -11402,7 +11782,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>49</v>
       </c>
@@ -11410,7 +11790,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>51</v>
       </c>
@@ -11418,7 +11798,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>53</v>
       </c>
@@ -11426,7 +11806,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B161" s="3" t="s">
         <v>55</v>
       </c>
@@ -11435,7 +11815,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B162" s="3" t="s">
         <v>57</v>
       </c>
@@ -11444,12 +11824,12 @@
       </c>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>595</v>
       </c>
@@ -11457,7 +11837,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>597</v>
       </c>
@@ -11465,7 +11845,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>599</v>
       </c>
@@ -11473,7 +11853,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>601</v>
       </c>
@@ -11481,7 +11861,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>602</v>
       </c>
@@ -11489,7 +11869,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>604</v>
       </c>
@@ -11497,12 +11877,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
         <v>635</v>
       </c>
@@ -11510,7 +11890,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>637</v>
       </c>
@@ -11518,7 +11898,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>639</v>
       </c>
@@ -11526,7 +11906,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>641</v>
       </c>
@@ -11534,7 +11914,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>643</v>
       </c>
@@ -11542,7 +11922,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>645</v>
       </c>
@@ -11550,12 +11930,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>635</v>
       </c>
@@ -11563,7 +11943,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>637</v>
       </c>
@@ -11571,7 +11951,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>639</v>
       </c>
@@ -11579,7 +11959,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>641</v>
       </c>
@@ -11587,7 +11967,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>643</v>
       </c>
@@ -11595,7 +11975,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>645</v>
       </c>
@@ -11603,12 +11983,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>47</v>
       </c>
@@ -11616,7 +11996,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>152</v>
       </c>
@@ -11624,7 +12004,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>49</v>
       </c>
@@ -11632,7 +12012,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>53</v>
       </c>
@@ -11640,7 +12020,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>55</v>
       </c>
@@ -11648,7 +12028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>57</v>
       </c>
@@ -11656,12 +12036,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>47</v>
       </c>
@@ -11669,7 +12049,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>152</v>
       </c>
@@ -11677,7 +12057,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>49</v>
       </c>
@@ -11685,7 +12065,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>53</v>
       </c>
@@ -11693,7 +12073,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>55</v>
       </c>
@@ -11701,7 +12081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>57</v>
       </c>
@@ -11709,12 +12089,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>47</v>
       </c>
@@ -11722,7 +12102,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>152</v>
       </c>
@@ -11730,7 +12110,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>49</v>
       </c>
@@ -11738,7 +12118,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>53</v>
       </c>
@@ -11746,7 +12126,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>55</v>
       </c>
@@ -11754,7 +12134,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>57</v>
       </c>
@@ -11762,12 +12142,12 @@
         <v>737</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>47</v>
       </c>
@@ -11775,7 +12155,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>152</v>
       </c>
@@ -11783,7 +12163,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>49</v>
       </c>
@@ -11791,7 +12171,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>53</v>
       </c>
@@ -11799,7 +12179,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>55</v>
       </c>
@@ -11807,7 +12187,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>57</v>
       </c>
@@ -11815,12 +12195,12 @@
         <v>769</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>47</v>
       </c>
@@ -11828,7 +12208,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>152</v>
       </c>
@@ -11836,7 +12216,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>49</v>
       </c>
@@ -11844,7 +12224,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>53</v>
       </c>
@@ -11852,7 +12232,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>55</v>
       </c>
@@ -11860,7 +12240,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>57</v>
       </c>
@@ -11868,7 +12248,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -11892,12 +12272,12 @@
       <c r="U219" s="5"/>
       <c r="V219" s="5"/>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>47</v>
       </c>
@@ -11905,7 +12285,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>152</v>
       </c>
@@ -11913,7 +12293,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>49</v>
       </c>
@@ -11921,7 +12301,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
         <v>53</v>
       </c>
@@ -11929,7 +12309,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>55</v>
       </c>
@@ -11937,7 +12317,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>57</v>
       </c>
@@ -11945,12 +12325,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>47</v>
       </c>
@@ -11958,7 +12338,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>152</v>
       </c>
@@ -11966,7 +12346,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
         <v>49</v>
       </c>
@@ -11974,7 +12354,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>53</v>
       </c>
@@ -11982,7 +12362,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>55</v>
       </c>
@@ -11990,7 +12370,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>57</v>
       </c>
@@ -11998,12 +12378,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>47</v>
       </c>
@@ -12011,7 +12391,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>152</v>
       </c>
@@ -12019,7 +12399,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>49</v>
       </c>
@@ -12027,7 +12407,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>53</v>
       </c>
@@ -12035,7 +12415,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>55</v>
       </c>
@@ -12043,7 +12423,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>57</v>
       </c>
@@ -12051,12 +12431,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>47</v>
       </c>
@@ -12064,7 +12444,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>152</v>
       </c>
@@ -12072,7 +12452,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>49</v>
       </c>
@@ -12080,7 +12460,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>53</v>
       </c>
@@ -12088,7 +12468,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>55</v>
       </c>
@@ -12096,7 +12476,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>57</v>
       </c>
@@ -12104,12 +12484,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>47</v>
       </c>
@@ -12117,7 +12497,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>152</v>
       </c>
@@ -12125,7 +12505,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>49</v>
       </c>
@@ -12133,7 +12513,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>53</v>
       </c>
@@ -12141,7 +12521,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>55</v>
       </c>
@@ -12149,7 +12529,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>57</v>
       </c>
@@ -12157,12 +12537,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>47</v>
       </c>
@@ -12170,7 +12550,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>152</v>
       </c>
@@ -12178,7 +12558,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>49</v>
       </c>
@@ -12186,7 +12566,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>53</v>
       </c>
@@ -12194,7 +12574,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>55</v>
       </c>
@@ -12202,7 +12582,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>57</v>
       </c>
@@ -12210,12 +12590,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>53</v>
       </c>
@@ -12223,12 +12603,12 @@
         <v>986</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>53</v>
       </c>
@@ -12236,12 +12616,12 @@
         <v>985</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>53</v>
       </c>
@@ -12249,12 +12629,12 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>53</v>
       </c>
@@ -12262,12 +12642,12 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>53</v>
       </c>
@@ -12275,12 +12655,12 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>1074</v>
       </c>
@@ -12288,12 +12668,12 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>53</v>
       </c>
@@ -12301,12 +12681,12 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>53</v>
       </c>
@@ -12314,12 +12694,12 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>53</v>
       </c>
@@ -12327,12 +12707,12 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>53</v>
       </c>
@@ -12340,12 +12720,12 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>53</v>
       </c>
@@ -12353,12 +12733,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>53</v>
       </c>
@@ -12366,12 +12746,12 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>53</v>
       </c>
@@ -12379,12 +12759,12 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>53</v>
       </c>
@@ -12392,12 +12772,12 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>53</v>
       </c>
@@ -12405,12 +12785,12 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>53</v>
       </c>
@@ -12418,12 +12798,12 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>53</v>
       </c>
@@ -12431,12 +12811,12 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>53</v>
       </c>
@@ -12444,12 +12824,12 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>53</v>
       </c>
@@ -12457,12 +12837,12 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>53</v>
       </c>
@@ -12470,12 +12850,12 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>53</v>
       </c>
@@ -12483,12 +12863,12 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>53</v>
       </c>
@@ -12496,12 +12876,12 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>53</v>
       </c>
@@ -12509,12 +12889,12 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>53</v>
       </c>
@@ -12522,12 +12902,12 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>53</v>
       </c>
@@ -12535,7 +12915,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -12555,12 +12935,12 @@
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>53</v>
       </c>
@@ -12568,36 +12948,76 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>53</v>
       </c>
       <c r="C319" t="s">
         <v>1485</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A320" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B321" t="s">
+        <v>53</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B323" t="s">
+        <v>53</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B325" t="s">
+        <v>53</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1537</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X447"/>
+  <dimension ref="A1:X467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="B448" sqref="B448"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -12605,62 +13025,62 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>127</v>
@@ -12673,7 +13093,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>126</v>
@@ -12686,7 +13106,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>125</v>
@@ -12699,7 +13119,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>124</v>
       </c>
@@ -12712,927 +13132,927 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -13658,1147 +14078,1147 @@
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B289" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B421" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B431" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -14822,74 +15242,174 @@
       <c r="U432" s="5"/>
       <c r="V432" s="5"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B435" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B436" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B437" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B438" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B439" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B441" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B442" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B443" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B444" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B445" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B446" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>1494</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B448" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B449" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B450" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A451" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B452" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B453" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B454" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B455" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B456" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B457" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A458" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B459" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B460" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B461" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B462" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B463" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B464" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B465" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B466" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>1547</v>
       </c>
     </row>
   </sheetData>
@@ -14901,15 +15421,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V132"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -14917,307 +15437,307 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -15241,317 +15761,317 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -15570,29 +16090,60 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>1487</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B138" t="s">
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15604,29 +16155,29 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>1271</v>
       </c>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E28AD-6363-428D-9A26-19F842EE8481}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22E7386-5A0A-42AF-93CE-D0D148FF2DAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1580">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6197,6 +6197,134 @@
   </si>
   <si>
     <t>08.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-105'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-101'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-18.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰农夫山泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油盐酱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗脸盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为12.82km，共17950步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝，你在哪里啊，我好想你。我知道你不在天津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天把东西做出来了，来了一个新人，我在给倪旻演示，他在背后说这个东西这么简单，卧槽，这个世界怎么会有情商如此低之人？？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞姐的签证好像出了问题，急死了她，我红红火火恍恍惚惚！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想苗宝宝，她好像去了桂林，玩的开心，注意安全。本来我是打算送她花的，结果就没有结果了，算了明天再说吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和张平一起坐班车回来的，感觉到她好尴尬的处境!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上买了好多东西，电热锅，油盐酱醋，好累好累，我需要休息！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频了，早上和妈妈视频了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.07'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6608,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q410"/>
+  <dimension ref="A1:Q422"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="L405" sqref="L405"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="P410" sqref="P410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10605,6 +10733,109 @@
         <v>1534</v>
       </c>
     </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A412" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E412" s="2">
+        <v>319.2</v>
+      </c>
+      <c r="J412">
+        <v>2692.7</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412" s="7" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B413" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B414" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B415" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B416" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B417" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B418" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B419" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B420" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B421" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B422" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10614,10 +10845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V325"/>
+  <dimension ref="A1:V327"/>
   <sheetViews>
     <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+      <selection activeCell="G337" sqref="G337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13000,6 +13231,19 @@
         <v>1537</v>
       </c>
     </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B327" t="s">
+        <v>53</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1571</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13009,10 +13253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X467"/>
+  <dimension ref="A1:X474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467"/>
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15412,6 +15656,41 @@
         <v>1547</v>
       </c>
     </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B468" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B469" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B470" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B471" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B472" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B473" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A474" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15421,10 +15700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16140,6 +16419,16 @@
         <v>1538</v>
       </c>
     </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>1572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6D59D-237D-42A6-8820-A7E22B4EACFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076EDE8-17C9-4A96-8CE3-9CB12177F301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1565">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6189,6 +6189,82 @@
   </si>
   <si>
     <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-187'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切菜板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹风机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-22.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.96km，共16757步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想苗宝宝！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天中午睡了一觉，结果睡过了头，哇，没吃上好饭，好伤心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和波哥去吃了湘菜，回顾老味道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没事了今天，我好累！好想苗宝宝&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.08'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6594,24 +6670,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P428"/>
+  <dimension ref="A1:P435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="N419" sqref="N419"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -6619,7 +6695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -6639,7 +6715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -6656,7 +6732,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -6676,7 +6752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -6687,7 +6763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -6704,7 +6780,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -6724,7 +6800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -6735,7 +6811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -6746,7 +6822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -6757,7 +6833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
@@ -6765,7 +6841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6782,7 +6858,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -6802,7 +6878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -6813,7 +6889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -6824,7 +6900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -6835,7 +6911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -6846,7 +6922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -6857,7 +6933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -6874,7 +6950,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>85</v>
       </c>
@@ -6894,7 +6970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>90</v>
       </c>
@@ -6905,7 +6981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -6913,7 +6989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -6921,7 +6997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -6929,7 +7005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -6946,7 +7022,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>114</v>
       </c>
@@ -6966,7 +7042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>116</v>
       </c>
@@ -6977,7 +7053,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -6994,7 +7070,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -7014,7 +7090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>142</v>
       </c>
@@ -7022,7 +7098,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>136</v>
       </c>
@@ -7033,7 +7109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>139</v>
       </c>
@@ -7044,7 +7120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -7055,7 +7131,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
@@ -7072,7 +7148,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>163</v>
       </c>
@@ -7092,7 +7168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>166</v>
       </c>
@@ -7103,7 +7179,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>169</v>
       </c>
@@ -7114,7 +7190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>172</v>
       </c>
@@ -7122,7 +7198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>174</v>
       </c>
@@ -7130,7 +7206,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>192</v>
       </c>
@@ -7147,7 +7223,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>193</v>
       </c>
@@ -7167,7 +7243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>197</v>
       </c>
@@ -7178,7 +7254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>198</v>
       </c>
@@ -7189,7 +7265,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>269</v>
       </c>
@@ -7200,7 +7276,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>202</v>
       </c>
@@ -7217,7 +7293,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>218</v>
       </c>
@@ -7231,7 +7307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
@@ -7248,7 +7324,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>193</v>
       </c>
@@ -7268,7 +7344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>204</v>
       </c>
@@ -7279,7 +7355,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>213</v>
       </c>
@@ -7290,7 +7366,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>210</v>
       </c>
@@ -7301,7 +7377,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>207</v>
       </c>
@@ -7312,7 +7388,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>217</v>
       </c>
@@ -7329,7 +7405,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>270</v>
       </c>
@@ -7346,7 +7422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>275</v>
       </c>
@@ -7357,7 +7433,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>273</v>
       </c>
@@ -7368,7 +7444,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>277</v>
       </c>
@@ -7379,7 +7455,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>293</v>
       </c>
@@ -7387,7 +7463,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>295</v>
       </c>
@@ -7404,7 +7480,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>270</v>
       </c>
@@ -7424,7 +7500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>297</v>
       </c>
@@ -7435,7 +7511,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -7446,7 +7522,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>302</v>
       </c>
@@ -7457,7 +7533,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C75" s="1" t="s">
         <v>305</v>
       </c>
@@ -7465,7 +7541,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>307</v>
       </c>
@@ -7476,7 +7552,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>326</v>
       </c>
@@ -7487,7 +7563,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>347</v>
       </c>
@@ -7504,7 +7580,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>329</v>
       </c>
@@ -7524,7 +7600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>332</v>
       </c>
@@ -7535,7 +7611,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>348</v>
       </c>
@@ -7552,7 +7628,7 @@
         <v>1204.3900000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>349</v>
       </c>
@@ -7572,7 +7648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>351</v>
       </c>
@@ -7589,7 +7665,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>353</v>
       </c>
@@ -7597,7 +7673,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>355</v>
       </c>
@@ -7605,7 +7681,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>357</v>
       </c>
@@ -7616,7 +7692,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>362</v>
       </c>
@@ -7633,7 +7709,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>363</v>
       </c>
@@ -7653,7 +7729,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>380</v>
       </c>
@@ -7664,7 +7740,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>383</v>
       </c>
@@ -7675,7 +7751,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>410</v>
       </c>
@@ -7692,7 +7768,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>411</v>
       </c>
@@ -7700,7 +7776,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>413</v>
       </c>
@@ -7711,7 +7787,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>416</v>
       </c>
@@ -7728,7 +7804,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>417</v>
       </c>
@@ -7736,7 +7812,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>430</v>
       </c>
@@ -7747,7 +7823,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>420</v>
       </c>
@@ -7758,7 +7834,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>423</v>
       </c>
@@ -7769,7 +7845,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>426</v>
       </c>
@@ -7780,7 +7856,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>431</v>
       </c>
@@ -7797,7 +7873,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>460</v>
       </c>
@@ -7808,7 +7884,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>462</v>
       </c>
@@ -7819,7 +7895,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>468</v>
       </c>
@@ -7830,7 +7906,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>466</v>
       </c>
@@ -7838,7 +7914,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>471</v>
       </c>
@@ -7855,7 +7931,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>487</v>
       </c>
@@ -7866,7 +7942,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>489</v>
       </c>
@@ -7877,7 +7953,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C115" s="1" t="s">
         <v>492</v>
       </c>
@@ -7885,7 +7961,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>509</v>
       </c>
@@ -7902,7 +7978,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>510</v>
       </c>
@@ -7913,7 +7989,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>513</v>
       </c>
@@ -7924,7 +8000,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>516</v>
       </c>
@@ -7935,7 +8011,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>513</v>
       </c>
@@ -7946,7 +8022,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>521</v>
       </c>
@@ -7957,7 +8033,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>544</v>
       </c>
@@ -7974,7 +8050,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>545</v>
       </c>
@@ -7985,7 +8061,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>548</v>
       </c>
@@ -7996,7 +8072,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>551</v>
       </c>
@@ -8007,7 +8083,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>553</v>
       </c>
@@ -8015,7 +8091,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>556</v>
       </c>
@@ -8032,7 +8108,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>557</v>
       </c>
@@ -8043,7 +8119,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>560</v>
       </c>
@@ -8060,7 +8136,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>585</v>
       </c>
@@ -8071,7 +8147,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>604</v>
       </c>
@@ -8088,7 +8164,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>605</v>
       </c>
@@ -8099,7 +8175,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>608</v>
       </c>
@@ -8107,7 +8183,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>610</v>
       </c>
@@ -8115,7 +8191,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>612</v>
       </c>
@@ -8126,7 +8202,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>615</v>
       </c>
@@ -8143,7 +8219,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>605</v>
       </c>
@@ -8151,7 +8227,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>612</v>
       </c>
@@ -8162,7 +8238,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>618</v>
       </c>
@@ -8170,7 +8246,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>620</v>
       </c>
@@ -8178,7 +8254,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>621</v>
       </c>
@@ -8186,7 +8262,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>624</v>
       </c>
@@ -8203,7 +8279,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>661</v>
       </c>
@@ -8214,7 +8290,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>661</v>
       </c>
@@ -8225,7 +8301,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>661</v>
       </c>
@@ -8236,7 +8312,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>665</v>
       </c>
@@ -8253,7 +8329,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>661</v>
       </c>
@@ -8264,7 +8340,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>667</v>
       </c>
@@ -8275,7 +8351,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>669</v>
       </c>
@@ -8283,7 +8359,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>670</v>
       </c>
@@ -8291,7 +8367,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>671</v>
       </c>
@@ -8299,7 +8375,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>672</v>
       </c>
@@ -8307,7 +8383,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>674</v>
       </c>
@@ -8315,7 +8391,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>706</v>
       </c>
@@ -8332,7 +8408,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>707</v>
       </c>
@@ -8343,7 +8419,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>710</v>
       </c>
@@ -8351,7 +8427,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>712</v>
       </c>
@@ -8362,7 +8438,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>715</v>
       </c>
@@ -8370,7 +8446,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>717</v>
       </c>
@@ -8378,7 +8454,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>719</v>
       </c>
@@ -8386,7 +8462,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>721</v>
       </c>
@@ -8394,7 +8470,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>743</v>
       </c>
@@ -8411,7 +8487,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>744</v>
       </c>
@@ -8422,7 +8498,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>747</v>
       </c>
@@ -8430,7 +8506,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>749</v>
       </c>
@@ -8447,7 +8523,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>750</v>
       </c>
@@ -8455,7 +8531,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>752</v>
       </c>
@@ -8463,7 +8539,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>754</v>
       </c>
@@ -8471,7 +8547,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8489,7 +8565,7 @@
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>783</v>
       </c>
@@ -8506,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>784</v>
       </c>
@@ -8514,7 +8590,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>786</v>
       </c>
@@ -8522,7 +8598,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>800</v>
       </c>
@@ -8530,7 +8606,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>788</v>
       </c>
@@ -8541,7 +8617,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>791</v>
       </c>
@@ -8549,7 +8625,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>793</v>
       </c>
@@ -8566,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>794</v>
       </c>
@@ -8574,7 +8650,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>796</v>
       </c>
@@ -8582,7 +8658,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>798</v>
       </c>
@@ -8590,7 +8666,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>802</v>
       </c>
@@ -8601,7 +8677,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>805</v>
       </c>
@@ -8612,7 +8688,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>807</v>
       </c>
@@ -8623,7 +8699,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>898</v>
       </c>
@@ -8640,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>841</v>
       </c>
@@ -8651,7 +8727,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>844</v>
       </c>
@@ -8662,7 +8738,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>847</v>
       </c>
@@ -8673,7 +8749,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>850</v>
       </c>
@@ -8681,7 +8757,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>852</v>
       </c>
@@ -8689,7 +8765,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>854</v>
       </c>
@@ -8697,7 +8773,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>900</v>
       </c>
@@ -8714,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>856</v>
       </c>
@@ -8725,7 +8801,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>859</v>
       </c>
@@ -8733,7 +8809,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>861</v>
       </c>
@@ -8741,7 +8817,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>863</v>
       </c>
@@ -8749,7 +8825,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>852</v>
       </c>
@@ -8757,7 +8833,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>865</v>
       </c>
@@ -8768,7 +8844,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>899</v>
       </c>
@@ -8785,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>901</v>
       </c>
@@ -8796,7 +8872,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>901</v>
       </c>
@@ -8807,7 +8883,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>905</v>
       </c>
@@ -8824,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>901</v>
       </c>
@@ -8835,7 +8911,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>908</v>
       </c>
@@ -8846,7 +8922,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>911</v>
       </c>
@@ -8857,7 +8933,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>901</v>
       </c>
@@ -8868,7 +8944,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>916</v>
       </c>
@@ -8876,7 +8952,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>918</v>
       </c>
@@ -8884,7 +8960,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>952</v>
       </c>
@@ -8901,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>953</v>
       </c>
@@ -8909,7 +8985,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>955</v>
       </c>
@@ -8917,7 +8993,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>957</v>
       </c>
@@ -8925,12 +9001,12 @@
         <v>958</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>960</v>
       </c>
@@ -8950,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>962</v>
       </c>
@@ -8958,7 +9034,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>964</v>
       </c>
@@ -8966,7 +9042,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>953</v>
       </c>
@@ -8974,7 +9050,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>965</v>
       </c>
@@ -8982,7 +9058,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>988</v>
       </c>
@@ -8999,7 +9075,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>992</v>
       </c>
@@ -9016,7 +9092,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>1001</v>
       </c>
@@ -9024,7 +9100,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>1000</v>
       </c>
@@ -9032,7 +9108,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>999</v>
       </c>
@@ -9040,7 +9116,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>998</v>
       </c>
@@ -9048,7 +9124,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>1011</v>
       </c>
@@ -9056,7 +9132,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>1002</v>
       </c>
@@ -9073,7 +9149,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>992</v>
       </c>
@@ -9081,7 +9157,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>1007</v>
       </c>
@@ -9089,7 +9165,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>1000</v>
       </c>
@@ -9097,7 +9173,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>999</v>
       </c>
@@ -9105,7 +9181,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>1006</v>
       </c>
@@ -9113,7 +9189,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>1032</v>
       </c>
@@ -9127,7 +9203,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>1033</v>
       </c>
@@ -9135,7 +9211,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>1036</v>
       </c>
@@ -9143,7 +9219,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>1043</v>
       </c>
@@ -9157,7 +9233,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>1044</v>
       </c>
@@ -9165,7 +9241,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>1045</v>
       </c>
@@ -9173,7 +9249,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>1046</v>
       </c>
@@ -9181,7 +9257,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>1047</v>
       </c>
@@ -9189,12 +9265,12 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>1072</v>
       </c>
@@ -9211,7 +9287,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>1074</v>
       </c>
@@ -9219,7 +9295,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>1069</v>
       </c>
@@ -9233,7 +9309,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>1073</v>
       </c>
@@ -9241,7 +9317,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>1072</v>
       </c>
@@ -9249,7 +9325,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>1094</v>
       </c>
@@ -9263,7 +9339,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>1099</v>
       </c>
@@ -9271,7 +9347,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>1100</v>
       </c>
@@ -9279,7 +9355,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>1099</v>
       </c>
@@ -9287,7 +9363,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>1101</v>
       </c>
@@ -9295,7 +9371,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>1102</v>
       </c>
@@ -9303,7 +9379,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>1103</v>
       </c>
@@ -9317,7 +9393,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>1108</v>
       </c>
@@ -9325,7 +9401,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>1100</v>
       </c>
@@ -9333,7 +9409,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>1099</v>
       </c>
@@ -9341,7 +9417,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>1101</v>
       </c>
@@ -9349,7 +9425,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>1109</v>
       </c>
@@ -9357,7 +9433,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>1128</v>
       </c>
@@ -9371,7 +9447,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>1140</v>
       </c>
@@ -9379,7 +9455,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>1141</v>
       </c>
@@ -9387,7 +9463,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>1142</v>
       </c>
@@ -9395,7 +9471,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B289" t="s">
         <v>1143</v>
       </c>
@@ -9403,7 +9479,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>1144</v>
       </c>
@@ -9411,7 +9487,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>1145</v>
       </c>
@@ -9419,7 +9495,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1139</v>
       </c>
@@ -9433,7 +9509,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>1140</v>
       </c>
@@ -9441,7 +9517,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>1146</v>
       </c>
@@ -9449,7 +9525,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>1142</v>
       </c>
@@ -9457,7 +9533,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>1144</v>
       </c>
@@ -9465,7 +9541,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>1147</v>
       </c>
@@ -9473,7 +9549,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9487,7 +9563,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>1175</v>
       </c>
@@ -9495,7 +9571,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>1180</v>
       </c>
@@ -9503,7 +9579,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>1179</v>
       </c>
@@ -9511,7 +9587,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>1177</v>
       </c>
@@ -9522,7 +9598,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E305" s="2">
         <v>2</v>
       </c>
@@ -9533,12 +9609,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>1175</v>
       </c>
@@ -9549,7 +9625,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>1201</v>
       </c>
@@ -9563,7 +9639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>1202</v>
       </c>
@@ -9571,7 +9647,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>1203</v>
       </c>
@@ -9582,7 +9658,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>1204</v>
       </c>
@@ -9590,7 +9666,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>1221</v>
       </c>
@@ -9604,7 +9680,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>1226</v>
       </c>
@@ -9612,7 +9688,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>1227</v>
       </c>
@@ -9623,7 +9699,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>1229</v>
       </c>
@@ -9634,7 +9710,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
         <v>1232</v>
       </c>
@@ -9645,10 +9721,10 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>1260</v>
       </c>
@@ -9662,7 +9738,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>1266</v>
       </c>
@@ -9670,7 +9746,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>1267</v>
       </c>
@@ -9678,7 +9754,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>1268</v>
       </c>
@@ -9686,7 +9762,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
         <v>1269</v>
       </c>
@@ -9694,7 +9770,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>1270</v>
       </c>
@@ -9702,7 +9778,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>1271</v>
       </c>
@@ -9710,7 +9786,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>1280</v>
       </c>
@@ -9721,7 +9797,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>1282</v>
       </c>
@@ -9735,7 +9811,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B330" t="s">
         <v>667</v>
       </c>
@@ -9743,7 +9819,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>163</v>
       </c>
@@ -9751,7 +9827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -9759,7 +9835,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>672</v>
       </c>
@@ -9767,7 +9843,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>918</v>
       </c>
@@ -9775,7 +9851,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>1295</v>
       </c>
@@ -9789,7 +9865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B337" t="s">
         <v>667</v>
       </c>
@@ -9797,7 +9873,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>163</v>
       </c>
@@ -9805,7 +9881,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -9813,7 +9889,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>1303</v>
       </c>
@@ -9821,7 +9897,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>1302</v>
       </c>
@@ -9829,7 +9905,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>1312</v>
       </c>
@@ -9843,7 +9919,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
         <v>667</v>
       </c>
@@ -9851,7 +9927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>163</v>
       </c>
@@ -9859,7 +9935,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>22</v>
       </c>
@@ -9867,7 +9943,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>1303</v>
       </c>
@@ -9878,7 +9954,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>918</v>
       </c>
@@ -9886,7 +9962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>1313</v>
       </c>
@@ -9900,7 +9976,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B351" t="s">
         <v>1324</v>
       </c>
@@ -9908,7 +9984,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>1323</v>
       </c>
@@ -9916,7 +9992,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>1321</v>
       </c>
@@ -9924,7 +10000,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
         <v>1320</v>
       </c>
@@ -9932,7 +10008,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>1319</v>
       </c>
@@ -9943,7 +10019,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>1326</v>
       </c>
@@ -9957,7 +10033,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>1324</v>
       </c>
@@ -9965,7 +10041,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>1329</v>
       </c>
@@ -9976,7 +10052,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>1331</v>
       </c>
@@ -9990,7 +10066,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>1363</v>
       </c>
@@ -9998,7 +10074,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>1364</v>
       </c>
@@ -10006,7 +10082,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>1365</v>
       </c>
@@ -10014,7 +10090,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>1377</v>
       </c>
@@ -10028,7 +10104,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B367" t="s">
         <v>1378</v>
       </c>
@@ -10036,7 +10112,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
         <v>1379</v>
       </c>
@@ -10044,7 +10120,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>1380</v>
       </c>
@@ -10052,7 +10128,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>1381</v>
       </c>
@@ -10063,7 +10139,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B371" t="s">
         <v>1386</v>
       </c>
@@ -10071,7 +10147,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>1389</v>
       </c>
@@ -10085,7 +10161,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>1390</v>
       </c>
@@ -10093,7 +10169,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>1392</v>
       </c>
@@ -10104,7 +10180,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B376" t="s">
         <v>1409</v>
       </c>
@@ -10112,7 +10188,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>1411</v>
       </c>
@@ -10120,7 +10196,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10137,7 +10213,7 @@
       <c r="N379" s="5"/>
       <c r="O379" s="5"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>1426</v>
       </c>
@@ -10151,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>1413</v>
       </c>
@@ -10159,7 +10235,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B383" t="s">
         <v>1414</v>
       </c>
@@ -10167,7 +10243,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>1427</v>
       </c>
@@ -10175,7 +10251,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>1429</v>
       </c>
@@ -10183,7 +10259,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>1439</v>
       </c>
@@ -10197,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>1440</v>
       </c>
@@ -10205,7 +10281,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B389" t="s">
         <v>1441</v>
       </c>
@@ -10213,7 +10289,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>1444</v>
       </c>
@@ -10221,7 +10297,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>1445</v>
       </c>
@@ -10229,7 +10305,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>1458</v>
       </c>
@@ -10243,12 +10319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B394" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>1460</v>
       </c>
@@ -10262,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B397" t="s">
         <v>1475</v>
       </c>
@@ -10273,7 +10349,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>1477</v>
       </c>
@@ -10284,7 +10360,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>1479</v>
       </c>
@@ -10295,7 +10371,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>1480</v>
       </c>
@@ -10303,7 +10379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>1482</v>
       </c>
@@ -10311,7 +10387,7 @@
         <v>123.9</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
         <v>1483</v>
       </c>
@@ -10319,7 +10395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>1484</v>
       </c>
@@ -10330,7 +10406,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>1486</v>
       </c>
@@ -10344,7 +10420,7 @@
         <v>6553.13</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
         <v>1487</v>
       </c>
@@ -10352,7 +10428,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>1488</v>
       </c>
@@ -10360,7 +10436,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B408" t="s">
         <v>1490</v>
       </c>
@@ -10368,7 +10444,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>1492</v>
       </c>
@@ -10379,7 +10455,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
         <v>1494</v>
       </c>
@@ -10387,7 +10463,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>1508</v>
       </c>
@@ -10401,7 +10477,7 @@
         <v>6553.13</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
         <v>1518</v>
       </c>
@@ -10412,7 +10488,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
         <v>1520</v>
       </c>
@@ -10420,7 +10496,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B415" t="s">
         <v>1521</v>
       </c>
@@ -10428,7 +10504,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
         <v>1522</v>
       </c>
@@ -10436,7 +10512,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
         <v>1523</v>
       </c>
@@ -10444,7 +10520,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
         <v>1524</v>
       </c>
@@ -10455,7 +10531,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
         <v>1526</v>
       </c>
@@ -10463,7 +10539,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
         <v>1527</v>
       </c>
@@ -10471,7 +10547,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B421" t="s">
         <v>1528</v>
       </c>
@@ -10479,7 +10555,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
         <v>1529</v>
       </c>
@@ -10487,15 +10563,21 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>1539</v>
       </c>
+      <c r="E424" s="2">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="J424">
+        <v>2980.1</v>
+      </c>
       <c r="K424">
         <v>6553.13</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B425" t="s">
         <v>1540</v>
       </c>
@@ -10503,7 +10585,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
         <v>1541</v>
       </c>
@@ -10511,14 +10593,65 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C427" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
         <v>1545</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B429" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B430" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B431" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B432" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B433" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435" s="1" t="s">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -10530,15 +10663,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V327"/>
+  <dimension ref="A1:V330"/>
   <sheetViews>
     <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="G337" sqref="G337"/>
+      <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -10546,12 +10679,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -10559,7 +10692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -10567,7 +10700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>49</v>
       </c>
@@ -10575,7 +10708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -10583,7 +10716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -10591,7 +10724,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -10599,12 +10732,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -10612,7 +10745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -10620,7 +10753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -10628,7 +10761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -10636,7 +10769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -10644,7 +10777,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -10652,12 +10785,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -10665,7 +10798,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -10673,7 +10806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -10681,7 +10814,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -10689,7 +10822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -10697,7 +10830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -10705,12 +10838,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -10718,7 +10851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -10726,7 +10859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -10734,7 +10867,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -10742,7 +10875,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -10750,7 +10883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -10758,12 +10891,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>132</v>
@@ -10777,7 +10910,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>130</v>
@@ -10791,7 +10924,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>128</v>
@@ -10805,7 +10938,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>126</v>
@@ -10819,12 +10952,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
@@ -10838,7 +10971,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>149</v>
@@ -10852,7 +10985,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>151</v>
@@ -10864,7 +10997,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>53</v>
@@ -10878,7 +11011,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
@@ -10887,12 +11020,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>177</v>
       </c>
@@ -10900,7 +11033,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>179</v>
       </c>
@@ -10908,7 +11041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>181</v>
       </c>
@@ -10916,7 +11049,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>183</v>
       </c>
@@ -10924,7 +11057,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
@@ -10933,7 +11066,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -10942,12 +11075,12 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>45</v>
       </c>
@@ -10955,7 +11088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>149</v>
       </c>
@@ -10963,12 +11096,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>51</v>
       </c>
@@ -10976,7 +11109,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
@@ -10985,7 +11118,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
@@ -10994,12 +11127,12 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>45</v>
       </c>
@@ -11007,7 +11140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>149</v>
       </c>
@@ -11015,7 +11148,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -11023,7 +11156,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>51</v>
       </c>
@@ -11031,7 +11164,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>53</v>
       </c>
@@ -11040,7 +11173,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>55</v>
       </c>
@@ -11049,12 +11182,12 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>45</v>
       </c>
@@ -11062,7 +11195,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>149</v>
       </c>
@@ -11070,7 +11203,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>47</v>
       </c>
@@ -11078,7 +11211,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>51</v>
       </c>
@@ -11086,7 +11219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>53</v>
       </c>
@@ -11095,7 +11228,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>55</v>
       </c>
@@ -11104,12 +11237,12 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>149</v>
       </c>
@@ -11117,7 +11250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>47</v>
       </c>
@@ -11125,7 +11258,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>51</v>
       </c>
@@ -11133,7 +11266,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>53</v>
       </c>
@@ -11142,7 +11275,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>55</v>
       </c>
@@ -11151,12 +11284,12 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>311</v>
       </c>
@@ -11164,7 +11297,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>313</v>
       </c>
@@ -11172,7 +11305,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>51</v>
       </c>
@@ -11180,7 +11313,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>53</v>
       </c>
@@ -11189,7 +11322,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>55</v>
       </c>
@@ -11198,12 +11331,12 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>45</v>
       </c>
@@ -11211,7 +11344,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>47</v>
       </c>
@@ -11219,7 +11352,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>51</v>
       </c>
@@ -11227,7 +11360,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
         <v>53</v>
       </c>
@@ -11236,7 +11369,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -11245,12 +11378,12 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>45</v>
       </c>
@@ -11258,7 +11391,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>47</v>
       </c>
@@ -11266,7 +11399,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>51</v>
       </c>
@@ -11274,7 +11407,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B104" s="3" t="s">
         <v>53</v>
       </c>
@@ -11283,7 +11416,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B105" s="3" t="s">
         <v>55</v>
       </c>
@@ -11292,12 +11425,12 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>387</v>
       </c>
@@ -11305,7 +11438,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>389</v>
       </c>
@@ -11313,7 +11446,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>391</v>
       </c>
@@ -11321,7 +11454,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>392</v>
       </c>
@@ -11329,7 +11462,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>51</v>
       </c>
@@ -11337,7 +11470,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
         <v>53</v>
       </c>
@@ -11346,7 +11479,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B113" s="3" t="s">
         <v>55</v>
       </c>
@@ -11355,12 +11488,12 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>45</v>
       </c>
@@ -11368,7 +11501,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>149</v>
       </c>
@@ -11376,7 +11509,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>47</v>
       </c>
@@ -11384,7 +11517,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>51</v>
       </c>
@@ -11392,7 +11525,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B119" s="3" t="s">
         <v>53</v>
       </c>
@@ -11401,7 +11534,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B120" s="3" t="s">
         <v>55</v>
       </c>
@@ -11410,12 +11543,12 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>45</v>
       </c>
@@ -11423,7 +11556,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
         <v>149</v>
       </c>
@@ -11431,7 +11564,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>47</v>
       </c>
@@ -11439,7 +11572,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>51</v>
       </c>
@@ -11447,7 +11580,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B126" s="3" t="s">
         <v>53</v>
       </c>
@@ -11456,7 +11589,7 @@
       </c>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B127" s="3" t="s">
         <v>55</v>
       </c>
@@ -11465,12 +11598,12 @@
       </c>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>45</v>
       </c>
@@ -11478,7 +11611,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>149</v>
       </c>
@@ -11486,7 +11619,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>47</v>
       </c>
@@ -11494,7 +11627,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>51</v>
       </c>
@@ -11502,7 +11635,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B133" s="3" t="s">
         <v>53</v>
       </c>
@@ -11511,7 +11644,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B134" s="3" t="s">
         <v>55</v>
       </c>
@@ -11520,12 +11653,12 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>494</v>
       </c>
@@ -11533,7 +11666,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>496</v>
       </c>
@@ -11541,7 +11674,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>498</v>
       </c>
@@ -11549,7 +11682,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>51</v>
       </c>
@@ -11557,7 +11690,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B140" s="3" t="s">
         <v>53</v>
       </c>
@@ -11566,7 +11699,7 @@
       </c>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B141" s="3" t="s">
         <v>55</v>
       </c>
@@ -11575,12 +11708,12 @@
       </c>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>528</v>
       </c>
@@ -11588,7 +11721,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>530</v>
       </c>
@@ -11596,7 +11729,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
         <v>532</v>
       </c>
@@ -11604,7 +11737,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>51</v>
       </c>
@@ -11612,7 +11745,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B147" s="3" t="s">
         <v>53</v>
       </c>
@@ -11621,7 +11754,7 @@
       </c>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B148" s="3" t="s">
         <v>55</v>
       </c>
@@ -11630,12 +11763,12 @@
       </c>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>45</v>
       </c>
@@ -11643,7 +11776,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>47</v>
       </c>
@@ -11651,7 +11784,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>49</v>
       </c>
@@ -11659,7 +11792,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>51</v>
       </c>
@@ -11667,7 +11800,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B154" s="3" t="s">
         <v>53</v>
       </c>
@@ -11676,7 +11809,7 @@
       </c>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B155" s="3" t="s">
         <v>55</v>
       </c>
@@ -11685,12 +11818,12 @@
       </c>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>45</v>
       </c>
@@ -11698,7 +11831,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>47</v>
       </c>
@@ -11706,7 +11839,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>49</v>
       </c>
@@ -11714,7 +11847,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>51</v>
       </c>
@@ -11722,7 +11855,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B161" s="3" t="s">
         <v>53</v>
       </c>
@@ -11731,7 +11864,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B162" s="3" t="s">
         <v>55</v>
       </c>
@@ -11740,12 +11873,12 @@
       </c>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>590</v>
       </c>
@@ -11753,7 +11886,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>592</v>
       </c>
@@ -11761,7 +11894,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>594</v>
       </c>
@@ -11769,7 +11902,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>596</v>
       </c>
@@ -11777,7 +11910,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>597</v>
       </c>
@@ -11785,7 +11918,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>599</v>
       </c>
@@ -11793,12 +11926,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
         <v>629</v>
       </c>
@@ -11806,7 +11939,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>631</v>
       </c>
@@ -11814,7 +11947,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>633</v>
       </c>
@@ -11822,7 +11955,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>635</v>
       </c>
@@ -11830,7 +11963,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>637</v>
       </c>
@@ -11838,7 +11971,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>639</v>
       </c>
@@ -11846,12 +11979,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>629</v>
       </c>
@@ -11859,7 +11992,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>631</v>
       </c>
@@ -11867,7 +12000,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>633</v>
       </c>
@@ -11875,7 +12008,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>635</v>
       </c>
@@ -11883,7 +12016,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>637</v>
       </c>
@@ -11891,7 +12024,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>639</v>
       </c>
@@ -11899,12 +12032,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>45</v>
       </c>
@@ -11912,7 +12045,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>149</v>
       </c>
@@ -11920,7 +12053,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>47</v>
       </c>
@@ -11928,7 +12061,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
         <v>51</v>
       </c>
@@ -11936,7 +12069,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>53</v>
       </c>
@@ -11944,7 +12077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>55</v>
       </c>
@@ -11952,12 +12085,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>45</v>
       </c>
@@ -11965,7 +12098,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>149</v>
       </c>
@@ -11973,7 +12106,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>47</v>
       </c>
@@ -11981,7 +12114,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
         <v>51</v>
       </c>
@@ -11989,7 +12122,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>53</v>
       </c>
@@ -11997,7 +12130,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>55</v>
       </c>
@@ -12005,12 +12138,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>45</v>
       </c>
@@ -12018,7 +12151,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>149</v>
       </c>
@@ -12026,7 +12159,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>47</v>
       </c>
@@ -12034,7 +12167,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
         <v>51</v>
       </c>
@@ -12042,7 +12175,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
         <v>53</v>
       </c>
@@ -12050,7 +12183,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
         <v>55</v>
       </c>
@@ -12058,12 +12191,12 @@
         <v>728</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>45</v>
       </c>
@@ -12071,7 +12204,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>149</v>
       </c>
@@ -12079,7 +12212,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>47</v>
       </c>
@@ -12087,7 +12220,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>51</v>
       </c>
@@ -12095,7 +12228,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>53</v>
       </c>
@@ -12103,7 +12236,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>55</v>
       </c>
@@ -12111,12 +12244,12 @@
         <v>760</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>45</v>
       </c>
@@ -12124,7 +12257,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>149</v>
       </c>
@@ -12132,7 +12265,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>47</v>
       </c>
@@ -12140,7 +12273,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>51</v>
       </c>
@@ -12148,7 +12281,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>53</v>
       </c>
@@ -12156,7 +12289,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>55</v>
       </c>
@@ -12164,7 +12297,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -12188,12 +12321,12 @@
       <c r="U219" s="5"/>
       <c r="V219" s="5"/>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>45</v>
       </c>
@@ -12201,7 +12334,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B223" t="s">
         <v>149</v>
       </c>
@@ -12209,7 +12342,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>47</v>
       </c>
@@ -12217,7 +12350,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
         <v>51</v>
       </c>
@@ -12225,7 +12358,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>53</v>
       </c>
@@ -12233,7 +12366,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>55</v>
       </c>
@@ -12241,12 +12374,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>45</v>
       </c>
@@ -12254,7 +12387,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>149</v>
       </c>
@@ -12262,7 +12395,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
         <v>47</v>
       </c>
@@ -12270,7 +12403,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
         <v>51</v>
       </c>
@@ -12278,7 +12411,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>53</v>
       </c>
@@ -12286,7 +12419,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>55</v>
       </c>
@@ -12294,12 +12427,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>45</v>
       </c>
@@ -12307,7 +12440,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>149</v>
       </c>
@@ -12315,7 +12448,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>47</v>
       </c>
@@ -12323,7 +12456,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>51</v>
       </c>
@@ -12331,7 +12464,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
         <v>53</v>
       </c>
@@ -12339,7 +12472,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>55</v>
       </c>
@@ -12347,12 +12480,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>45</v>
       </c>
@@ -12360,7 +12493,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>149</v>
       </c>
@@ -12368,7 +12501,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>47</v>
       </c>
@@ -12376,7 +12509,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>51</v>
       </c>
@@ -12384,7 +12517,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>53</v>
       </c>
@@ -12392,7 +12525,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>55</v>
       </c>
@@ -12400,12 +12533,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B250" t="s">
         <v>45</v>
       </c>
@@ -12413,7 +12546,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>149</v>
       </c>
@@ -12421,7 +12554,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>47</v>
       </c>
@@ -12429,7 +12562,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>51</v>
       </c>
@@ -12437,7 +12570,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>53</v>
       </c>
@@ -12445,7 +12578,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>55</v>
       </c>
@@ -12453,12 +12586,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>45</v>
       </c>
@@ -12466,7 +12599,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
         <v>149</v>
       </c>
@@ -12474,7 +12607,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>47</v>
       </c>
@@ -12482,7 +12615,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>51</v>
       </c>
@@ -12490,7 +12623,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>53</v>
       </c>
@@ -12498,7 +12631,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>55</v>
       </c>
@@ -12506,12 +12639,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
         <v>51</v>
       </c>
@@ -12519,12 +12652,12 @@
         <v>970</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>51</v>
       </c>
@@ -12532,12 +12665,12 @@
         <v>969</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>51</v>
       </c>
@@ -12545,12 +12678,12 @@
         <v>991</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>51</v>
       </c>
@@ -12558,12 +12691,12 @@
         <v>990</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B272" t="s">
         <v>51</v>
       </c>
@@ -12571,12 +12704,12 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>1054</v>
       </c>
@@ -12584,12 +12717,12 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>51</v>
       </c>
@@ -12597,12 +12730,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B278" t="s">
         <v>51</v>
       </c>
@@ -12610,12 +12743,12 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>51</v>
       </c>
@@ -12623,12 +12756,12 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>51</v>
       </c>
@@ -12636,12 +12769,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>51</v>
       </c>
@@ -12649,12 +12782,12 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>51</v>
       </c>
@@ -12662,12 +12795,12 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B288" t="s">
         <v>51</v>
       </c>
@@ -12675,12 +12808,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>51</v>
       </c>
@@ -12688,12 +12821,12 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>51</v>
       </c>
@@ -12701,12 +12834,12 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>51</v>
       </c>
@@ -12714,12 +12847,12 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>51</v>
       </c>
@@ -12727,12 +12860,12 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B298" t="s">
         <v>51</v>
       </c>
@@ -12740,12 +12873,12 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>51</v>
       </c>
@@ -12753,12 +12886,12 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>51</v>
       </c>
@@ -12766,12 +12899,12 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>51</v>
       </c>
@@ -12779,12 +12912,12 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>51</v>
       </c>
@@ -12792,12 +12925,12 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>51</v>
       </c>
@@ -12805,12 +12938,12 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>51</v>
       </c>
@@ -12818,12 +12951,12 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B312" t="s">
         <v>51</v>
       </c>
@@ -12831,7 +12964,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -12851,12 +12984,12 @@
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>51</v>
       </c>
@@ -12864,12 +12997,12 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>51</v>
       </c>
@@ -12877,12 +13010,12 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>51</v>
       </c>
@@ -12890,12 +13023,12 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>51</v>
       </c>
@@ -12903,12 +13036,12 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>51</v>
       </c>
@@ -12916,17 +13049,35 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>51</v>
       </c>
       <c r="C327" t="s">
         <v>1530</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B329" t="s">
+        <v>51</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="1" t="s">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -12938,15 +13089,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X474"/>
+  <dimension ref="A1:X478"/>
   <sheetViews>
-    <sheetView topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="B479" sqref="B479"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -12954,62 +13105,62 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>124</v>
@@ -13022,7 +13173,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>123</v>
@@ -13035,7 +13186,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>122</v>
@@ -13048,7 +13199,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>121</v>
       </c>
@@ -13061,927 +13212,927 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -14007,1147 +14158,1147 @@
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B216" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B217" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B218" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B219" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B220" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B221" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B224" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B225" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B229" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B234" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B236" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B251" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B252" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B253" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B259" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B261" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B263" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B265" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B267" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B268" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B269" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B270" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B271" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B273" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B274" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B275" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B276" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B277" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B279" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B280" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B281" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B282" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B283" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B284" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B285" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B286" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B287" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B289" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B290" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B291" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B292" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B294" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B295" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B296" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B297" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B299" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B300" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B301" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B302" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B304" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B306" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B307" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B308" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B309" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B310" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B311" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B313" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B314" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B328" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B329" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B331" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B332" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B333" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B334" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B336" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B338" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B339" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B340" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B347" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B348" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B349" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B350" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B352" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B354" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B356" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B357" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B358" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B359" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B361" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B362" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B363" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B365" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B366" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B368" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B369" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B370" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B372" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B373" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B374" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B375" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B377" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B378" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B381" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B382" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B384" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B385" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B386" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B387" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B388" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B390" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B391" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B392" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B393" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B394" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B395" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B396" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B398" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B399" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B400" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B401" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B402" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B403" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B404" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B405" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B406" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B407" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B409" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B410" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B411" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B412" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B413" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B414" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B416" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B417" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B418" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B419" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B420" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B421" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B422" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B423" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B424" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B426" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B427" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B428" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B429" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B430" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B431" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -15171,209 +15322,229 @@
       <c r="U432" s="5"/>
       <c r="V432" s="5"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B435" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B436" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B437" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B438" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B439" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B441" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B442" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B443" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B444" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B445" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B446" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B448" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B449" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B450" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B452" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B453" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B454" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B455" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B456" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B457" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B459" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B460" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B461" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B462" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B463" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B464" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B465" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B466" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B468" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B469" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B470" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B471" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B472" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B473" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>1538</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B475" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B476" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B477" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A478" s="1" t="s">
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -15385,15 +15556,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V140"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -15401,307 +15572,307 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -15725,317 +15896,317 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -16054,64 +16225,79 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
         <v>1531</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -16129,29 +16315,29 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>1243</v>
       </c>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076EDE8-17C9-4A96-8CE3-9CB12177F301}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230644F6-9C4F-471B-B5E3-806DB11B662D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1573">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6265,6 +6265,38 @@
   </si>
   <si>
     <t>08.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半夜买的，好渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好贵啊这！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6670,24 +6702,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P435"/>
+  <dimension ref="A1:P438"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="D438" sqref="D438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -6695,7 +6727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -6732,7 +6764,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -6752,7 +6784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -6763,7 +6795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -6780,7 +6812,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -6800,7 +6832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -6811,7 +6843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -6822,7 +6854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -6833,7 +6865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
@@ -6841,7 +6873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -6858,7 +6890,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -6878,7 +6910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -6889,7 +6921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -6900,7 +6932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -6911,7 +6943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -6922,7 +6954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -6933,7 +6965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,7 +6982,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>85</v>
       </c>
@@ -6970,7 +7002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>90</v>
       </c>
@@ -6981,7 +7013,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -6989,7 +7021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -6997,7 +7029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>97</v>
       </c>
@@ -7005,7 +7037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -7022,7 +7054,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>114</v>
       </c>
@@ -7042,7 +7074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>116</v>
       </c>
@@ -7053,7 +7085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -7070,7 +7102,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>134</v>
       </c>
@@ -7090,7 +7122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>142</v>
       </c>
@@ -7098,7 +7130,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>136</v>
       </c>
@@ -7109,7 +7141,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>139</v>
       </c>
@@ -7120,7 +7152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>142</v>
       </c>
@@ -7131,7 +7163,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
@@ -7148,7 +7180,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>163</v>
       </c>
@@ -7168,7 +7200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>166</v>
       </c>
@@ -7179,7 +7211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>169</v>
       </c>
@@ -7190,7 +7222,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>172</v>
       </c>
@@ -7198,7 +7230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>174</v>
       </c>
@@ -7206,7 +7238,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>192</v>
       </c>
@@ -7223,7 +7255,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>193</v>
       </c>
@@ -7243,7 +7275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>197</v>
       </c>
@@ -7254,7 +7286,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>198</v>
       </c>
@@ -7265,7 +7297,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>269</v>
       </c>
@@ -7276,7 +7308,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>202</v>
       </c>
@@ -7293,7 +7325,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>218</v>
       </c>
@@ -7307,7 +7339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
@@ -7324,7 +7356,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>193</v>
       </c>
@@ -7344,7 +7376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>204</v>
       </c>
@@ -7355,7 +7387,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>213</v>
       </c>
@@ -7366,7 +7398,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>210</v>
       </c>
@@ -7377,7 +7409,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>207</v>
       </c>
@@ -7388,7 +7420,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>217</v>
       </c>
@@ -7405,7 +7437,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>270</v>
       </c>
@@ -7422,7 +7454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>275</v>
       </c>
@@ -7433,7 +7465,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>273</v>
       </c>
@@ -7444,7 +7476,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>277</v>
       </c>
@@ -7455,7 +7487,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>293</v>
       </c>
@@ -7463,7 +7495,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>295</v>
       </c>
@@ -7480,7 +7512,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>270</v>
       </c>
@@ -7500,7 +7532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>297</v>
       </c>
@@ -7511,7 +7543,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>22</v>
       </c>
@@ -7522,7 +7554,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>302</v>
       </c>
@@ -7533,7 +7565,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>305</v>
       </c>
@@ -7541,7 +7573,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>307</v>
       </c>
@@ -7552,7 +7584,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>326</v>
       </c>
@@ -7563,7 +7595,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>347</v>
       </c>
@@ -7580,7 +7612,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>329</v>
       </c>
@@ -7600,7 +7632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>332</v>
       </c>
@@ -7611,7 +7643,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>348</v>
       </c>
@@ -7628,7 +7660,7 @@
         <v>1204.3900000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>349</v>
       </c>
@@ -7648,7 +7680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>351</v>
       </c>
@@ -7665,7 +7697,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>353</v>
       </c>
@@ -7673,7 +7705,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>355</v>
       </c>
@@ -7681,7 +7713,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>357</v>
       </c>
@@ -7692,7 +7724,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>362</v>
       </c>
@@ -7709,7 +7741,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>363</v>
       </c>
@@ -7729,7 +7761,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>380</v>
       </c>
@@ -7740,7 +7772,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>383</v>
       </c>
@@ -7751,7 +7783,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>410</v>
       </c>
@@ -7768,7 +7800,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>411</v>
       </c>
@@ -7776,7 +7808,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>413</v>
       </c>
@@ -7787,7 +7819,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>416</v>
       </c>
@@ -7804,7 +7836,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>417</v>
       </c>
@@ -7812,7 +7844,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>430</v>
       </c>
@@ -7823,7 +7855,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>420</v>
       </c>
@@ -7834,7 +7866,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>423</v>
       </c>
@@ -7845,7 +7877,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>426</v>
       </c>
@@ -7856,7 +7888,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>431</v>
       </c>
@@ -7873,7 +7905,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>460</v>
       </c>
@@ -7884,7 +7916,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>462</v>
       </c>
@@ -7895,7 +7927,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>468</v>
       </c>
@@ -7906,7 +7938,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>466</v>
       </c>
@@ -7914,7 +7946,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>471</v>
       </c>
@@ -7931,7 +7963,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>487</v>
       </c>
@@ -7942,7 +7974,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>489</v>
       </c>
@@ -7953,7 +7985,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>492</v>
       </c>
@@ -7961,7 +7993,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>509</v>
       </c>
@@ -7978,7 +8010,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>510</v>
       </c>
@@ -7989,7 +8021,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>513</v>
       </c>
@@ -8000,7 +8032,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>516</v>
       </c>
@@ -8011,7 +8043,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>513</v>
       </c>
@@ -8022,7 +8054,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>521</v>
       </c>
@@ -8033,7 +8065,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>544</v>
       </c>
@@ -8050,7 +8082,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>545</v>
       </c>
@@ -8061,7 +8093,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>548</v>
       </c>
@@ -8072,7 +8104,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>551</v>
       </c>
@@ -8083,7 +8115,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>553</v>
       </c>
@@ -8091,7 +8123,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>556</v>
       </c>
@@ -8108,7 +8140,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>557</v>
       </c>
@@ -8119,7 +8151,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>560</v>
       </c>
@@ -8136,7 +8168,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>585</v>
       </c>
@@ -8147,7 +8179,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>604</v>
       </c>
@@ -8164,7 +8196,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>605</v>
       </c>
@@ -8175,7 +8207,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>608</v>
       </c>
@@ -8183,7 +8215,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>610</v>
       </c>
@@ -8191,7 +8223,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>612</v>
       </c>
@@ -8202,7 +8234,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>615</v>
       </c>
@@ -8219,7 +8251,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>605</v>
       </c>
@@ -8227,7 +8259,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>612</v>
       </c>
@@ -8238,7 +8270,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>618</v>
       </c>
@@ -8246,7 +8278,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>620</v>
       </c>
@@ -8254,7 +8286,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>621</v>
       </c>
@@ -8262,7 +8294,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>624</v>
       </c>
@@ -8279,7 +8311,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>661</v>
       </c>
@@ -8290,7 +8322,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>661</v>
       </c>
@@ -8301,7 +8333,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>661</v>
       </c>
@@ -8312,7 +8344,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>665</v>
       </c>
@@ -8329,7 +8361,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>661</v>
       </c>
@@ -8340,7 +8372,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>667</v>
       </c>
@@ -8351,7 +8383,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>669</v>
       </c>
@@ -8359,7 +8391,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>670</v>
       </c>
@@ -8367,7 +8399,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>671</v>
       </c>
@@ -8375,7 +8407,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>672</v>
       </c>
@@ -8383,7 +8415,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>674</v>
       </c>
@@ -8391,7 +8423,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>706</v>
       </c>
@@ -8408,7 +8440,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>707</v>
       </c>
@@ -8419,7 +8451,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>710</v>
       </c>
@@ -8427,7 +8459,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>712</v>
       </c>
@@ -8438,7 +8470,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>715</v>
       </c>
@@ -8446,7 +8478,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>717</v>
       </c>
@@ -8454,7 +8486,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>719</v>
       </c>
@@ -8462,7 +8494,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>721</v>
       </c>
@@ -8470,7 +8502,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>743</v>
       </c>
@@ -8487,7 +8519,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>744</v>
       </c>
@@ -8498,7 +8530,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>747</v>
       </c>
@@ -8506,7 +8538,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>749</v>
       </c>
@@ -8523,7 +8555,7 @@
         <v>2204.39</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>750</v>
       </c>
@@ -8531,7 +8563,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>752</v>
       </c>
@@ -8539,7 +8571,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>754</v>
       </c>
@@ -8547,7 +8579,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8565,7 +8597,7 @@
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>783</v>
       </c>
@@ -8582,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>784</v>
       </c>
@@ -8590,7 +8622,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>786</v>
       </c>
@@ -8598,7 +8630,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>800</v>
       </c>
@@ -8606,7 +8638,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>788</v>
       </c>
@@ -8617,7 +8649,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>791</v>
       </c>
@@ -8625,7 +8657,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>793</v>
       </c>
@@ -8642,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>794</v>
       </c>
@@ -8650,7 +8682,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>796</v>
       </c>
@@ -8658,7 +8690,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>798</v>
       </c>
@@ -8666,7 +8698,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>802</v>
       </c>
@@ -8677,7 +8709,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>805</v>
       </c>
@@ -8688,7 +8720,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>807</v>
       </c>
@@ -8699,7 +8731,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>898</v>
       </c>
@@ -8716,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>841</v>
       </c>
@@ -8727,7 +8759,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>844</v>
       </c>
@@ -8738,7 +8770,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>847</v>
       </c>
@@ -8749,7 +8781,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>850</v>
       </c>
@@ -8757,7 +8789,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>852</v>
       </c>
@@ -8765,7 +8797,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>854</v>
       </c>
@@ -8773,7 +8805,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>900</v>
       </c>
@@ -8790,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>856</v>
       </c>
@@ -8801,7 +8833,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>859</v>
       </c>
@@ -8809,7 +8841,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>861</v>
       </c>
@@ -8817,7 +8849,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>863</v>
       </c>
@@ -8825,7 +8857,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>852</v>
       </c>
@@ -8833,7 +8865,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>865</v>
       </c>
@@ -8844,7 +8876,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>899</v>
       </c>
@@ -8861,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>901</v>
       </c>
@@ -8872,7 +8904,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>901</v>
       </c>
@@ -8883,7 +8915,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>905</v>
       </c>
@@ -8900,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>901</v>
       </c>
@@ -8911,7 +8943,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>908</v>
       </c>
@@ -8922,7 +8954,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>911</v>
       </c>
@@ -8933,7 +8965,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>901</v>
       </c>
@@ -8944,7 +8976,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>916</v>
       </c>
@@ -8952,7 +8984,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>918</v>
       </c>
@@ -8960,7 +8992,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>952</v>
       </c>
@@ -8977,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>953</v>
       </c>
@@ -8985,7 +9017,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>955</v>
       </c>
@@ -8993,7 +9025,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>957</v>
       </c>
@@ -9001,12 +9033,12 @@
         <v>958</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>960</v>
       </c>
@@ -9026,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>962</v>
       </c>
@@ -9034,7 +9066,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>964</v>
       </c>
@@ -9042,7 +9074,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>953</v>
       </c>
@@ -9050,7 +9082,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>965</v>
       </c>
@@ -9058,7 +9090,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>988</v>
       </c>
@@ -9075,7 +9107,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>992</v>
       </c>
@@ -9092,7 +9124,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>1001</v>
       </c>
@@ -9100,7 +9132,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>1000</v>
       </c>
@@ -9108,7 +9140,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>999</v>
       </c>
@@ -9116,7 +9148,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>998</v>
       </c>
@@ -9124,7 +9156,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>1011</v>
       </c>
@@ -9132,7 +9164,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1002</v>
       </c>
@@ -9149,7 +9181,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>992</v>
       </c>
@@ -9157,7 +9189,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>1007</v>
       </c>
@@ -9165,7 +9197,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>1000</v>
       </c>
@@ -9173,7 +9205,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>999</v>
       </c>
@@ -9181,7 +9213,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>1006</v>
       </c>
@@ -9189,7 +9221,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1032</v>
       </c>
@@ -9203,7 +9235,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>1033</v>
       </c>
@@ -9211,7 +9243,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>1036</v>
       </c>
@@ -9219,7 +9251,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1043</v>
       </c>
@@ -9233,7 +9265,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>1044</v>
       </c>
@@ -9241,7 +9273,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>1045</v>
       </c>
@@ -9249,7 +9281,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>1046</v>
       </c>
@@ -9257,7 +9289,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>1047</v>
       </c>
@@ -9265,12 +9297,12 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>1072</v>
       </c>
@@ -9287,7 +9319,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>1074</v>
       </c>
@@ -9295,7 +9327,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1069</v>
       </c>
@@ -9309,7 +9341,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>1073</v>
       </c>
@@ -9317,7 +9349,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>1072</v>
       </c>
@@ -9325,7 +9357,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1094</v>
       </c>
@@ -9339,7 +9371,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>1099</v>
       </c>
@@ -9347,7 +9379,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>1100</v>
       </c>
@@ -9355,7 +9387,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>1099</v>
       </c>
@@ -9363,7 +9395,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>1101</v>
       </c>
@@ -9371,7 +9403,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>1102</v>
       </c>
@@ -9379,7 +9411,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1103</v>
       </c>
@@ -9393,7 +9425,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>1108</v>
       </c>
@@ -9401,7 +9433,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>1100</v>
       </c>
@@ -9409,7 +9441,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>1099</v>
       </c>
@@ -9417,7 +9449,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>1101</v>
       </c>
@@ -9425,7 +9457,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>1109</v>
       </c>
@@ -9433,7 +9465,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1128</v>
       </c>
@@ -9447,7 +9479,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>1140</v>
       </c>
@@ -9455,7 +9487,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>1141</v>
       </c>
@@ -9463,7 +9495,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>1142</v>
       </c>
@@ -9471,7 +9503,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>1143</v>
       </c>
@@ -9479,7 +9511,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>1144</v>
       </c>
@@ -9487,7 +9519,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>1145</v>
       </c>
@@ -9495,7 +9527,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1139</v>
       </c>
@@ -9509,7 +9541,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>1140</v>
       </c>
@@ -9517,7 +9549,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>1146</v>
       </c>
@@ -9525,7 +9557,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>1142</v>
       </c>
@@ -9533,7 +9565,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>1144</v>
       </c>
@@ -9541,7 +9573,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>1147</v>
       </c>
@@ -9549,7 +9581,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9563,7 +9595,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>1175</v>
       </c>
@@ -9571,7 +9603,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>1180</v>
       </c>
@@ -9579,7 +9611,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>1179</v>
       </c>
@@ -9587,7 +9619,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>1177</v>
       </c>
@@ -9598,7 +9630,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E305" s="2">
         <v>2</v>
       </c>
@@ -9609,12 +9641,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>1175</v>
       </c>
@@ -9625,7 +9657,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1201</v>
       </c>
@@ -9639,7 +9671,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>1202</v>
       </c>
@@ -9647,7 +9679,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>1203</v>
       </c>
@@ -9658,7 +9690,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>1204</v>
       </c>
@@ -9666,7 +9698,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1221</v>
       </c>
@@ -9680,7 +9712,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>1226</v>
       </c>
@@ -9688,7 +9720,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>1227</v>
       </c>
@@ -9699,7 +9731,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>1229</v>
       </c>
@@ -9710,7 +9742,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>1232</v>
       </c>
@@ -9721,10 +9753,10 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1260</v>
       </c>
@@ -9738,7 +9770,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>1266</v>
       </c>
@@ -9746,7 +9778,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>1267</v>
       </c>
@@ -9754,7 +9786,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>1268</v>
       </c>
@@ -9762,7 +9794,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>1269</v>
       </c>
@@ -9770,7 +9802,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>1270</v>
       </c>
@@ -9778,7 +9810,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>1271</v>
       </c>
@@ -9786,7 +9818,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>1280</v>
       </c>
@@ -9797,7 +9829,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>1282</v>
       </c>
@@ -9811,7 +9843,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>667</v>
       </c>
@@ -9819,7 +9851,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>163</v>
       </c>
@@ -9827,7 +9859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>22</v>
       </c>
@@ -9835,7 +9867,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>672</v>
       </c>
@@ -9843,7 +9875,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>918</v>
       </c>
@@ -9851,7 +9883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>1295</v>
       </c>
@@ -9865,7 +9897,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>667</v>
       </c>
@@ -9873,7 +9905,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>163</v>
       </c>
@@ -9881,7 +9913,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>22</v>
       </c>
@@ -9889,7 +9921,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>1303</v>
       </c>
@@ -9897,7 +9929,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>1302</v>
       </c>
@@ -9905,7 +9937,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>1312</v>
       </c>
@@ -9919,7 +9951,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>667</v>
       </c>
@@ -9927,7 +9959,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>163</v>
       </c>
@@ -9935,7 +9967,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>22</v>
       </c>
@@ -9943,7 +9975,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>1303</v>
       </c>
@@ -9954,7 +9986,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>918</v>
       </c>
@@ -9962,7 +9994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>1313</v>
       </c>
@@ -9976,7 +10008,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>1324</v>
       </c>
@@ -9984,7 +10016,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>1323</v>
       </c>
@@ -9992,7 +10024,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>1321</v>
       </c>
@@ -10000,7 +10032,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>1320</v>
       </c>
@@ -10008,7 +10040,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>1319</v>
       </c>
@@ -10019,7 +10051,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>1326</v>
       </c>
@@ -10033,7 +10065,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>1324</v>
       </c>
@@ -10041,7 +10073,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>1329</v>
       </c>
@@ -10052,7 +10084,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1331</v>
       </c>
@@ -10066,7 +10098,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>1363</v>
       </c>
@@ -10074,7 +10106,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>1364</v>
       </c>
@@ -10082,7 +10114,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>1365</v>
       </c>
@@ -10090,7 +10122,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>1377</v>
       </c>
@@ -10104,7 +10136,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>1378</v>
       </c>
@@ -10112,7 +10144,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>1379</v>
       </c>
@@ -10120,7 +10152,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>1380</v>
       </c>
@@ -10128,7 +10160,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>1381</v>
       </c>
@@ -10139,7 +10171,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>1386</v>
       </c>
@@ -10147,7 +10179,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1389</v>
       </c>
@@ -10161,7 +10193,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>1390</v>
       </c>
@@ -10169,7 +10201,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>1392</v>
       </c>
@@ -10180,7 +10212,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>1409</v>
       </c>
@@ -10188,7 +10220,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>1411</v>
       </c>
@@ -10196,7 +10228,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10213,7 +10245,7 @@
       <c r="N379" s="5"/>
       <c r="O379" s="5"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>1426</v>
       </c>
@@ -10227,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>1413</v>
       </c>
@@ -10235,7 +10267,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>1414</v>
       </c>
@@ -10243,7 +10275,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>1427</v>
       </c>
@@ -10251,7 +10283,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>1429</v>
       </c>
@@ -10259,7 +10291,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>1439</v>
       </c>
@@ -10273,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>1440</v>
       </c>
@@ -10281,7 +10313,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>1441</v>
       </c>
@@ -10289,7 +10321,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>1444</v>
       </c>
@@ -10297,7 +10329,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>1445</v>
       </c>
@@ -10305,7 +10337,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1458</v>
       </c>
@@ -10319,12 +10351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B394" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1460</v>
       </c>
@@ -10338,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>1475</v>
       </c>
@@ -10349,7 +10381,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1477</v>
       </c>
@@ -10360,7 +10392,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1479</v>
       </c>
@@ -10371,7 +10403,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1480</v>
       </c>
@@ -10379,7 +10411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>1482</v>
       </c>
@@ -10387,7 +10419,7 @@
         <v>123.9</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>1483</v>
       </c>
@@ -10395,7 +10427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>1484</v>
       </c>
@@ -10406,7 +10438,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>1486</v>
       </c>
@@ -10420,7 +10452,7 @@
         <v>6553.13</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>1487</v>
       </c>
@@ -10428,7 +10460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>1488</v>
       </c>
@@ -10436,7 +10468,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>1490</v>
       </c>
@@ -10444,7 +10476,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>1492</v>
       </c>
@@ -10455,7 +10487,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>1494</v>
       </c>
@@ -10463,7 +10495,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>1508</v>
       </c>
@@ -10477,7 +10509,7 @@
         <v>6553.13</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>1518</v>
       </c>
@@ -10488,7 +10520,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>1520</v>
       </c>
@@ -10496,7 +10528,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>1521</v>
       </c>
@@ -10504,7 +10536,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>1522</v>
       </c>
@@ -10512,7 +10544,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>1523</v>
       </c>
@@ -10520,7 +10552,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>1524</v>
       </c>
@@ -10531,7 +10563,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>1526</v>
       </c>
@@ -10539,7 +10571,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>1527</v>
       </c>
@@ -10547,7 +10579,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>1528</v>
       </c>
@@ -10555,7 +10587,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>1529</v>
       </c>
@@ -10563,7 +10595,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1539</v>
       </c>
@@ -10577,7 +10609,7 @@
         <v>6553.13</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>1540</v>
       </c>
@@ -10585,7 +10617,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>1541</v>
       </c>
@@ -10593,7 +10625,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>1544</v>
       </c>
@@ -10601,7 +10633,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>1545</v>
       </c>
@@ -10609,7 +10641,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>1548</v>
       </c>
@@ -10617,7 +10649,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>1550</v>
       </c>
@@ -10625,7 +10657,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>1552</v>
       </c>
@@ -10633,7 +10665,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>1554</v>
       </c>
@@ -10641,7 +10673,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>1556</v>
       </c>
@@ -10649,9 +10681,39 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1558</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B438" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1572</v>
       </c>
     </row>
   </sheetData>
@@ -10669,9 +10731,9 @@
       <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -10679,12 +10741,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -10692,7 +10754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -10700,7 +10762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>49</v>
       </c>
@@ -10708,7 +10770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -10716,7 +10778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -10724,7 +10786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -10732,12 +10794,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -10745,7 +10807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -10753,7 +10815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>49</v>
       </c>
@@ -10761,7 +10823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -10769,7 +10831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -10777,7 +10839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -10785,12 +10847,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -10798,7 +10860,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>47</v>
       </c>
@@ -10806,7 +10868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -10814,7 +10876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>51</v>
       </c>
@@ -10822,7 +10884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -10830,7 +10892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -10838,12 +10900,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -10851,7 +10913,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -10859,7 +10921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -10867,7 +10929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -10875,7 +10937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>53</v>
       </c>
@@ -10883,7 +10945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -10891,12 +10953,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>132</v>
@@ -10910,7 +10972,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>130</v>
@@ -10924,7 +10986,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>128</v>
@@ -10938,7 +11000,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>126</v>
@@ -10952,12 +11014,12 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
@@ -10971,7 +11033,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>149</v>
@@ -10985,7 +11047,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" t="s">
         <v>151</v>
@@ -10997,7 +11059,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>53</v>
@@ -11011,7 +11073,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
@@ -11020,12 +11082,12 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>177</v>
       </c>
@@ -11033,7 +11095,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>179</v>
       </c>
@@ -11041,7 +11103,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>181</v>
       </c>
@@ -11049,7 +11111,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>183</v>
       </c>
@@ -11057,7 +11119,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>53</v>
       </c>
@@ -11066,7 +11128,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
@@ -11075,12 +11137,12 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>45</v>
       </c>
@@ -11088,7 +11150,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>149</v>
       </c>
@@ -11096,12 +11158,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>51</v>
       </c>
@@ -11109,7 +11171,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
@@ -11118,7 +11180,7 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>55</v>
       </c>
@@ -11127,12 +11189,12 @@
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>45</v>
       </c>
@@ -11140,7 +11202,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>149</v>
       </c>
@@ -11148,7 +11210,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -11156,7 +11218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>51</v>
       </c>
@@ -11164,7 +11226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>53</v>
       </c>
@@ -11173,7 +11235,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>55</v>
       </c>
@@ -11182,12 +11244,12 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>45</v>
       </c>
@@ -11195,7 +11257,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>149</v>
       </c>
@@ -11203,7 +11265,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>47</v>
       </c>
@@ -11211,7 +11273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>51</v>
       </c>
@@ -11219,7 +11281,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>53</v>
       </c>
@@ -11228,7 +11290,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>55</v>
       </c>
@@ -11237,12 +11299,12 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>149</v>
       </c>
@@ -11250,7 +11312,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>47</v>
       </c>
@@ -11258,7 +11320,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>51</v>
       </c>
@@ -11266,7 +11328,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>53</v>
       </c>
@@ -11275,7 +11337,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>55</v>
       </c>
@@ -11284,12 +11346,12 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>311</v>
       </c>
@@ -11297,7 +11359,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>313</v>
       </c>
@@ -11305,7 +11367,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>51</v>
       </c>
@@ -11313,7 +11375,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>53</v>
       </c>
@@ -11322,7 +11384,7 @@
       </c>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>55</v>
       </c>
@@ -11331,12 +11393,12 @@
       </c>
       <c r="D91" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>45</v>
       </c>
@@ -11344,7 +11406,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>47</v>
       </c>
@@ -11352,7 +11414,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>51</v>
       </c>
@@ -11360,7 +11422,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>53</v>
       </c>
@@ -11369,7 +11431,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -11378,12 +11440,12 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>45</v>
       </c>
@@ -11391,7 +11453,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>47</v>
       </c>
@@ -11399,7 +11461,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>51</v>
       </c>
@@ -11407,7 +11469,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>53</v>
       </c>
@@ -11416,7 +11478,7 @@
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>55</v>
       </c>
@@ -11425,12 +11487,12 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>387</v>
       </c>
@@ -11438,7 +11500,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>389</v>
       </c>
@@ -11446,7 +11508,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>391</v>
       </c>
@@ -11454,7 +11516,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>392</v>
       </c>
@@ -11462,7 +11524,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>51</v>
       </c>
@@ -11470,7 +11532,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>53</v>
       </c>
@@ -11479,7 +11541,7 @@
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
         <v>55</v>
       </c>
@@ -11488,12 +11550,12 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>45</v>
       </c>
@@ -11501,7 +11563,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>149</v>
       </c>
@@ -11509,7 +11571,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>47</v>
       </c>
@@ -11517,7 +11579,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>51</v>
       </c>
@@ -11525,7 +11587,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
         <v>53</v>
       </c>
@@ -11534,7 +11596,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
         <v>55</v>
       </c>
@@ -11543,12 +11605,12 @@
       </c>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>45</v>
       </c>
@@ -11556,7 +11618,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>149</v>
       </c>
@@ -11564,7 +11626,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>47</v>
       </c>
@@ -11572,7 +11634,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>51</v>
       </c>
@@ -11580,7 +11642,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>53</v>
       </c>
@@ -11589,7 +11651,7 @@
       </c>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>55</v>
       </c>
@@ -11598,12 +11660,12 @@
       </c>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>45</v>
       </c>
@@ -11611,7 +11673,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>149</v>
       </c>
@@ -11619,7 +11681,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>47</v>
       </c>
@@ -11627,7 +11689,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>51</v>
       </c>
@@ -11635,7 +11697,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
         <v>53</v>
       </c>
@@ -11644,7 +11706,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
         <v>55</v>
       </c>
@@ -11653,12 +11715,12 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>494</v>
       </c>
@@ -11666,7 +11728,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>496</v>
       </c>
@@ -11674,7 +11736,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>498</v>
       </c>
@@ -11682,7 +11744,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>51</v>
       </c>
@@ -11690,7 +11752,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>53</v>
       </c>
@@ -11699,7 +11761,7 @@
       </c>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
         <v>55</v>
       </c>
@@ -11708,12 +11770,12 @@
       </c>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>528</v>
       </c>
@@ -11721,7 +11783,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>530</v>
       </c>
@@ -11729,7 +11791,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>532</v>
       </c>
@@ -11737,7 +11799,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>51</v>
       </c>
@@ -11745,7 +11807,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>53</v>
       </c>
@@ -11754,7 +11816,7 @@
       </c>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
         <v>55</v>
       </c>
@@ -11763,12 +11825,12 @@
       </c>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>45</v>
       </c>
@@ -11776,7 +11838,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>47</v>
       </c>
@@ -11784,7 +11846,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>49</v>
       </c>
@@ -11792,7 +11854,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>51</v>
       </c>
@@ -11800,7 +11862,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
         <v>53</v>
       </c>
@@ -11809,7 +11871,7 @@
       </c>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" s="3" t="s">
         <v>55</v>
       </c>
@@ -11818,12 +11880,12 @@
       </c>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>45</v>
       </c>
@@ -11831,7 +11893,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>47</v>
       </c>
@@ -11839,7 +11901,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>49</v>
       </c>
@@ -11847,7 +11909,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>51</v>
       </c>
@@ -11855,7 +11917,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
         <v>53</v>
       </c>
@@ -11864,7 +11926,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
         <v>55</v>
       </c>
@@ -11873,12 +11935,12 @@
       </c>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>590</v>
       </c>
@@ -11886,7 +11948,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>592</v>
       </c>
@@ -11894,7 +11956,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>594</v>
       </c>
@@ -11902,7 +11964,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>596</v>
       </c>
@@ -11910,7 +11972,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>597</v>
       </c>
@@ -11918,7 +11980,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>599</v>
       </c>
@@ -11926,12 +11988,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>629</v>
       </c>
@@ -11939,7 +12001,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>631</v>
       </c>
@@ -11947,7 +12009,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>633</v>
       </c>
@@ -11955,7 +12017,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>635</v>
       </c>
@@ -11963,7 +12025,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>637</v>
       </c>
@@ -11971,7 +12033,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>639</v>
       </c>
@@ -11979,12 +12041,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>629</v>
       </c>
@@ -11992,7 +12054,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>631</v>
       </c>
@@ -12000,7 +12062,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>633</v>
       </c>
@@ -12008,7 +12070,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>635</v>
       </c>
@@ -12016,7 +12078,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>637</v>
       </c>
@@ -12024,7 +12086,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>639</v>
       </c>
@@ -12032,12 +12094,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>45</v>
       </c>
@@ -12045,7 +12107,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>149</v>
       </c>
@@ -12053,7 +12115,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>47</v>
       </c>
@@ -12061,7 +12123,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>51</v>
       </c>
@@ -12069,7 +12131,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>53</v>
       </c>
@@ -12077,7 +12139,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>55</v>
       </c>
@@ -12085,12 +12147,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>45</v>
       </c>
@@ -12098,7 +12160,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>149</v>
       </c>
@@ -12106,7 +12168,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>47</v>
       </c>
@@ -12114,7 +12176,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>51</v>
       </c>
@@ -12122,7 +12184,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>53</v>
       </c>
@@ -12130,7 +12192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>55</v>
       </c>
@@ -12138,12 +12200,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>45</v>
       </c>
@@ -12151,7 +12213,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>149</v>
       </c>
@@ -12159,7 +12221,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>47</v>
       </c>
@@ -12167,7 +12229,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>51</v>
       </c>
@@ -12175,7 +12237,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>53</v>
       </c>
@@ -12183,7 +12245,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>55</v>
       </c>
@@ -12191,12 +12253,12 @@
         <v>728</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>45</v>
       </c>
@@ -12204,7 +12266,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>149</v>
       </c>
@@ -12212,7 +12274,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>47</v>
       </c>
@@ -12220,7 +12282,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>51</v>
       </c>
@@ -12228,7 +12290,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>53</v>
       </c>
@@ -12236,7 +12298,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>55</v>
       </c>
@@ -12244,12 +12306,12 @@
         <v>760</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>45</v>
       </c>
@@ -12257,7 +12319,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>149</v>
       </c>
@@ -12265,7 +12327,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>47</v>
       </c>
@@ -12273,7 +12335,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>51</v>
       </c>
@@ -12281,7 +12343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>53</v>
       </c>
@@ -12289,7 +12351,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>55</v>
       </c>
@@ -12297,7 +12359,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -12321,12 +12383,12 @@
       <c r="U219" s="5"/>
       <c r="V219" s="5"/>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>45</v>
       </c>
@@ -12334,7 +12396,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>149</v>
       </c>
@@ -12342,7 +12404,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>47</v>
       </c>
@@ -12350,7 +12412,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>51</v>
       </c>
@@ -12358,7 +12420,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>53</v>
       </c>
@@ -12366,7 +12428,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>55</v>
       </c>
@@ -12374,12 +12436,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>45</v>
       </c>
@@ -12387,7 +12449,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>149</v>
       </c>
@@ -12395,7 +12457,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>47</v>
       </c>
@@ -12403,7 +12465,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>51</v>
       </c>
@@ -12411,7 +12473,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>53</v>
       </c>
@@ -12419,7 +12481,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>55</v>
       </c>
@@ -12427,12 +12489,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>45</v>
       </c>
@@ -12440,7 +12502,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>149</v>
       </c>
@@ -12448,7 +12510,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>47</v>
       </c>
@@ -12456,7 +12518,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>51</v>
       </c>
@@ -12464,7 +12526,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>53</v>
       </c>
@@ -12472,7 +12534,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>55</v>
       </c>
@@ -12480,12 +12542,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>45</v>
       </c>
@@ -12493,7 +12555,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>149</v>
       </c>
@@ -12501,7 +12563,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>47</v>
       </c>
@@ -12509,7 +12571,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>51</v>
       </c>
@@ -12517,7 +12579,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>53</v>
       </c>
@@ -12525,7 +12587,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>55</v>
       </c>
@@ -12533,12 +12595,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>45</v>
       </c>
@@ -12546,7 +12608,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>149</v>
       </c>
@@ -12554,7 +12616,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>47</v>
       </c>
@@ -12562,7 +12624,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>51</v>
       </c>
@@ -12570,7 +12632,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>53</v>
       </c>
@@ -12578,7 +12640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>55</v>
       </c>
@@ -12586,12 +12648,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>45</v>
       </c>
@@ -12599,7 +12661,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>149</v>
       </c>
@@ -12607,7 +12669,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>47</v>
       </c>
@@ -12615,7 +12677,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>51</v>
       </c>
@@ -12623,7 +12685,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>53</v>
       </c>
@@ -12631,7 +12693,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>55</v>
       </c>
@@ -12639,12 +12701,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>51</v>
       </c>
@@ -12652,12 +12714,12 @@
         <v>970</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>51</v>
       </c>
@@ -12665,12 +12727,12 @@
         <v>969</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>51</v>
       </c>
@@ -12678,12 +12740,12 @@
         <v>991</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>51</v>
       </c>
@@ -12691,12 +12753,12 @@
         <v>990</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>51</v>
       </c>
@@ -12704,12 +12766,12 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>1054</v>
       </c>
@@ -12717,12 +12779,12 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>51</v>
       </c>
@@ -12730,12 +12792,12 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>51</v>
       </c>
@@ -12743,12 +12805,12 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>51</v>
       </c>
@@ -12756,12 +12818,12 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>51</v>
       </c>
@@ -12769,12 +12831,12 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>51</v>
       </c>
@@ -12782,12 +12844,12 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>51</v>
       </c>
@@ -12795,12 +12857,12 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>51</v>
       </c>
@@ -12808,12 +12870,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>51</v>
       </c>
@@ -12821,12 +12883,12 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>51</v>
       </c>
@@ -12834,12 +12896,12 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>51</v>
       </c>
@@ -12847,12 +12909,12 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>51</v>
       </c>
@@ -12860,12 +12922,12 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>51</v>
       </c>
@@ -12873,12 +12935,12 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>51</v>
       </c>
@@ -12886,12 +12948,12 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>51</v>
       </c>
@@ -12899,12 +12961,12 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>51</v>
       </c>
@@ -12912,12 +12974,12 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>51</v>
       </c>
@@ -12925,12 +12987,12 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>51</v>
       </c>
@@ -12938,12 +13000,12 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>51</v>
       </c>
@@ -12951,12 +13013,12 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>51</v>
       </c>
@@ -12964,7 +13026,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -12984,12 +13046,12 @@
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>51</v>
       </c>
@@ -12997,12 +13059,12 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>51</v>
       </c>
@@ -13010,12 +13072,12 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>51</v>
       </c>
@@ -13023,12 +13085,12 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>51</v>
       </c>
@@ -13036,12 +13098,12 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>51</v>
       </c>
@@ -13049,12 +13111,12 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>51</v>
       </c>
@@ -13062,12 +13124,12 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>51</v>
       </c>
@@ -13075,7 +13137,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1558</v>
       </c>
@@ -13091,13 +13153,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+    <sheetView topLeftCell="A455" workbookViewId="0">
       <selection activeCell="B479" sqref="B479"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -13105,62 +13167,62 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>124</v>
@@ -13173,7 +13235,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>123</v>
@@ -13186,7 +13248,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>122</v>
@@ -13199,7 +13261,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>121</v>
       </c>
@@ -13212,927 +13274,927 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -14158,1147 +14220,1147 @@
       <c r="W202" s="5"/>
       <c r="X202" s="5"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -15322,227 +15384,227 @@
       <c r="U432" s="5"/>
       <c r="V432" s="5"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B469" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B472" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B475" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1564</v>
       </c>
@@ -15562,9 +15624,9 @@
       <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
@@ -15572,307 +15634,307 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -15896,317 +15958,317 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -16225,77 +16287,77 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1558</v>
       </c>
@@ -16315,29 +16377,29 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2019.06</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1243</v>
       </c>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230644F6-9C4F-471B-B5E3-806DB11B662D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101761C9-845C-4ADA-90EE-29F2E9407093}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1575">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6297,6 +6297,14 @@
   </si>
   <si>
     <t>好贵啊这！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.8'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6702,10 +6710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P438"/>
+  <dimension ref="A1:P439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="D438" sqref="D438"/>
+      <selection activeCell="C444" sqref="C444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10714,6 +10722,14 @@
       </c>
       <c r="D438" t="s">
         <v>1572</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B439" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1574</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1139C7-8CC4-4C71-A9EC-A3D9C3C90227}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC046A1F-812D-454D-AB08-A96B0A398039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1620">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6413,6 +6413,78 @@
   </si>
   <si>
     <t>我好想苗宝宝！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为15.09km，共21129步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道为什么，今天是出奇的平静，虽然我的脑海中充满了思念！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上和倪旻碰了头，他给了我一个gitlab账号，让我把代码传到公司官网上，好吧，我仔细想想，我需要写接口写文档!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和部门的人去吃饭了!好尴尬的说，全程尬聊我只能听听小小，低下头来闷声吃东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐姐把收货地址写错了，今天走了好多冤枉路还是没找到位置，好尴尬，下雨了明天再说吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频到很晚，他问我有没有去天津，我不知道该怎么和他说，我好想她，但是我现在不能去找她，我好欠啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买的洗手液写错了地址，只能送给霞姐了，让她取了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和嗨嗨玩游戏，实在是玩不动啊，我该怎么办？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6818,10 +6890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P448"/>
+  <dimension ref="A1:P454"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449"/>
+      <selection activeCell="B455" sqref="B455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6833,6 +6905,7 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -10915,6 +10988,52 @@
       <c r="A448" s="1" t="s">
         <v>1591</v>
       </c>
+      <c r="E448" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J448">
+        <v>3197</v>
+      </c>
+      <c r="K448">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B449" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B450" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B451" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B452" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A454" s="1" t="s">
+        <v>1613</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10925,10 +11044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V331"/>
+  <dimension ref="A1:V334"/>
   <sheetViews>
     <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="G335" sqref="G335"/>
+      <selection activeCell="B337" sqref="B337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13350,6 +13469,24 @@
         <v>1592</v>
       </c>
     </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B333" t="s">
+        <v>51</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13359,10 +13496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X487"/>
+  <dimension ref="A1:X494"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="B488" sqref="B488"/>
+      <selection activeCell="A494" sqref="A494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15862,6 +15999,41 @@
         <v>1591</v>
       </c>
     </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B488" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B489" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B490" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B491" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B492" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B493" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A494" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15871,10 +16043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16620,6 +16792,21 @@
         <v>1593</v>
       </c>
     </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC046A1F-812D-454D-AB08-A96B0A398039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADD50AF-EAD0-49F4-9748-2AB6ED442BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="1720">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6485,6 +6485,406 @@
   </si>
   <si>
     <t>晚上和嗨嗨玩游戏，实在是玩不动啊，我该怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子姜、蒜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香皂、肥皂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用货品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-34.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高粱酒、牙膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋、保鲜膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-17.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂钩、床单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-39'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.15km，共18413步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道为什么，苗宝宝今天没有动，真的担心她出什么意外，哇。。。。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借达哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未入账！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天妈妈说她手机坏了，返回键不能用，说的要给她买一个，好吧!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去了国兴电子旁边的菜市场，吃了个羊杂面，然后去旁边的大超市逛了一下，是真的贵啊那！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午买了酒，我想我要做泡菜，泡姜酒了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上做了炒豆芽，还是自己做的好吃啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上达哥借了我一千块钱，说的十五号还我，好吧我知道了!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想好想苗宝宝，想要让她在我跟前，和她一期生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-91.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿瓜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴客隆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为11.52km，共16142步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝今天有没有动，这到底是怎么了啊这！我好想她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上被一泡屎给憋醒了，我也不知道为什么，现在那么早就自然醒了。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天快递给我打电弧让我取快递，我听错了，让人家打了第二次，好羞愧，是胡椒粉回来了!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去秦鑫那里了。我想看一下秦鑫是如何变成秦的，哈哈哈哈哈哈，想给他买点羊杂补一补，结果人家没有了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上吃了点秦鑫买的西瓜，结果拉肚子了，以后立秋后再也不吃西瓜了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频了，真的心疼他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给飞虎的生日礼物买好了，一箱火腿几大包瓜子！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和蓓蕾聊天，聊得好开心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡椒粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香薰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指甲钳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘子碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-28.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14.98'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不锈钢盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临摹纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上苗宝宝不太舒服，我好担心她啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上坐公交挺顺利的，希望天天如此，就是昨晚没有睡好，早上好没有精神！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在最喜欢中午吃完饭去野湖边转上一圈，爽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转的时候好想苗宝宝啊。我到底该怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午倪旻把我和大哥叫过去谈话，光头哥也过来了，光头哥满口的英伦腔，原来他叫齐梓辰，哈哈哈哈，这个名字笑死我了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午传代码好烦人啊，太多了传不上去，只能分开来传，好烦人啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上看见盘子破了两个，店家同意补发两个，好吧我接受!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上自己做了饭，我想，这可能就是生活吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.21km，共18501步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6890,10 +7290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P454"/>
+  <dimension ref="A1:P493"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="B455" sqref="B455"/>
+    <sheetView topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="K481" sqref="K481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10998,7 +11398,7 @@
         <v>6553.13</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B449" t="s">
         <v>1603</v>
       </c>
@@ -11006,7 +11406,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B450" t="s">
         <v>1605</v>
       </c>
@@ -11014,7 +11414,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B451" t="s">
         <v>1606</v>
       </c>
@@ -11022,7 +11422,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B452" t="s">
         <v>1607</v>
       </c>
@@ -11030,9 +11430,330 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>1613</v>
+      </c>
+      <c r="E454" s="2">
+        <v>127.3</v>
+      </c>
+      <c r="J454">
+        <v>3324.3</v>
+      </c>
+      <c r="K454">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B455" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B456" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B457" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B458" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B459" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B460" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B461" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B462" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B463" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B464" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B465" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E467" s="2">
+        <v>137.9</v>
+      </c>
+      <c r="J467">
+        <v>3462.2</v>
+      </c>
+      <c r="K467">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B468" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B469" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B470" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B471" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B472" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B473" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B474" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E476" s="2">
+        <v>149.35</v>
+      </c>
+      <c r="J476">
+        <v>3611.55</v>
+      </c>
+      <c r="K476">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B477" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B478" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B479" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B480" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B481" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B482" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B483" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B484" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B485" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B486" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B487" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B488" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B489" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B490" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B491" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A493" s="1" t="s">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
@@ -11044,10 +11765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V334"/>
+  <dimension ref="A1:V339"/>
   <sheetViews>
-    <sheetView topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13487,6 +14208,40 @@
         <v>1613</v>
       </c>
     </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B335" t="s">
+        <v>51</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B337" t="s">
+        <v>51</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B339" t="s">
+        <v>51</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1719</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13496,10 +14251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X494"/>
+  <dimension ref="A1:X517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A494" sqref="A494"/>
+    <sheetView topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="A518" sqref="A518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16034,6 +16789,121 @@
         <v>1613</v>
       </c>
     </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B495" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B496" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B497" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B498" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B499" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B500" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A501" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B502" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B503" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B504" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B505" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B506" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B507" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B508" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A509" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B510" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B511" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B512" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B513" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B514" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B515" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B516" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A517" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16043,10 +16913,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V147"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16807,6 +17677,36 @@
         <v>1613</v>
       </c>
     </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B150" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B333A0-71B3-4C58-A71D-EA7847EEA9C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA4E02F-C775-4C56-8102-7F01746249F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="1985">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7241,10 +7241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运动为km，共步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泡菜菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7374,6 +7370,582 @@
   </si>
   <si>
     <t>15.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-180'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫长的告别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驹哥生日送驹哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和苗宝宝聊天好开心啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上放了一晚上的神探狄仁杰，这真的是在晚上睡觉也要做梦破案吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起来买了点豆芽，中午吃的炒豆芽!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和苗宝宝聊天好开心啊，我感觉她是要回来了，才会嘴硬，我想娶她!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午泽泽找我借钱，我不知道该如何拒绝，这他妈我也不知道该怎么办，我们两个是一个祖爷爷啊，我没借给他，毕竟我连自己都顾不住！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去见了波哥，我也不知道我们两个现在这样，两周见一次，成了最稳定的关系，也许这就是天意吧！我顿时间想起了小my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达哥欠了三十万的网贷，不知道他该怎么办，这一切都是猜测，毕竟他没告诉我们，没有公布，害怕他听不过来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚和小师妹聊天，感觉好开心啊，这回忆了我的峥嵘岁月，哈哈哈哈哈哈哈哈哈哈我快要笑死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和波哥看了哪吒，感觉要笑死人啊，红红火火恍恍惚惚，晚上吃了烤鱼，我请他吃的，毕竟他请我吃过很多饭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借达哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为12.52km，共17539步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.79km，共19318步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.19'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啦啦啦啦啦啦啦，我好开心！！！！！！！！我好爱她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上和苗宝宝吵架了，我也不知道为什么，她特别易怒，我不知道她知不知道这样不好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两天整个人都感觉到很开心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天大师姐跟我说了他的抗王的光荣事迹，把我笑得哈哈哈哈哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不喜欢他们不喜欢我的苗宝宝，如果是这样那么就恩断义绝老死不相往来吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上买自行车被耍了，我感觉我的智商被强奸了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想好想苗宝宝，想要得到她。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.94km，共15317步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上没找苗宝宝，她好像着急了。🤭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这几天和苗宝宝很开心，我也不知道为什么，因为我爱她吧，她问我喜欢她什么，也许她曾经真的让我温暖过！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下雨，早上迟到了，不知道会不会扣工资，我不想因为这点小事扣工资，真的因为不是因为我啊！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午撑伞去了野湖边，转的时候好像苗宝宝，想和她一起漫步，想和她做爱，想吻她，想抱着她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回去有点迟了，我也不知道为什么会成为这样！我好后悔。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心有猛虎，细嗅蔷薇，也许我真的是这种处境/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜、饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为12.86km，共18006步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道苗宝宝今天在忙什么，我想我不要和她主动聊天了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天倪旻给我布置了一个服务任务，就是把文件转换为json的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页版的人脸识别项目快要做成了，先放一段时间吧!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道苗宝宝怎么了，今天有点不开心，我觉得理想的状态就是双方心里都有着对方！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸说，奶奶去世多领了人家养老金，不知道为什么会这样，人家给发了一个什么通知单，我醉了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天吃了饺子，好久没有吃过饺子了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好累！要睡了，好久没有睡得很早了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是我还是很想苗宝宝啊，不管她怎么样，她都是我的苗宝宝，永远都是！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交睡着了，坐过了站，TMD好恶心啊这，白白浪费了好多时间花了好多钱！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭害灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡椒粉盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木薯淀粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.42km，共18802步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动和我说话总是好事嘛，我说！不知道是该喜还是该忧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em…今天又徒步来公司了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不太清楚苗宝宝的想法，看来我要和她见一面了，好想好想她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道什么时候才可以成长为一个不会经常吃瘪的人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吧，就这样吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.18km，共14257步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为17.81km，共24949步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-64.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油泼面，巨难吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给飞虎买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天问了苗宝宝她下周五来不来，她好像在犹豫，我不知道怎么办，给她一点时间考虑考虑吧!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天没有和苗宝宝说话，心里好着急好想她啊，她来不来跟我说一下啊？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天把服务做好了，不知道为什么迁移不成功，感觉好郁闷啊，不仅仅只因为这个！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和苗宝宝没有说成功，不知道她在想什么，既然想复合，就要做好一切的准备！我感觉自己被侮辱了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午快要走的时候，倪旻让给他发PPT，不知道早点的吗？？？我忒热妈惹法克，不开心，因为我要去鸟巢听演唱会了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下午和波哥去了鸟巢，以前我就发现这个人提不起来!遇事不决，量子力学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在外边听五月天演唱会的认真的多，很多人买不上票的，我才发现，我发誓我以后不会去这种人员密集的地方了，没有一点点体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个社会可以独立思考的人真的太少了！我很生气，我要提升我自己？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天等了苗宝宝的消息等了一天，没有等到，我感觉到很生气，真的很失望，我也不知道该怎么办。好想她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日一天无话。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7779,10 +8351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P539"/>
+  <dimension ref="A1:P595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="B541" sqref="B541"/>
+    <sheetView topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="A595" sqref="A595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7794,6 +8366,7 @@
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12523,87 +13096,527 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B528" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="C528" s="1" t="s">
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B529" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B529" t="s">
+      <c r="C529" s="1" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B530" t="s">
         <v>1811</v>
       </c>
-      <c r="C529" s="1" t="s">
+      <c r="C530" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B531" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B532" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B533" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B534" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B535" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B530" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B531" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B532" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B533" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B534" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B535" t="s">
+      <c r="C535" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="C535" s="1" t="s">
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A537" s="1" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A537" s="1" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E537" s="2">
+        <v>210.6</v>
+      </c>
+      <c r="J537">
+        <v>4158.6499999999996</v>
+      </c>
+      <c r="K537">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B538" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="C538" s="1" t="s">
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B539" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B539" t="s">
+      <c r="C539" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="C539" s="1" t="s">
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B540" t="s">
         <v>1841</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B541" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B542" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B543" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A545" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E545" s="2">
+        <v>55</v>
+      </c>
+      <c r="J545">
+        <v>4213.6499999999996</v>
+      </c>
+      <c r="K545">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B546" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B547" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B548" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B549" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B550" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B551" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A553" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E553" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="J553">
+        <v>4260.6499999999996</v>
+      </c>
+      <c r="K553">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B554" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B555" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B556" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B557" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B558" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B559" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B560" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A562" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E562" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="J562">
+        <v>4289.3500000000004</v>
+      </c>
+      <c r="K562">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B563" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B564" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B565" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B566" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A568" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E568" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="J568">
+        <v>4340.25</v>
+      </c>
+      <c r="K568">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B569" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B570" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B571" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B572" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B573" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B574" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B575" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B576" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A578" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E578" s="2">
+        <v>87.3</v>
+      </c>
+      <c r="J578">
+        <v>4427.55</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B579" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B580" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B581" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B582" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B583" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B584" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A586" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E586" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="J586">
+        <v>4480.51</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B587" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B588" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B589" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B590" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B591" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B592" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B593" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A595" s="1" t="s">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -12615,10 +13628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V352"/>
+  <dimension ref="A1:V364"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333"/>
+    <sheetView topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15167,12 +16180,90 @@
         <v>51</v>
       </c>
       <c r="C351" t="s">
-        <v>1808</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B353" t="s">
+        <v>51</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B355" t="s">
+        <v>51</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B357" t="s">
+        <v>51</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B359" t="s">
+        <v>51</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B361" t="s">
+        <v>51</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B363" t="s">
+        <v>51</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364" s="1" t="s">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -15184,10 +16275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X558"/>
+  <dimension ref="A1:X604"/>
   <sheetViews>
-    <sheetView topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="A559" sqref="A559"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="A604" sqref="A604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18002,47 +19093,277 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B550" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B551" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B552" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B553" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B554" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B555" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B556" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B557" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B559" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B560" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B561" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B562" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B563" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B564" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B565" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B566" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A567" s="1" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B568" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B569" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B570" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B571" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B572" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B573" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A574" s="1" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B575" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B576" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B577" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B578" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B579" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A580" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B581" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B582" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B583" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B584" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B585" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B586" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B587" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B588" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A589" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B590" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B591" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B592" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B593" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A594" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B595" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B596" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B597" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B598" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B599" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B600" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A601" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B602" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B603" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A604" s="1" t="s">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -18054,10 +19375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V163"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18885,17 +20206,87 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B168" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>1976</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA4E02F-C775-4C56-8102-7F01746249F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ABC7CB-4C7F-4EBA-8DEF-13B100F39349}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="2016">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7946,6 +7946,130 @@
   </si>
   <si>
     <t>今日一天无话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.90km，共15262步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京动物园门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-290'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和苗宝宝一起去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-54.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津-&gt;北京南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借飞虎的现金，还没还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好开心，和苗宝宝聊了一下午的天，好久没有这种感觉了！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.26'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞虎是条狗，说他早上六点钟起来做饭，我九点去他还在那玩游戏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢水浒里面的鲁智深和武松，有个性，坦诚！我好喜欢，比其他人强多了是吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和苗宝宝聊天，聊了一下午，我感觉以前的那种感觉回来了！这，我知道她回来了，我好开心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午吃了螺狮粉，是真心难吃啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鑫给我打电话说什么让我给他做饭去，他这两天拼了一辆玩具车，感觉他想跟我秀一下，我还要和苗宝宝聊天当然不肯去了，红红火火恍恍惚惚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和飞虎看什么巴里巴里王，看不进去啊这！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道谁给我买的远山淡影到了，不知道是谁，盲猜波哥！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上去买羊杂，结果没有了，好悲伤啊，我想买一些补补阳气！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和霞姐打电话，她还是那样，算了吧！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8351,15 +8475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P595"/>
+  <dimension ref="A1:P604"/>
   <sheetViews>
     <sheetView topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="A595" sqref="A595"/>
+      <selection activeCell="K595" sqref="K595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="24.125" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
@@ -13479,7 +13603,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
         <v>1938</v>
       </c>
@@ -13489,8 +13613,11 @@
       <c r="J578">
         <v>4427.55</v>
       </c>
-    </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K578">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B579" t="s">
         <v>1939</v>
       </c>
@@ -13501,7 +13628,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B580" t="s">
         <v>1940</v>
       </c>
@@ -13509,7 +13636,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B581" t="s">
         <v>1941</v>
       </c>
@@ -13517,7 +13644,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B582" t="s">
         <v>1954</v>
       </c>
@@ -13528,7 +13655,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B583" t="s">
         <v>1956</v>
       </c>
@@ -13536,7 +13663,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B584" t="s">
         <v>1959</v>
       </c>
@@ -13544,7 +13671,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
         <v>1961</v>
       </c>
@@ -13554,8 +13681,11 @@
       <c r="J586">
         <v>4480.51</v>
       </c>
-    </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K586">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B587" t="s">
         <v>1962</v>
       </c>
@@ -13566,7 +13696,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B588" t="s">
         <v>1963</v>
       </c>
@@ -13574,7 +13704,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B589" t="s">
         <v>1965</v>
       </c>
@@ -13582,7 +13712,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B590" t="s">
         <v>1966</v>
       </c>
@@ -13590,7 +13720,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B591" t="s">
         <v>1968</v>
       </c>
@@ -13598,7 +13728,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B592" t="s">
         <v>1970</v>
       </c>
@@ -13606,7 +13736,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B593" t="s">
         <v>1959</v>
       </c>
@@ -13614,9 +13744,88 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A595" s="1" t="s">
         <v>1976</v>
+      </c>
+      <c r="E595" s="2">
+        <v>489.4</v>
+      </c>
+      <c r="J595">
+        <v>4969.91</v>
+      </c>
+      <c r="K595">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B596" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B597" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B598" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B599" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B600" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B601" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B602" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A604" s="1" t="s">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
@@ -13628,10 +13837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V364"/>
+  <dimension ref="A1:V366"/>
   <sheetViews>
     <sheetView topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16266,6 +16475,19 @@
         <v>1976</v>
       </c>
     </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B365" t="s">
+        <v>51</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16275,10 +16497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X604"/>
+  <dimension ref="A1:X614"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="A604" sqref="A604"/>
+      <selection activeCell="B615" sqref="B615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19366,6 +19588,56 @@
         <v>1976</v>
       </c>
     </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B605" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B606" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B607" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B608" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B609" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B610" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B611" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B612" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B613" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A614" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19375,10 +19647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20284,9 +20556,19 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>1976</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099B828-7918-4A09-8F89-790E93A11512}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="finance" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="2167">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8162,14 +8161,526 @@
   </si>
   <si>
     <t>我现在对未来充满了憧憬，而不是绝望！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.13km，共18393步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想好想苗宝宝啊，我已经迫不及待想要见到你了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝她姐姐早上给她打电话说她爸爸的事，好像都哭了，听起来好伤感啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这几天脑子里想的都是她，我也不知道为什么！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午爸爸打视频说他要去县里了，奶奶去年过世好想她的养老金出了点问题，我也不知道什么情况！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝通话好开心啊，妈的，为什么我的生活里全都是她，这样不行啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌胸肉、饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗洁精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.28km，共20002步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.28'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是觉得，有一种言多必失地感觉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回来吃了饺子，我想应该是我想家了，我心里好难受！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝家里老是做不了决定，我也不知道，我找了狗来个三方通话解答问题！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松辉今天说周五过来，可是苗宝宝说他周五过来，我就拒绝了吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想我想要和苗宝宝继续下去！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午下班和倪旻讨论了一下问题，这应该是要重做项目了吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝说话说脱了，说到了快两点，罪过罪过！以后不要这样了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂钩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-18'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.29'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.77km，共19285步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感觉好开心，现在一想起她就感觉很开心！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝她姐好像签字了，说做支架，今天就做，她妈妈也到太原了，这还好吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝现在有什么事也第一时间跟我说，看来她把我当作了她的家人，但是我感觉我说的话有点多啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他爸爸今天下午做支架了，一根血管里做了三个，看样子很严重的样子，祝福她爸爸吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸和姐姐视频了，我也不知道为什么会这样，跟我妈说的一样，现在不知道我什么时候生日了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我到底什么时候生日啊，明天苗宝宝要来，我好开心啊，嘤嘤嘤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上苗宝宝和我说她周六想回太原一趟，说的是想看看她爸爸，应该的嘛，我想不知道她愿不愿意我一起回去！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和苗宝宝见面了，我们都很开心！可是晚上她还是不想成为我的女人，我很不高兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.30'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天把苗宝宝送走了，我有一点点离别的感伤，在火车站我紧紧地抱住她不想放手，我好脆弱啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望湘园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-181'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-217'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给波哥买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为18.71km，共26202步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.63km，共20491步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上又走来到了公司，还好没有堵车，要不我又该烦躁异常了，曹!我今天要去接苗宝宝啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去野湖边转了一圈，感觉好累啊！也感觉到好烦人，下午老哥和倪旻都找我要成果，我写不出来啊，我到底该怎么办才好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午瑞奇带我去了地铁站，我先去和信摩尔考察了一下地形@我发现我找不到醉湘啊，我不知道该怎么向苗宝宝交代了，她又该生气了，哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去 西直门接到了苗宝宝，我和她都很开心，我们去生命科学园地铁站吃了饭，我想我们应该是冰释前嫌了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上把苗宝宝带到了家里，她一进来就各种挑毛病，又是这又是那我不知道该怎么哄她了，说实话我有点生气，很尴尬床上发现了一个虫子，她快崩溃了@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要把她变成我的女人，可是她还是有点不太愿意，我感觉到很烦躁，她躺在床上，我紧紧地抱住她，想要忘记那一份与生俱来的孤独，可惜很短暂！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉的时候我抱着她，害怕她冷了热了没盖被子，操心了一整晚，我想我就是一个操心的命，谁让我爱她呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老薛今天说她还在欧洲，我天，她这个人路子好野，有点看不懂她了，总是找我问西安的房价，我想我也不知道啊@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝总是满嘴跑火车，我不知道我该信她哪一句，我想有时候我是判断出来的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上起的很早，我先洗漱，完了之后我叫苗宝宝起床，她很懒，叫她几遍都不起，我掀了她的被子，然后她起来了，我们走的时候抱了抱，很喜欢这种感觉@！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把她送到西站的路上我们聊了很多，虽然她的很多话不能信，但是我还是选择听下去@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西站门口，我们两个吃了葱油饼，我吃她的，她吃我的，吃完后我们相拥不想分开，把她送进站后我等车开了之后，我才走的，我好想她啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去了松辉家，他还是逗逼，有他的一套理论，这踏马我都不知道该怎么反驳他了，他给了我一大堆东西，我都不好意思要，但是我还是要了，因为我需要啊！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听了他的故事，我想三年前我们在一个公司，三年后我们又要来同一个公司了！@天道好轮回，苍天饶过谁啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午松辉和我一起来沙河看房子，可能他有点不太满意。想要去回龙观住，好吧，服了他了！最后又想和波哥住，看不懂啊这！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上请他们两个吃了饭，为我补了生日，我感觉我好感动啊！时间是变化的，总有一些人或者事物会变，越来越看不懂的那种！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波哥晚上来家里帮我搬床，是因为苗宝宝不喜欢那种风格，如她所愿吧，我还是希望她还会来的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频，他说他害怕把寄给我的东西和妈妈的混了，结果是没有的，下午很烦，没有好好说话，明天再说吧!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝想要明天晚上的夜车，不想她坐在那里，想给她买卧铺，结果没有抢到票，明天再说吧!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要把苗宝宝送我的手环给利用起来!!!!!很开心她送我的礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8186,6 +8697,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -8220,7 +8746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8229,6 +8755,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8289,7 +8818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8322,26 +8851,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8374,23 +8886,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8566,11 +9061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P613"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P657"/>
   <sheetViews>
-    <sheetView topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="K604" sqref="K604"/>
+    <sheetView topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="B661" sqref="B661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13841,10 +14336,10 @@
         <v>1976</v>
       </c>
       <c r="E595" s="2">
-        <v>489.4</v>
+        <v>199.4</v>
       </c>
       <c r="J595">
-        <v>4969.91</v>
+        <v>4679.91</v>
       </c>
       <c r="K595">
         <v>6553.13</v>
@@ -13867,13 +14362,13 @@
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B598" t="s">
+      <c r="B598" s="8" t="s">
         <v>1991</v>
       </c>
-      <c r="C598" s="1" t="s">
+      <c r="C598" s="9" t="s">
         <v>1992</v>
       </c>
-      <c r="D598" t="s">
+      <c r="D598" s="10" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -13923,7 +14418,10 @@
         <v>25.2</v>
       </c>
       <c r="J604">
-        <v>4995.1099999999997</v>
+        <v>4705.1099999999997</v>
+      </c>
+      <c r="K604">
+        <v>6553.13</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
@@ -13958,7 +14456,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B609" t="s">
         <v>2024</v>
       </c>
@@ -13966,12 +14464,21 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E611" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="J611">
+        <v>4732.21</v>
+      </c>
+      <c r="K611">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B612" t="s">
         <v>2027</v>
       </c>
@@ -13979,12 +14486,352 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B613" t="s">
         <v>2028</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2029</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B614" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B615" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B616" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B617" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E619" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="J619">
+        <v>4783.3100000000004</v>
+      </c>
+      <c r="K619">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B620" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B621" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B623" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D623" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B625" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B626" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E629" s="2">
+        <v>35</v>
+      </c>
+      <c r="J629">
+        <v>4818.3100000000004</v>
+      </c>
+      <c r="K629">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B633" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B637" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E639" s="2">
+        <v>212</v>
+      </c>
+      <c r="J639">
+        <v>5030.3100000000004</v>
+      </c>
+      <c r="K639">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B640" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B641" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B643" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B644" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E647" s="2">
+        <v>251.5</v>
+      </c>
+      <c r="J647">
+        <v>5281.81</v>
+      </c>
+      <c r="K647">
+        <v>6553.13</v>
+      </c>
+    </row>
+    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B648" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B649" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B650" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B651" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B652" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B653" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A655" s="5"/>
+      <c r="B655" s="5"/>
+      <c r="C655" s="5"/>
+      <c r="D655" s="5"/>
+      <c r="E655" s="6"/>
+      <c r="F655" s="5"/>
+      <c r="G655" s="5"/>
+      <c r="H655" s="5"/>
+      <c r="I655" s="6"/>
+      <c r="J655" s="5"/>
+      <c r="K655" s="5"/>
+      <c r="L655" s="5"/>
+      <c r="M655" s="5"/>
+      <c r="N655" s="5"/>
+      <c r="O655" s="5"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>2144</v>
       </c>
     </row>
   </sheetData>
@@ -13995,11 +14842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V368"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V382"/>
   <sheetViews>
-    <sheetView topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="C367" sqref="C367"/>
+    <sheetView topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="B385" sqref="B385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16657,7 +17504,100 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>1985</v>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>51</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>51</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>51</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>51</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>51</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A379" s="5"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="5"/>
+      <c r="L379" s="5"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+    </row>
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>51</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -16668,11 +17608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X621"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="B622" sqref="B622"/>
+    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="A664" sqref="A664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19845,6 +20785,235 @@
         <v>2026</v>
       </c>
     </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B622" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B623" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B624" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B625" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B627" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B628" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B629" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B630" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B631" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B632" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B634" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B635" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B636" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B637" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B638" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B639" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B641" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B642" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B643" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B644" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B645" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B646" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B647" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B648" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B649" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B651" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B652" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B653" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B654" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B655" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B656" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B657" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B658" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B659" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B660" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B661" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A662" s="5"/>
+      <c r="B662" s="5"/>
+      <c r="C662" s="5"/>
+      <c r="D662" s="5"/>
+      <c r="E662" s="5"/>
+      <c r="F662" s="5"/>
+      <c r="G662" s="5"/>
+      <c r="H662" s="5"/>
+      <c r="I662" s="5"/>
+      <c r="J662" s="5"/>
+      <c r="K662" s="5"/>
+      <c r="L662" s="5"/>
+      <c r="M662" s="5"/>
+      <c r="N662" s="5"/>
+      <c r="O662" s="5"/>
+      <c r="P662" s="5"/>
+      <c r="Q662" s="5"/>
+      <c r="R662" s="5"/>
+      <c r="S662" s="5"/>
+      <c r="T662" s="5"/>
+      <c r="U662" s="5"/>
+      <c r="V662" s="5"/>
+    </row>
+    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19853,11 +21022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20763,24 +21932,98 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1976</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>2005</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>2032</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>2119</v>
       </c>
     </row>
   </sheetData>
@@ -20791,7 +22034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="2191">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8673,6 +8673,102 @@
   </si>
   <si>
     <t>09.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为12.52km，共17540步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我心里好慌啊！好害怕她会像以前那样，我也不知道我该怎么办！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上和妈妈视频了，感觉她的压力好大，我也不知道，看着父母离自己越来越远，自己没有任何办法 ，好恨自己啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去飞虎那里把床单洗了一下，那晚把苗宝宝吓得哇哇直叫，哈哈哈哈哈哈哈哈哈哈，我要清理一下！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午去吃了一碗羊杂面，我觉得我需要补一下！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去秦鑫那里了，感觉他那个室友有点问题，真的让人感觉不舒服啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上算是和 苗宝宝吵架了吧，感觉和她有点脱节，我好烦啊，她为什么要这样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她爸爸下周还要做搭桥手术，真的是惨啊这。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和霞姐视频了，xpking也在，我们说了话，好久没有和xpking说话了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上会来到很晚，飞虎还在等我给他买的水，好搞笑啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上没和爸爸视上频，明天看一下到底是怎么了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.02'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9062,10 +9158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P657"/>
+  <dimension ref="A1:P664"/>
   <sheetViews>
     <sheetView topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="B661" sqref="B661"/>
+      <selection activeCell="F668" sqref="F668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14829,9 +14925,63 @@
       <c r="N655" s="5"/>
       <c r="O655" s="5"/>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>2144</v>
+      </c>
+      <c r="E657" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="J657" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="K657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B658" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B659" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B660" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B661" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B662" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>2176</v>
       </c>
     </row>
   </sheetData>
@@ -14843,10 +14993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V382"/>
+  <dimension ref="A1:V384"/>
   <sheetViews>
     <sheetView topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="B385" sqref="B385"/>
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17597,7 +17747,20 @@
         <v>51</v>
       </c>
       <c r="C382" t="s">
-        <v>1414</v>
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>51</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2177</v>
       </c>
     </row>
   </sheetData>
@@ -17609,10 +17772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X664"/>
+  <dimension ref="A1:X674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
-      <selection activeCell="A664" sqref="A664"/>
+    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="A674" sqref="A674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21014,6 +21177,56 @@
         <v>2166</v>
       </c>
     </row>
+    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B667" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B668" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B670" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B671" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B672" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B673" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21023,10 +21236,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:V195"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22021,9 +22234,19 @@
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>2119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>2180</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="2365">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8769,6 +8769,702 @@
   </si>
   <si>
     <t>09.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.89km，共20853步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天苗宝宝要我和她一起回家，感觉好开心啊这，但是，我该回去呢还是不该回去！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚苗宝宝坐的坐票回的天津，一晚上应该很累吧，很心疼她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为15.26km，共21373步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上走的来的公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好累，已经忘了今天到底发生了什么事情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞姐回学校了，应该是这样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗宝宝要我买票国庆和她一起回家，应该是她爸爸想要见我吧，我到底该怎么办呢，好难啊这！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上又徒步来到了公司，早上和妈妈说我国庆回家的事，把我气的啊这，我也不知道该说什么，她那人自己犯了错误想要让所有的人都来承担。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午好累啊，睡了一小会儿，给佳yi介绍我波哥，他妈的他还不愿意，烦死了都。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霞姐说小平可能走不了了，我想小平这个人有点不靠谱啊，为什么会这样，发生这种事情？？？？令人匪夷所思！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午松辉过来看房子，临了人变卦了说房租从1.5涨到了1.7k，他就有点不愿意了，这么多年过去了，他还是那么逗，今天又跟我说他要结婚了，我白了他一眼，云结婚吧，他哈哈一笑！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上爸爸和我说苗宝宝他爸爸可能在逼婚，说什么看我呢，就是想暗示我赶紧向苗宝宝求婚我们结婚什么的，我想大概是这样吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝视频了，看着她的样子，我感觉好开心啊，哈哈哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午办了两张信用卡，我觉得对我来说可能没用，但是我想送豪豪一个飞机玩具，真的是这样吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我真的想和苗宝宝结婚了，但是我的压力好大啊，我到底该怎么做才是最好的！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啦啦啦啦啦啦啦啦啦，我好开心啊！和苗宝宝在一起！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜、罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.54km，共18964步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想她！想到不行不行的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下午和苗宝宝吵架了，我当场就怀疑她是有要和我闹呢，吓了我一跳!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和嘉欣打电话，我也不知道和她说什么，说了一会儿就挂电话了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸视频，他说李毅晶要结婚了，我他妈很讨厌这个女人，离我远点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝视频，感觉到好开心啊，哈哈哈哈哈哈哈哈哈哈哈！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和霞姐说话，已经没有以前的那种感觉了，也许是真的离得太远了，我也不知道？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想和苗宝宝结婚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟑螂药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花露水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶、方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零花钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给苗宝宝的！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为15.41km，共21576步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想给苗宝宝求婚啊，但是苦于囊中羞涩，啥也没有啊，哈哈哈哈哈，笑得好尴尬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两天办了两张信用卡，但是感觉没有什么用啊，这信用卡，想不通为什么要办这东西，难道是为了一个破箱子？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天晚上和佳yi一起坐班车出园子，感觉没什么话说，她一直在和谁聊天，好吧，好尴尬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝聊天到很晚，这是为什么呢？她已经在心底里接受了我，感觉好开心啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天发工资了，晚上给苗宝宝发了一千的零花钱，好吧我的女人当然要给了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两天到交房租的时间了，没有见房东说，感觉好尴尬啊这，我要不要主动去找一下房东？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.06'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊杂面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-13.48'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天晚上回来的晚，没有和苗宝宝视频成，好想好想她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为15.26km，共21376步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天发现了一个细思极恐的事情，我发现这踏马没有9.30去天津的票了，我脑海中有了很多种想法，提前一天去！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上等倪旻，他被他领导交过去了，八点半才回来，我问他能不能用一天周六加班换一天调休，他说可以，好吧我想这就是我想要的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天有了一个新任务，和运营、别的小组沟通，确定了业务需求！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我发现了很多BUG，我觉得我可以强奸整个世界了。哈哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回来很晚，没有和苗宝宝视频，感觉好悲伤啊，我好想他，不知道该怎么办/////</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天要去加班了，希望可以做好什么东西。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上去飞虎家，他爸爸在，我把衣服放在那，和他聊了一会儿，飞虎不在，不知道去哪里了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上来公司加班，又是熟悉的套路，徒步来公司，感觉好爽！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃饭没有排队，好开心啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午休息了一下，下午工作好爽！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松辉昨晚说，他要搬到波哥那里去，唐家岭，我想他可能是想让我帮他搬家吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午去波哥那里，他应该会管我一顿饭把，明天要去保定当志愿者了，不知道苗宝宝在干什么，没空和我说话，好想好想她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天要抢票，我没时间，好紧张好紧张，我该怎么办啊，抢不到就坑了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.25km，共19951步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为10.93km，共15308步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.07'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝不知道今天干啥了，没有和我说太多话，我一个人好孤单啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.08'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天和苗宝宝通话，才发现她一个人的时候也是那么的孤独无助，好心疼她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.09'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了唐家岭波哥的房子里，我也想拥有一套房子！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸催我结婚了，可是我暂时不想结，我到底该怎么办啊？？？？？？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天早上早起去保定当志愿者，波哥四点起来为了工作，他妈的笑死我了快，哈哈哈哈哈哈哈哈哈哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出发的地方在北京西站的红星美凯龙，其实唐家岭到那里也不是太远啊，终于看见了凌晨四点钟的北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去的地方在保定和山西的边界，涞源县和灵丘县，终于看到了《盲山》和《嫁给大山的女人》发生的地方的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看望的孤寡老人，生活条件特别艰苦，他们一辈子没有结过婚，无儿无女，等他们死后就什么都没有了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老人叫白二孩，这个名字一听就知道怎么回事了，和他兄弟一起住着，这。。。。。。。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回来很晚，还帮松辉搬东西了，他又在说着他的云结婚理论，我真他妈！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上去飞虎那里拿衣服，吓了他一大跳，哈哈哈哈哈哈哈哈哈哈！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝视频的时候，很开心啊！可是一涉及我们各自利益的问题的时候，我又不知道怎么面对，好吧有点不愉快了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想苗宝宝。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9158,10 +9854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P664"/>
+  <dimension ref="A1:P725"/>
   <sheetViews>
-    <sheetView topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="F668" sqref="F668"/>
+    <sheetView topLeftCell="A701" workbookViewId="0">
+      <selection activeCell="C726" sqref="C726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14932,7 +15628,7 @@
       <c r="E657" s="2">
         <v>32.5</v>
       </c>
-      <c r="J657" s="2">
+      <c r="J657">
         <v>32.5</v>
       </c>
       <c r="K657">
@@ -14982,6 +15678,450 @@
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>2176</v>
+      </c>
+      <c r="E664" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="J664">
+        <v>108</v>
+      </c>
+      <c r="K664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B665" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B666" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B667" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B668" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B669" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B670" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B671" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E673" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="J673">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="K673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B674" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B675" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B676" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B677" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B678" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E680" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="J680">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B681" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B682" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B683" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B684" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B685" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B686" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B687" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E689" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="J689">
+        <v>259.7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B690" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B691" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B692" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B693" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B694" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B695" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B696" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B697" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B698" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B699" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B700" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B701" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B704" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B705" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B706" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B707" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D707" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B708" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B709" t="s">
+        <v>705</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B710" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B713" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B714" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B715" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B718" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B719" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B722" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B723" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B724" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B725" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>2344</v>
       </c>
     </row>
   </sheetData>
@@ -14993,10 +16133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V384"/>
+  <dimension ref="A1:V398"/>
   <sheetViews>
-    <sheetView topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="B387" sqref="B387"/>
+    <sheetView topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17760,7 +18900,98 @@
         <v>51</v>
       </c>
       <c r="C384" t="s">
-        <v>2177</v>
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>51</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>51</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>51</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>51</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>51</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>51</v>
+      </c>
+      <c r="C396" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>51</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2317</v>
       </c>
     </row>
   </sheetData>
@@ -17772,10 +19003,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X674"/>
+  <dimension ref="A1:X729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="A674" sqref="A674"/>
+    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="P710" sqref="P710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21227,6 +22458,281 @@
         <v>2190</v>
       </c>
     </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B675" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B676" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B677" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B678" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B679" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B681" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B682" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B683" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B684" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B685" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B686" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B687" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B688" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B690" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B691" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B692" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B693" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B694" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B695" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B697" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B698" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B699" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B700" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B701" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B703" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B704" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B705" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B706" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B707" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B708" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B710" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B711" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B712" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B713" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B714" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B715" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B716" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B717" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B718" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B720" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B721" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B722" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B723" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B724" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B725" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B726" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B727" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B728" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21236,10 +22742,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V195"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22249,6 +23755,76 @@
         <v>2180</v>
       </c>
     </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="2450">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9465,6 +9465,346 @@
   </si>
   <si>
     <t>好想苗宝宝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考肠、掉渣饼！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰水、铲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为16.31km，共22839步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知道怎么了，苗宝宝这两天不开心，我不在她身边也帮不上什么忙，晚上和她吵架了，我挂断了视频，不想再理她了，在她心里我到底算什么啊？？？？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.10'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷战第一天，我想要她来找我承认错误！我不会主动去找她了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我从来都不是一个心急之人，但业务可能比较心急，仅仅一天就要人给测试结果，这都是什么啊这是，真的是！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天不知道苗宝宝怎么了，对我爱答不理的，我很无辜感觉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和老姚老吕说的是泰康商学院那边吃饭，没走到门口就发现雨下得很大，我们就悻悻作罢，去了地下室吃饭说的明天再去！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在很喜欢吃一块钱的干吃面。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上去飞虎那找他的铲子看铲地板好不好使，结果人家不愿意让用，哦算了吧，草草结案吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝视频，她对我大喊大叫我也不知道为什么，但是我还是爱她啊，还是想抱着她睡觉，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后她连续问了我几句，你算什么东西啊？我也不知道为什么会这样，在她的心里我一点地位也没有，我好伤心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和爸爸又闹得不开心，我也不知大这两天究竟是怎么了，不知道谁可以拯救我，拯救我的生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固体清新剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5.3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天好伤感，没有和苗宝宝说话，可是我好想她，她很暴躁，我和她说不成话，我到底该怎么办啊啊啊啊啊啊啊啊啊啊啊啊啊啊！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午和老姚老吕去商学院那边吃饭，感觉走了好远的路，这踏马以后再也不去了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午时间下雨，去野湖边走走，被淋成了落汤鸡，感觉这个时候很应景呢不是吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回去给家里里里外外来了个大扫除！我想苗宝宝可能要来了，我得要迎接她，可是现在我也不确定该怎么办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好烦啊，我到底该怎么做才好。啊啊啊啊啊啊啊啊啊啊啊啊啊啊！！！烦烦烦烦烦烦烦烦烦烦烦烦烦烦烦烦烦烦。。。。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉自己好落寞，好可怕的一天！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午把项目的响应时间测出来了，用的时间不多，0.5秒够快了吧！！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-26.9'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.01km，共19625步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.11'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想她啊啊啊啊啊啊啊啊啊啊啊啊啊啊，可是，未来的路又在哪里呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.12'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上写了一早上周报，感觉很不开心！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午又装了一下午的python包，我想这种乏味又枯燥的工作我想写个脚本自动安装！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想好想苗宝宝，可是我们两个人的困局该如何打破呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天申请的权限被驳回了，今天又申请了一个，倪旻专门跑过来问了我一下，看是怎么回事，我想我犯了错误我应该提前告诉他的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上和苗宝宝视频，她没有接，不知道她在干什么呢？故意的还是真的睡着了，我心里好担心又好失望，我快坚持不下去了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上睡在厚厚的被子上，感觉很舒服//////</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等到她到十二点都没有等到，我想我要睡觉了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪旻早上没有来，我想他今天应该是有什么事吧，又要舒服一天了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上甚至一天苗宝宝都没有回复我，我想她是故意的，不知道她到底想要什么，她是烦的不行还是怎么，她为什么不考虑我的感受呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我快要哭了，我好难啊啊。我想我要准备后手了，不能被她整天这样做，这样我们该怎么继续下去？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午看了那一本易学python，感觉真的是一本入门技术书籍啊，我是看不进去的///</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好想苗宝宝，她到底在干什么啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊！！！光荣孤立？？？？我不要！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9854,10 +10194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P725"/>
+  <dimension ref="A1:P753"/>
   <sheetViews>
-    <sheetView topLeftCell="A701" workbookViewId="0">
-      <selection activeCell="C726" sqref="C726"/>
+    <sheetView topLeftCell="A726" workbookViewId="0">
+      <selection activeCell="M747" sqref="M747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15809,6 +16149,9 @@
       <c r="J680">
         <v>170.2</v>
       </c>
+      <c r="K680">
+        <v>0</v>
+      </c>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B681" t="s">
@@ -15866,7 +16209,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>2255</v>
       </c>
@@ -15876,8 +16219,11 @@
       <c r="J689">
         <v>259.7</v>
       </c>
-    </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K689">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B690" t="s">
         <v>2250</v>
       </c>
@@ -15885,7 +16231,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B691" t="s">
         <v>2242</v>
       </c>
@@ -15893,7 +16239,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B692" t="s">
         <v>2254</v>
       </c>
@@ -15901,7 +16247,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B693" t="s">
         <v>2267</v>
       </c>
@@ -15909,7 +16255,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B694" t="s">
         <v>2269</v>
       </c>
@@ -15917,7 +16263,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B695" t="s">
         <v>2271</v>
       </c>
@@ -15925,7 +16271,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B696" t="s">
         <v>2273</v>
       </c>
@@ -15933,7 +16279,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B697" t="s">
         <v>2275</v>
       </c>
@@ -15941,7 +16287,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B698" t="s">
         <v>2277</v>
       </c>
@@ -15949,7 +16295,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B699" t="s">
         <v>2279</v>
       </c>
@@ -15957,7 +16303,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B700" t="s">
         <v>2281</v>
       </c>
@@ -15965,7 +16311,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B701" t="s">
         <v>2283</v>
       </c>
@@ -15973,12 +16319,21 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>2285</v>
       </c>
-    </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E703" s="2">
+        <v>1043</v>
+      </c>
+      <c r="J703">
+        <v>1302.7</v>
+      </c>
+      <c r="K703">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B704" t="s">
         <v>2269</v>
       </c>
@@ -15986,7 +16341,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B705" t="s">
         <v>2286</v>
       </c>
@@ -15994,7 +16349,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B706" t="s">
         <v>2288</v>
       </c>
@@ -16002,7 +16357,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B707" t="s">
         <v>2290</v>
       </c>
@@ -16013,7 +16368,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B708" t="s">
         <v>2279</v>
       </c>
@@ -16021,7 +16376,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B709" t="s">
         <v>705</v>
       </c>
@@ -16029,7 +16384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B710" t="s">
         <v>2305</v>
       </c>
@@ -16037,12 +16392,21 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E712" s="2">
+        <v>24.48</v>
+      </c>
+      <c r="J712">
+        <v>1327.18</v>
+      </c>
+      <c r="K712">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B713" t="s">
         <v>2308</v>
       </c>
@@ -16050,7 +16414,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B714" t="s">
         <v>2310</v>
       </c>
@@ -16058,7 +16422,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B715" t="s">
         <v>2312</v>
       </c>
@@ -16066,12 +16430,21 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E717" s="2">
+        <v>11</v>
+      </c>
+      <c r="J717">
+        <v>1338.18</v>
+      </c>
+      <c r="K717">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B718" t="s">
         <v>2333</v>
       </c>
@@ -16079,7 +16452,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B719" t="s">
         <v>2335</v>
       </c>
@@ -16087,12 +16460,21 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E721" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="J721">
+        <v>1379.98</v>
+      </c>
+      <c r="K721">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B722" t="s">
         <v>2333</v>
       </c>
@@ -16100,7 +16482,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B723" t="s">
         <v>2338</v>
       </c>
@@ -16108,7 +16490,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B724" t="s">
         <v>2339</v>
       </c>
@@ -16116,12 +16498,227 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B725" t="s">
         <v>2340</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>2344</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B726" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B727" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B728" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B729" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E731" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="J731">
+        <v>1418.58</v>
+      </c>
+      <c r="K731">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B732" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B733" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B734" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B735" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B736" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B737" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B738" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E740" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="J740">
+        <v>1466.48</v>
+      </c>
+      <c r="K740">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B741" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B742" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B743" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B744" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B745" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B746" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B747" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B748" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="K750">
+        <v>7227.92</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B751" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B752" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="753" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B753" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>2433</v>
       </c>
     </row>
   </sheetData>
@@ -16133,10 +16730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V398"/>
+  <dimension ref="A1:V402"/>
   <sheetViews>
-    <sheetView topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="D398" sqref="D398"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="H389" sqref="H389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18991,7 +19588,33 @@
         <v>51</v>
       </c>
       <c r="C398" t="s">
-        <v>2317</v>
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>51</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>51</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2434</v>
       </c>
     </row>
   </sheetData>
@@ -19003,10 +19626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X729"/>
+  <dimension ref="A1:X759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
-      <selection activeCell="P710" sqref="P710"/>
+    <sheetView tabSelected="1" topLeftCell="A732" workbookViewId="0">
+      <selection activeCell="B759" sqref="B759"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22733,6 +23356,156 @@
         <v>2353</v>
       </c>
     </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B730" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B731" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B732" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B733" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B734" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B735" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B736" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B737" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B739" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B740" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B741" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B742" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B743" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B744" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B745" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B747" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B748" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B749" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B750" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B751" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B752" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B753" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B755" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B756" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B757" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B758" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B759" t="s">
+        <v>2449</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22742,10 +23515,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:V215"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -23820,9 +24593,39 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>2353</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>2437</v>
       </c>
     </row>
   </sheetData>

--- a/2019/finance_health_decision_2019.xlsx
+++ b/2019/finance_health_decision_2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="2706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="2827">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10829,6 +10829,490 @@
   </si>
   <si>
     <t>运动为15.97km，共22373步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.21'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为8.74km，共12238步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为15.97km，共22373步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为14.44km，共20476步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水、手帕纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼夹菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-38.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-34'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-204'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠拉面小笼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-146'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呷脯呷脯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-25.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">烤肠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正新鸡排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-260'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彪马！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金泰你又要和苗宝宝见面了，想她的容颜，想和她抱在一起，想她的大屁股。/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天中午和晚上都和宝宝视频了，我好开心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我又是什么呢？好无助的样子/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚和今早都没联系上宝宝，昨天上午说好的我们今天去弗洛伦萨小镇，本以为是什么地方，原来是一个购物的地方！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没联系上她，我就早早地出门了，感觉她会在我去的路上醒来，结果真的不出我所料！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她起来还想改变被我堵住了，我好想好想她，她说她回来，我就知道我要等她！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午到的弗洛伦萨小镇，说好的吃饭，她想吃上海菜，结果上海菜贼贵啊，踏马的以后再也不吃了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午买衣服的时候，她一直骂我，哈哈哈哈哈哈哈哈，她心里还是在乎我的嘛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要抱着她，想要吻她，想要和她融为一体，好爱好爱她/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上我想去天津，她不想让我去，闹得好不愉快，我很不开心，最后我妥协着接受了现实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弗洛伦萨地河边，紧紧地抱着她，然后吻她，我想这就是我最幸福地瞬间！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和她拍照留念，最后我想要我们的合照她却不给，我想这让我很不开心啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别的时候，我们站在站台地两侧，她叫我猪，我告诉她，猪一直在看你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了不让她不开心，我买了一个衬衫，结果我没带银行卡，她帮我结的账，最后她说我应该还她钱，我说可以，那就分一辈子还清吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝给我买的箱子到了，我让飞虎拿了回去，他好像很不开心地样子/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上和妈妈视频，感觉她还是那样，自己犯了错误还死不承认，跳进黄河都不回头，我很生气！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午宝宝告诉我她拉肚子了，问我拉不拉，不知道她是吃了什么东西，为什么我没事呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午睡了一觉，去飞虎家拿箱子拿手机，不想和他说话，有一点点作，不想理他，也许就是这样总有一些人会渐行渐远/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给爸爸买的手机总体上来说还是可以的吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝想买箱子，结果我和她东拉西扯了两小时，哈哈哈哈哈哈哈哈哈哈哈哈，挺佩服我俩的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好爱好爱她/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好难啊，我到底该怎么办才会拿更多的钱，我现在需要更多的钱来养家糊口！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和姐姐视频，豪豪说我是笨蛋，快要气死我了，不知道是谁交给他的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚煮的饺子，晾干后今早拿过来中午吃的时候，发现里面有一根头发，曹，气死我了，这跟头发从哪里来的啊，我还不敢声张，不喜欢这种感觉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和苗宝宝讨论直系亲属的问题，我想让她成为我的未婚妻，结果她死活不愿意，我也不知道该怎么办了，我不开心她也不开心，但是为什么呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午和赵盛帮他看了一下gitlab，看不好啊，我这里一堆破事没整理好，我哪有那么多时间帮他啊！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来晚上又要加班了，果不其然加班了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上宝宝和同事去了超市，不知道去超市干什么了又，真的是！不知道一个人走在外边不安全吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上回家又要坐地铁了，花好多钱！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上爸爸给我打视频说，家里没电费了，我知道有时想让我交电费！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.22'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-14.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.23'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为12.39km，共17352步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹，今天早上过来che程序又崩了，我踏马到底该怎么办啊，要是这样的话，我该完不成任务了，这踏马该怎么办！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天都是忧愁，感觉压力好大！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好想好像苗宝宝啊，真的是!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达哥现在好像成了树洞，快要笑死我和波哥了！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就说河南人是有问题的，松辉昨天还说要和他的开封老乡一起回家呢，踏马的昨天下午就吵了架谁也不理谁了，何必呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天他们玩的那个国旗活动，在微信头像上放的国旗图标，快要把人笑死了？有意思吗一群没有思想的咸鱼/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.7'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.25'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动为13.11km，共18360步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11218,10 +11702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P842"/>
+  <dimension ref="A1:P881"/>
   <sheetViews>
-    <sheetView topLeftCell="A826" workbookViewId="0">
-      <selection activeCell="B843" sqref="B843"/>
+    <sheetView topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="C883" sqref="C883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -18412,6 +18896,295 @@
         <v>2692</v>
       </c>
     </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B843" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B844" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B845" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B846" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B847" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B848" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D848" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B849" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D849" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B850" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D850" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B853" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B854" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B855" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B856" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D856" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B857" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B858" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B861" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B862" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B863" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B864" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B865" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B866" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D866" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B867" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B868" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B871" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B872" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B873" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B874" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B875" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B876" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B879" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B880" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="881" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B881" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>2825</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18421,10 +19194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V419"/>
+  <dimension ref="A1:V429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="E423" sqref="E423"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="C431" sqref="C431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21417,6 +22190,71 @@
         <v>2693</v>
       </c>
     </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>51</v>
+      </c>
+      <c r="C420" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>51</v>
+      </c>
+      <c r="C422" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>51</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>51</v>
+      </c>
+      <c r="C426" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>51</v>
+      </c>
+      <c r="C428" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>2819</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21426,10 +22264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X844"/>
+  <dimension ref="A1:X880"/>
   <sheetViews>
-    <sheetView topLeftCell="A814" workbookViewId="0">
-      <selection activeCell="C856" sqref="C856"/>
+    <sheetView topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="B880" sqref="B880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25731,6 +26569,186 @@
         <v>2704</v>
       </c>
     </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B845" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B846" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B847" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B848" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B849" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B850" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B851" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B852" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B853" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B854" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B855" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B856" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B858" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B859" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B860" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B861" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B862" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B863" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B864" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B865" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B867" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B868" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B869" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B870" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B871" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B872" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B873" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B875" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B876" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B877" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B878" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B879" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B880" t="s">
+        <v>2814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25740,10 +26758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V235"/>
+  <dimension ref="A1:V241"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26953,6 +27971,36 @@
         <v>2695</v>
       </c>
     </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>2762</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
